--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF93AC2D-09E4-4F59-ADC5-824E805DF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B178CAEB-AB9C-4979-AD25-7BA35EB6DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DD03C91-3557-4809-95C2-8CC22C0AA87E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{45ADCF48-5EBB-400F-9A96-BC3805A716F2}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="327">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -144,6 +144,9 @@
     <t>НАУМЧИК Сергей Александрович</t>
   </si>
   <si>
+    <t>ТРАВКИН Сергей Николаевич</t>
+  </si>
+  <si>
     <t>АКСЮЧИЦ Александр Петрович</t>
   </si>
   <si>
@@ -156,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>1 / 1</t>
+    <t>1 / 2</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>139 / 115</t>
+    <t>209 / 192</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>69,5 / 57,5</t>
+    <t>69,7 / 64,0</t>
   </si>
   <si>
     <t>Игры</t>
@@ -180,100 +183,103 @@
     <t>GOLDEN HILL - SIRIUS 64:63</t>
   </si>
   <si>
+    <t>SIRIUS - Mapogo males 70:77</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 27,5</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 14,5</t>
+    <t>ТУРОВЕЦ Роман 32,0</t>
   </si>
   <si>
     <t>ЧАЙКО Евгений 14,0</t>
   </si>
   <si>
+    <t>КОВАЛЕНКО Олег 11,3</t>
+  </si>
+  <si>
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 44,8</t>
-  </si>
-  <si>
-    <t>БЕЗРУЧЕНКО Евгений 42,9</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 42,3</t>
+    <t>ТУРОВЕЦ Роман 52,1</t>
+  </si>
+  <si>
+    <t>БЕЗРУЧЕНКО Евгений 47,4</t>
+  </si>
+  <si>
+    <t>ЧАЙКО Евгений 36,4</t>
   </si>
   <si>
     <t>% 3 очк.</t>
   </si>
   <si>
+    <t>ГАБРУКОВИЧ Павел 100,0</t>
+  </si>
+  <si>
     <t>ГЕРАСИМОВИЧ Сергей 100,0</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 100,0</t>
-  </si>
-  <si>
     <t>ЧАЙКО Евгений 33,3</t>
   </si>
   <si>
     <t>% штр.</t>
   </si>
   <si>
-    <t>БЕЗРУЧЕНКО Евгений 100,0</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 63,6</t>
-  </si>
-  <si>
-    <t>МОЛОЧНИКОВ Александр 50,0</t>
+    <t>БЕЗРУЧЕНКО Евгений 66,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 61,5</t>
+  </si>
+  <si>
+    <t>ТУРОВЕЦ Роман 51,4</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 15,5</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 12,0</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 7,0</t>
+    <t>ГАБРУКОВИЧ Павел 13,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 13,7</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 7,3</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 5,0</t>
+    <t>СИКОРСКИЙ Егор 5,5</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
-    <t>ГЕРАСИМОВИЧ Сергей 2,5</t>
+    <t>ТУРОВЕЦ Роман 2,7</t>
   </si>
   <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,5</t>
-  </si>
-  <si>
-    <t>СИКОРСКИЙ Егор 3,0</t>
+    <t>СИКОРСКИЙ Егор 2,5</t>
+  </si>
+  <si>
+    <t>ТУРОВЕЦ Роман 2,3</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
+    <t>ГАБРУКОВИЧ Павел 1,3</t>
+  </si>
+  <si>
     <t>ЧАЙКО Евгений 1,0</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 1,0</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 0,5</t>
+    <t>КОВАЛЕНКО Олег 0,7</t>
   </si>
   <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
@@ -327,127 +333,499 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>75:27</t>
-  </si>
-  <si>
-    <t>13/29</t>
-  </si>
-  <si>
-    <t>7/29</t>
-  </si>
-  <si>
-    <t>8/19</t>
+    <t>111:42</t>
+  </si>
+  <si>
+    <t>25/48</t>
+  </si>
+  <si>
+    <t>9/40</t>
+  </si>
+  <si>
+    <t>19/37</t>
+  </si>
+  <si>
+    <t>13 (10/3)</t>
+  </si>
+  <si>
+    <t>20 (9/11)</t>
+  </si>
+  <si>
+    <t>9 (1/1/0) - 9</t>
+  </si>
+  <si>
+    <t>#11. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>86:53</t>
+  </si>
+  <si>
+    <t>13/38</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>8/13</t>
+  </si>
+  <si>
+    <t>41 (17/24)</t>
+  </si>
+  <si>
+    <t>3 (1/2)</t>
+  </si>
+  <si>
+    <t>9 (0/0/0) - 7</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#77. АКСЮЧИЦ Александр</t>
+  </si>
+  <si>
+    <t>90:27</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>2/14</t>
+  </si>
+  <si>
+    <t>22 (13/9)</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>102:30</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>41 (21/20)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>70:31</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>7 (7/0)</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>34:10</t>
+  </si>
+  <si>
+    <t>0/2</t>
   </si>
   <si>
     <t>9 (7/2)</t>
   </si>
   <si>
-    <t>15 (7/8)</t>
-  </si>
-  <si>
-    <t>6 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>#11. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>56:51</t>
-  </si>
-  <si>
-    <t>11/26</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>7/11</t>
-  </si>
-  <si>
-    <t>24 (9/15)</t>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>600:00</t>
+  </si>
+  <si>
+    <t>60/157</t>
+  </si>
+  <si>
+    <t>19/85</t>
+  </si>
+  <si>
+    <t>32/61</t>
+  </si>
+  <si>
+    <t>148 (85/63)</t>
+  </si>
+  <si>
+    <t>41 (19/22)</t>
+  </si>
+  <si>
+    <t>39 (1/3/0) - 38</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>37:14</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>29:58</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>30:09</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>35:16</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>11:23</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>27:16</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
   </si>
   <si>
     <t>1 (0/1)</t>
   </si>
   <si>
-    <t>7 (0/0/0) - 7</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>#77. АКСЮЧИЦ Александр</t>
-  </si>
-  <si>
-    <t>62:45</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>1/8</t>
-  </si>
-  <si>
-    <t>14 (7/7)</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
   </si>
   <si>
     <t>2 (0/0/0) - 2</t>
   </si>
   <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>70:35</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>31 (17/14)</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
   </si>
   <si>
     <t>22:18</t>
@@ -456,385 +834,172 @@
     <t>3/7</t>
   </si>
   <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>0/2</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>24:29</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>400:00</t>
-  </si>
-  <si>
-    <t>38/101</t>
-  </si>
-  <si>
-    <t>15/61</t>
-  </si>
-  <si>
-    <t>18/35</t>
-  </si>
-  <si>
-    <t>97 (54/43)</t>
-  </si>
-  <si>
-    <t>27 (12/15)</t>
-  </si>
-  <si>
-    <t>23 (0/3/0) - 16</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>38:44</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>28:26</t>
-  </si>
-  <si>
-    <t>0,0</t>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
   </si>
   <si>
     <t>5,0</t>
   </si>
   <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>31:23</t>
-  </si>
-  <si>
-    <t>35:18</t>
-  </si>
-  <si>
-    <t>37:58</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>29:34</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>4/8</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
     <t>НИКОЛАЙЧИК Максим</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>ВЕРЕМЕЕНКО Андрей</t>
@@ -1426,8 +1591,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE8C542-17A3-42A4-8473-D3A7C8F76486}">
-  <dimension ref="A1:AT27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669499FA-8D4D-4A5E-B1A5-CEC9EFE9286B}">
+  <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -1864,7 +2029,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
-        <v>40.799999999999997</v>
+        <v>40.9</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1929,7 +2094,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4">
-        <v>189.6</v>
+        <v>189</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1994,7 +2159,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>86.4</v>
+        <v>85.9</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2314,202 +2479,194 @@
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="R16" s="9">
+      <c r="R16" s="13">
+        <v>21</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="15">
+        <v>42</v>
+      </c>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15">
+        <v>182</v>
+      </c>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="16">
+        <v>45597</v>
+      </c>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="R17" s="9">
         <v>77</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="11">
+      <c r="T17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11">
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="11">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11">
         <v>191</v>
       </c>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11">
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11">
         <v>90</v>
       </c>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="12">
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="12">
         <v>45563</v>
       </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-    </row>
-    <row r="17" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+    </row>
+    <row r="18" spans="1:46" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="18">
-        <v>7</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="K19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2520,59 +2677,53 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="22"/>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
+      <c r="G20" s="18">
+        <v>8</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="K20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2580,128 +2731,130 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="K21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
+      <c r="K21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="K22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
+      <c r="K22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -2712,7 +2865,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2723,7 +2876,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -2734,7 +2887,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -2746,61 +2899,61 @@
       <c r="AT23" s="10"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="K24" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="22"/>
-      <c r="AP24" s="22"/>
-      <c r="AQ24" s="22"/>
-      <c r="AR24" s="22"/>
-      <c r="AS24" s="22"/>
-      <c r="AT24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="K24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -2814,100 +2967,122 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="K25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
+      <c r="K25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="K26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -2918,7 +3093,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -2929,7 +3104,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -2940,7 +3115,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -2951,54 +3126,107 @@
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
     </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="K28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="AC24:AK24"/>
+  <mergeCells count="154">
     <mergeCell ref="AC25:AK25"/>
     <mergeCell ref="AC26:AK26"/>
     <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="AC28:AK28"/>
     <mergeCell ref="AL25:AT25"/>
     <mergeCell ref="AL26:AT26"/>
     <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="AL28:AT28"/>
     <mergeCell ref="K25:S25"/>
     <mergeCell ref="K26:S26"/>
     <mergeCell ref="K27:S27"/>
-    <mergeCell ref="T24:AB24"/>
+    <mergeCell ref="K28:S28"/>
     <mergeCell ref="T25:AB25"/>
     <mergeCell ref="T26:AB26"/>
     <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="T24:AB24"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AC22:AK22"/>
     <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AC24:AK24"/>
     <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="AL22:AT22"/>
     <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="K19:AT19"/>
-    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="K20:AT20"/>
     <mergeCell ref="K21:S21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
-    <mergeCell ref="T20:AB20"/>
+    <mergeCell ref="K24:S24"/>
     <mergeCell ref="T21:AB21"/>
     <mergeCell ref="T22:AB22"/>
     <mergeCell ref="T23:AB23"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A18:AT18"/>
+    <mergeCell ref="A19:AT19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A17:AT17"/>
-    <mergeCell ref="A18:AT18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="T17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AO17"/>
+    <mergeCell ref="AP17:AT17"/>
     <mergeCell ref="T16:AD16"/>
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="AG16:AH16"/>
@@ -3106,8 +3334,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E131A9-FBFE-4258-B33F-719F0B386935}">
-  <dimension ref="B2:AC33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7798031B-96BB-46C5-9D5D-6556D1E5F79E}">
+  <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3130,7 +3358,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3162,49 +3390,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3213,22 +3441,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3240,40 +3468,40 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="28">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G5" s="28">
-        <v>44.8</v>
+        <v>52.1</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I5" s="28">
-        <v>24.1</v>
+        <v>22.5</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K5" s="28">
-        <v>42.1</v>
+        <v>51.4</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" s="28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N5" s="28">
         <v>7</v>
@@ -3282,419 +3510,419 @@
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6" s="28">
+        <v>3</v>
+      </c>
+      <c r="D6" s="28">
+        <v>34</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="28">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="28">
+        <v>61.5</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="28">
         <v>2</v>
       </c>
-      <c r="D6" s="28">
-        <v>29</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="28">
-        <v>42.3</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="28">
-        <v>63.6</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="28">
-        <v>1</v>
-      </c>
       <c r="N6" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G7" s="28">
-        <v>36.4</v>
+        <v>47.4</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I7" s="28">
-        <v>33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K7" s="28">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" s="28">
         <v>1</v>
       </c>
       <c r="N7" s="28">
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
         <v>2</v>
       </c>
-      <c r="O7" s="28">
-        <v>1</v>
-      </c>
-      <c r="P7" s="28">
-        <v>1</v>
-      </c>
       <c r="Q7" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="28">
         <v>1</v>
       </c>
       <c r="D8" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G8" s="28">
+        <v>36.4</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="28">
         <v>33.299999999999997</v>
       </c>
-      <c r="H8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="28">
-        <v>28.6</v>
-      </c>
       <c r="J8" s="29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K8" s="28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="28">
         <v>1</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C9" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G9" s="28">
-        <v>23.1</v>
+        <v>22.2</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I9" s="28">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K9" s="28">
         <v>0</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M9" s="28">
+        <v>5</v>
+      </c>
+      <c r="N9" s="28">
         <v>3</v>
-      </c>
-      <c r="N9" s="28">
-        <v>2</v>
       </c>
       <c r="O9" s="28">
         <v>1</v>
       </c>
       <c r="P9" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C10" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G10" s="28">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I10" s="28">
-        <v>100</v>
+        <v>28.6</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K10" s="28">
         <v>50</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M10" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="28">
         <v>3</v>
       </c>
       <c r="O10" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C11" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F11" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="28">
+        <v>27.3</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="28">
+        <v>100</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="28">
-        <v>42.9</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>136</v>
-      </c>
       <c r="K11" s="28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="28">
+        <v>4</v>
+      </c>
+      <c r="N11" s="28">
+        <v>5</v>
+      </c>
+      <c r="O11" s="28">
+        <v>4</v>
+      </c>
+      <c r="P11" s="28">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="28">
-        <v>0</v>
-      </c>
-      <c r="N11" s="28">
-        <v>0</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="P11" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>132</v>
-      </c>
       <c r="R11" s="28" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C12" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="I12" s="28">
-        <v>11.1</v>
+        <v>14.3</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="K12" s="28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="M12" s="28">
+        <v>11</v>
+      </c>
+      <c r="N12" s="28">
         <v>5</v>
       </c>
-      <c r="N12" s="28">
-        <v>3</v>
-      </c>
       <c r="O12" s="28">
         <v>0</v>
       </c>
       <c r="P12" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C13" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K13" s="28">
         <v>0</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="M13" s="28">
         <v>5</v>
@@ -3709,15 +3937,15 @@
         <v>0</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -3726,28 +3954,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M14" s="28">
         <v>0</v>
@@ -3762,15 +3990,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -3779,28 +4007,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -3815,15 +4043,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
@@ -3832,28 +4060,28 @@
         <v>0</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K16" s="28">
         <v>0</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M16" s="28">
         <v>0</v>
@@ -3868,178 +4096,199 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="31">
-        <v>14</v>
-      </c>
-      <c r="D17" s="31">
-        <v>139</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="31">
-        <v>37.6</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="31">
-        <v>24.6</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="31">
-        <v>51.4</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="31">
-        <v>25</v>
-      </c>
-      <c r="N17" s="31">
-        <v>26</v>
-      </c>
-      <c r="O17" s="31">
-        <v>5</v>
-      </c>
-      <c r="P17" s="31">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="R17" s="31" t="s">
+      <c r="B17" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="31">
+        <v>22</v>
+      </c>
+      <c r="D18" s="31">
+        <v>209</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="31">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="31">
+        <v>22.4</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="31">
+        <v>52.5</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" s="31">
+        <v>40</v>
+      </c>
+      <c r="N18" s="31">
+        <v>32</v>
+      </c>
+      <c r="O18" s="31">
+        <v>8</v>
+      </c>
+      <c r="P18" s="31">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="28">
-        <v>27.5</v>
-      </c>
-      <c r="D21" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="E21" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="G21" s="28">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <v>6</v>
-      </c>
-      <c r="I21" s="28">
-        <v>7.5</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>176</v>
+      <c r="B20" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C22" s="28">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="D22" s="28">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="E22" s="28">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="F22" s="28">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G22" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="I22" s="28">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C23" s="28">
         <v>14</v>
@@ -4063,219 +4312,219 @@
         <v>3</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C24" s="28">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="D24" s="28">
-        <v>2</v>
+        <v>13.7</v>
       </c>
       <c r="E24" s="28">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="F24" s="28">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="G24" s="28">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H24" s="28">
+        <v>3.3</v>
+      </c>
+      <c r="I24" s="28">
         <v>1</v>
       </c>
-      <c r="I24" s="28">
-        <v>4</v>
-      </c>
       <c r="J24" s="29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" s="28">
         <v>2</v>
       </c>
       <c r="E25" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="28">
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C26" s="28">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="28">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="28">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28">
         <v>1</v>
       </c>
-      <c r="G26" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
       <c r="I26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" s="28">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D27" s="28">
-        <v>15.5</v>
+        <v>7.3</v>
       </c>
       <c r="E27" s="28">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F27" s="28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="28">
         <v>1</v>
       </c>
-      <c r="H27" s="28">
-        <v>2</v>
-      </c>
-      <c r="I27" s="28">
-        <v>0.5</v>
-      </c>
       <c r="J27" s="29" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C28" s="28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D28" s="28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="28">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F28" s="28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G28" s="28">
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="28">
         <v>1</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" s="28">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="D29" s="28">
-        <v>3</v>
+        <v>13.7</v>
       </c>
       <c r="E29" s="28">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="F29" s="28">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G29" s="28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H29" s="28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I29" s="28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C30" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="28">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F30" s="28">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
@@ -4284,18 +4533,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C31" s="28">
         <v>0</v>
@@ -4319,15 +4568,15 @@
         <v>0</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -4351,42 +4600,106 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="31">
-        <v>9.9</v>
-      </c>
-      <c r="D33" s="31">
-        <v>6.9</v>
-      </c>
-      <c r="E33" s="31">
+      <c r="B33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
+        <v>0</v>
+      </c>
+      <c r="H33" s="28">
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28">
+        <v>0</v>
+      </c>
+      <c r="I34" s="28">
+        <v>0</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="D35" s="31">
+        <v>6.7</v>
+      </c>
+      <c r="E35" s="31">
         <v>1.8</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F35" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I35" s="31">
         <v>1.9</v>
       </c>
-      <c r="G33" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="31">
-        <v>1.9</v>
-      </c>
-      <c r="I33" s="31">
-        <v>1.9</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>187</v>
+      <c r="J35" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4396,8 +4709,8 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="B2:AC2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4414,8 +4727,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85274BF3-3188-4307-93A8-6DDC1B94CC80}">
-  <dimension ref="B1:T19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375878C-D622-4FE5-846D-534024792ECB}">
+  <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4441,7 +4754,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4464,55 +4777,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -4521,22 +4834,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -4550,7 +4863,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -4573,35 +4886,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -4616,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -4630,37 +4943,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -4675,13 +4988,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -4689,37 +5002,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -4734,13 +5047,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -4748,35 +5061,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -4791,13 +5104,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -4805,37 +5118,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -4850,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -4864,37 +5177,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -4909,13 +5222,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -4923,37 +5236,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -4968,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -4982,7 +5295,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5005,35 +5318,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5048,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5062,37 +5375,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5107,13 +5420,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5121,37 +5434,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5166,13 +5479,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5180,37 +5493,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -5225,13 +5538,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -5239,37 +5552,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -5284,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -5298,35 +5611,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -5341,13 +5654,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -5355,37 +5668,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -5400,23 +5713,513 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="T21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="6">
+        <v>41</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="6">
+        <v>63.2</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="6">
+        <v>61.1</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="6">
+        <v>4</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="6">
+        <v>25</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M23" s="6">
+        <v>6</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="T23" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="6">
+        <v>50</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="T24" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="6">
+        <v>20</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <v>2</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="T25" s="6">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>13</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="6">
+        <v>50</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="6">
+        <v>50</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S27" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="T27" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="6">
+        <v>20</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" s="6">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="T28" s="6">
+        <v>-17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
+    <mergeCell ref="B20:T20"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -5439,8 +6242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D347B43-1598-433A-BF2E-DF0F44DD15D8}">
-  <dimension ref="B1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184FA716-E17D-4914-ACC4-6CF3852266F9}">
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5453,7 +6256,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5464,140 +6267,186 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>180</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>175</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>181</v>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B178CAEB-AB9C-4979-AD25-7BA35EB6DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D24978-90C2-4A3D-8725-19A5CAB245AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{45ADCF48-5EBB-400F-9A96-BC3805A716F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DAF7762-BF46-4C9A-81A6-655627E543EB}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="368">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -159,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>1 / 2</t>
+    <t>2 / 2</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>209 / 192</t>
+    <t>257 / 234</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>69,7 / 64,0</t>
+    <t>64,3 / 58,5</t>
   </si>
   <si>
     <t>Игры</t>
@@ -186,43 +186,46 @@
     <t>SIRIUS - Mapogo males 70:77</t>
   </si>
   <si>
+    <t>Eagles - SIRIUS 42:48</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 32,0</t>
-  </si>
-  <si>
-    <t>ЧАЙКО Евгений 14,0</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 11,3</t>
+    <t>ТУРОВЕЦ Роман 29,8</t>
+  </si>
+  <si>
+    <t>МОЛОЧНИКОВ Александр 11,0</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 10,3</t>
   </si>
   <si>
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 52,1</t>
-  </si>
-  <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 36,4</t>
+    <t>ТУРОВЕЦ Роман 44,8</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 37,0</t>
   </si>
   <si>
     <t>% 3 очк.</t>
   </si>
   <si>
+    <t>ГЕРАСИМОВИЧ Сергей 100,0</t>
+  </si>
+  <si>
     <t>ГАБРУКОВИЧ Павел 100,0</t>
   </si>
   <si>
-    <t>ГЕРАСИМОВИЧ Сергей 100,0</t>
-  </si>
-  <si>
-    <t>ЧАЙКО Евгений 33,3</t>
+    <t>МОЛОЧНИКОВ Александр 28,6</t>
   </si>
   <si>
     <t>% штр.</t>
@@ -231,55 +234,55 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 61,5</t>
-  </si>
-  <si>
-    <t>ТУРОВЕЦ Роман 51,4</t>
+    <t>ТУРОВЕЦ Роман 56,1</t>
+  </si>
+  <si>
+    <t>МОЛОЧНИКОВ Александр 50,0</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 13,7</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 13,7</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 7,3</t>
+    <t>КОВАЛЕНКО Олег 12,8</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 12,5</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 7,5</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 5,5</t>
+    <t>СИКОРСКИЙ Егор 4,7</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 2,7</t>
+    <t>ТУРОВЕЦ Роман 2,5</t>
   </si>
   <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 2,5</t>
-  </si>
-  <si>
-    <t>ТУРОВЕЦ Роман 2,3</t>
+    <t>ТУРОВЕЦ Роман 3,5</t>
+  </si>
+  <si>
+    <t>СИКОРСКИЙ Егор 2,0</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 1,3</t>
+    <t>ГАБРУКОВИЧ Павел 1,5</t>
   </si>
   <si>
     <t>ЧАЙКО Евгений 1,0</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 0,7</t>
+    <t>КОВАЛЕНКО Олег 0,5</t>
   </si>
   <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
@@ -333,76 +336,346 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>111:42</t>
-  </si>
-  <si>
-    <t>25/48</t>
-  </si>
-  <si>
-    <t>9/40</t>
-  </si>
-  <si>
-    <t>19/37</t>
-  </si>
-  <si>
-    <t>13 (10/3)</t>
-  </si>
-  <si>
-    <t>20 (9/11)</t>
-  </si>
-  <si>
-    <t>9 (1/1/0) - 9</t>
+    <t>149:04</t>
+  </si>
+  <si>
+    <t>30/67</t>
+  </si>
+  <si>
+    <t>12/53</t>
+  </si>
+  <si>
+    <t>23/41</t>
+  </si>
+  <si>
+    <t>22 (15/7)</t>
+  </si>
+  <si>
+    <t>25 (10/15)</t>
+  </si>
+  <si>
+    <t>10 (1/1/0) - 9</t>
   </si>
   <si>
     <t>#11. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>86:53</t>
-  </si>
-  <si>
-    <t>13/38</t>
+    <t>115:06</t>
+  </si>
+  <si>
+    <t>16/49</t>
   </si>
   <si>
     <t>0/1</t>
   </si>
   <si>
-    <t>8/13</t>
-  </si>
-  <si>
-    <t>41 (17/24)</t>
+    <t>9/20</t>
+  </si>
+  <si>
+    <t>51 (22/29)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>10 (0/0/0) - 7</t>
+  </si>
+  <si>
+    <t>#77. АКСЮЧИЦ Александр</t>
+  </si>
+  <si>
+    <t>112:42</t>
+  </si>
+  <si>
+    <t>10/27</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <t>30 (18/12)</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>56:12</t>
+  </si>
+  <si>
+    <t>4/16</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>9 (7/2)</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>135:17</t>
+  </si>
+  <si>
+    <t>5/16</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>50 (26/24)</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>104:29</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>2/18</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>13 (12/1)</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>50:45</t>
+  </si>
+  <si>
+    <t>12 (10/2)</t>
   </si>
   <si>
     <t>3 (1/2)</t>
   </si>
   <si>
-    <t>9 (0/0/0) - 7</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
-  </si>
-  <si>
-    <t>46:43</t>
-  </si>
-  <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>7 (4/3)</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>800:00</t>
+  </si>
+  <si>
+    <t>77/210</t>
+  </si>
+  <si>
+    <t>22/107</t>
+  </si>
+  <si>
+    <t>37/74</t>
+  </si>
+  <si>
+    <t>196 (116/80)</t>
+  </si>
+  <si>
+    <t>56 (26/30)</t>
+  </si>
+  <si>
+    <t>44 (1/3/0) - 38</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>37:16</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>29:47</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>28:06</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>28:11</t>
+  </si>
+  <si>
+    <t>34:49</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>35:50</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>28:35</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>27:22</t>
@@ -411,604 +684,454 @@
     <t>4/11</t>
   </si>
   <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
+    <t>33,3</t>
   </si>
   <si>
     <t>3 (3/0)</t>
   </si>
   <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#77. АКСЮЧИЦ Александр</t>
-  </si>
-  <si>
-    <t>90:27</t>
-  </si>
-  <si>
-    <t>4/18</t>
-  </si>
-  <si>
-    <t>2/14</t>
-  </si>
-  <si>
-    <t>22 (13/9)</t>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
   </si>
   <si>
     <t>3 (2/1)</t>
   </si>
   <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>102:30</t>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
   </si>
   <si>
     <t>3/11</t>
   </si>
   <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>41 (21/20)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>70:31</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>7 (7/0)</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>7 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>34:10</t>
-  </si>
-  <si>
-    <t>0/2</t>
-  </si>
-  <si>
-    <t>9 (7/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>#21. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>600:00</t>
-  </si>
-  <si>
-    <t>60/157</t>
-  </si>
-  <si>
-    <t>19/85</t>
-  </si>
-  <si>
-    <t>32/61</t>
-  </si>
-  <si>
-    <t>148 (85/63)</t>
-  </si>
-  <si>
-    <t>41 (19/22)</t>
-  </si>
-  <si>
-    <t>39 (1/3/0) - 38</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>8 (5/3)</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
   </si>
   <si>
     <t>3,0</t>
   </si>
   <si>
-    <t>37:14</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>29:58</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>30:09</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>35:16</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>11:23</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>27:16</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>4/8</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
+    <t>САНЮК Андрей</t>
+  </si>
+  <si>
+    <t>2,0</t>
   </si>
   <si>
     <t>ВЕРЕМЕЕНКО Андрей</t>
   </si>
   <si>
-    <t>2,0</t>
-  </si>
-  <si>
     <t>ЛЕСИЦКИЙ Артем</t>
+  </si>
+  <si>
+    <t>АВЕРКИНА Мария</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669499FA-8D4D-4A5E-B1A5-CEC9EFE9286B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB02252C-1308-4600-9410-B050F8D027CD}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2683,7 +2806,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="K20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -2736,7 +2859,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="K21" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -2747,7 +2870,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -2758,7 +2881,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
@@ -2769,7 +2892,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
@@ -2795,7 +2918,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -2806,7 +2929,7 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -2817,7 +2940,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
@@ -2828,7 +2951,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -2854,7 +2977,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -2865,7 +2988,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2876,7 +2999,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -2887,7 +3010,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -2911,7 +3034,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="K24" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -2922,7 +3045,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -2933,7 +3056,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -2944,7 +3067,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -2968,7 +3091,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="K25" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -2979,7 +3102,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -2990,7 +3113,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -3001,7 +3124,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
@@ -3025,7 +3148,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -3036,7 +3159,7 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -3047,7 +3170,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
@@ -3058,7 +3181,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
@@ -3082,7 +3205,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3093,7 +3216,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3104,7 +3227,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3115,7 +3238,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -3127,8 +3250,19 @@
       <c r="AT27" s="10"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3139,7 +3273,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3150,7 +3284,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3161,7 +3295,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3173,34 +3307,35 @@
       <c r="AT28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AL27:AT27"/>
+  <mergeCells count="155">
     <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
     <mergeCell ref="K28:S28"/>
     <mergeCell ref="T25:AB25"/>
     <mergeCell ref="T26:AB26"/>
     <mergeCell ref="T27:AB27"/>
     <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="T23:AB23"/>
     <mergeCell ref="T24:AB24"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AC22:AK22"/>
     <mergeCell ref="AC23:AK23"/>
     <mergeCell ref="AC24:AK24"/>
-    <mergeCell ref="AL21:AT21"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="AL24:AT24"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
     <mergeCell ref="K20:AT20"/>
     <mergeCell ref="K21:S21"/>
     <mergeCell ref="K22:S22"/>
@@ -3208,7 +3343,6 @@
     <mergeCell ref="K24:S24"/>
     <mergeCell ref="T21:AB21"/>
     <mergeCell ref="T22:AB22"/>
-    <mergeCell ref="T23:AB23"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="A23:F23"/>
@@ -3221,6 +3355,7 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="T17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="AG17:AH17"/>
@@ -3334,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7798031B-96BB-46C5-9D5D-6556D1E5F79E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC9397-607A-4031-86D9-7897D7DB7D25}">
   <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3358,7 +3493,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3390,49 +3525,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3441,22 +3576,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3468,414 +3603,414 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="28">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="28">
-        <v>52.1</v>
+        <v>44.8</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" s="28">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" s="28">
-        <v>51.4</v>
+        <v>56.1</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N5" s="28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O5" s="28">
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28">
+        <v>41</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="28">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="28">
+        <v>45</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="28">
-        <v>34</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="28">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="28">
-        <v>61.5</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="28">
-        <v>2</v>
-      </c>
       <c r="N6" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" s="28">
         <v>2</v>
       </c>
       <c r="P6" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="28">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" s="28">
-        <v>47.4</v>
+        <v>37</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I7" s="28">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K7" s="28">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" s="28">
+        <v>6</v>
+      </c>
+      <c r="N7" s="28">
+        <v>3</v>
+      </c>
+      <c r="O7" s="28">
         <v>1</v>
       </c>
-      <c r="N7" s="28">
-        <v>0</v>
-      </c>
-      <c r="O7" s="28">
-        <v>0</v>
-      </c>
       <c r="P7" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" s="28">
-        <v>36.4</v>
+        <v>47.4</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="28">
-        <v>33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K8" s="28">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" s="28">
         <v>1</v>
       </c>
       <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0</v>
+      </c>
+      <c r="P8" s="28">
         <v>2</v>
       </c>
-      <c r="O8" s="28">
-        <v>1</v>
-      </c>
-      <c r="P8" s="28">
-        <v>1</v>
-      </c>
       <c r="Q8" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="28">
         <v>14</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G9" s="28">
-        <v>22.2</v>
+        <v>25</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I9" s="28">
-        <v>14.3</v>
+        <v>25</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K9" s="28">
         <v>0</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G10" s="28">
-        <v>33.299999999999997</v>
+        <v>31.3</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I10" s="28">
-        <v>28.6</v>
+        <v>100</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K10" s="28">
         <v>50</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M10" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O10" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P10" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>11</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="28">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="28">
+        <v>28.6</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="C11" s="28">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28">
-        <v>10</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="28">
-        <v>27.3</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="28">
-        <v>100</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="K11" s="28">
         <v>50</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M11" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="28">
         <v>7</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="I12" s="28">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K12" s="28">
         <v>25</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M12" s="28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N12" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="28">
         <v>0</v>
@@ -3884,45 +4019,45 @@
         <v>2</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G13" s="28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K13" s="28">
         <v>0</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="28">
         <v>5</v>
@@ -3934,18 +4069,18 @@
         <v>0</v>
       </c>
       <c r="P13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -3954,28 +4089,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M14" s="28">
         <v>0</v>
@@ -3990,15 +4125,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4007,28 +4142,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4043,45 +4178,45 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>163</v>
-      </c>
       <c r="F16" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K16" s="28">
         <v>0</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M16" s="28">
         <v>0</v>
@@ -4096,15 +4231,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" s="28">
         <v>1</v>
@@ -4113,28 +4248,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K17" s="28">
         <v>0</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M17" s="28">
         <v>0</v>
@@ -4149,71 +4284,71 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C18" s="31">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D18" s="31">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G18" s="31">
-        <v>38.200000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I18" s="31">
-        <v>22.4</v>
+        <v>20.6</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K18" s="31">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M18" s="31">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="N18" s="31">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O18" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P18" s="31">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4227,144 +4362,144 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="28">
-        <v>32</v>
+        <v>29.8</v>
       </c>
       <c r="D22" s="28">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="E22" s="28">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="28">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="I22" s="28">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C23" s="28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28">
         <v>1</v>
       </c>
       <c r="I23" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="28">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
       <c r="D24" s="28">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="E24" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F24" s="28">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="28">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="28">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I24" s="28">
         <v>1</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C25" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="28">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="28">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="28">
         <v>0</v>
@@ -4373,210 +4508,210 @@
         <v>1</v>
       </c>
       <c r="I25" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C26" s="28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" s="28">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E26" s="28">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="28">
         <v>1</v>
       </c>
       <c r="I26" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C27" s="28">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="D27" s="28">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="E27" s="28">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F27" s="28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="28">
         <v>0.3</v>
       </c>
       <c r="H27" s="28">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C28" s="28">
         <v>3.5</v>
       </c>
       <c r="D28" s="28">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="E28" s="28">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="F28" s="28">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G28" s="28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
       </c>
       <c r="I28" s="28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C29" s="28">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D29" s="28">
-        <v>13.7</v>
+        <v>4.3</v>
       </c>
       <c r="E29" s="28">
+        <v>4.7</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="28">
         <v>1.3</v>
       </c>
-      <c r="F29" s="28">
-        <v>1.7</v>
-      </c>
-      <c r="G29" s="28">
-        <v>1.3</v>
-      </c>
-      <c r="H29" s="28">
-        <v>1.3</v>
-      </c>
-      <c r="I29" s="28">
-        <v>0.7</v>
-      </c>
       <c r="J29" s="29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C30" s="28">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="D30" s="28">
         <v>3</v>
       </c>
       <c r="E30" s="28">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F30" s="28">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="C31" s="28">
-        <v>0</v>
-      </c>
-      <c r="D31" s="28">
-        <v>0</v>
-      </c>
-      <c r="E31" s="28">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="28">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28">
-        <v>0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>0</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -4600,15 +4735,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -4632,15 +4767,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -4664,24 +4799,24 @@
         <v>0</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" s="31">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="D35" s="31">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="E35" s="31">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F35" s="31">
         <v>1.5</v>
@@ -4690,16 +4825,16 @@
         <v>0.4</v>
       </c>
       <c r="H35" s="31">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I35" s="31">
         <v>1.9</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4727,8 +4862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375878C-D622-4FE5-846D-534024792ECB}">
-  <dimension ref="B1:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A1305-BD08-4B23-A05E-E2BB4B11FAAB}">
+  <dimension ref="B1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4754,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4777,55 +4912,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -4834,22 +4969,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>91</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -4863,7 +4998,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -4886,35 +5021,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -4929,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -4943,37 +5078,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -4988,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5002,37 +5137,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5047,13 +5182,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5061,35 +5196,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5104,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5118,37 +5253,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5163,13 +5298,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -5177,37 +5312,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -5222,13 +5357,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -5236,37 +5371,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -5281,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -5295,7 +5430,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5318,35 +5453,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5361,13 +5496,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5375,37 +5510,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5420,13 +5555,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5434,37 +5569,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5479,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5493,37 +5628,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -5538,13 +5673,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -5552,37 +5687,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -5597,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -5611,35 +5746,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -5654,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -5668,37 +5803,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -5713,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="R19" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="S19" s="36" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -5727,7 +5862,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -5750,35 +5885,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -5793,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="R21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="S21" s="36" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -5807,37 +5942,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -5852,13 +5987,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -5866,37 +6001,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -5911,13 +6046,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -5925,37 +6060,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -5970,13 +6105,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -5984,37 +6119,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6029,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6043,35 +6178,35 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6086,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6100,35 +6235,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6143,13 +6278,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6157,37 +6292,37 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -6202,24 +6337,457 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
       </c>
     </row>
+    <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="6">
+        <v>50</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" s="6">
+        <v>2</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="T31" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="6">
+        <v>23</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K32" s="6">
+        <v>100</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6">
+        <v>7</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="T32" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="6">
+        <v>3</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="T33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>7</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G34" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="K34" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="T34" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="6">
+        <v>4</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2</v>
+      </c>
+      <c r="O35" s="6">
+        <v>2</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="T35" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="6">
+        <v>12</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="T36" s="6">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
     <mergeCell ref="B20:T20"/>
+    <mergeCell ref="B29:T29"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -6242,8 +6810,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184FA716-E17D-4914-ACC4-6CF3852266F9}">
-  <dimension ref="B1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC22DEE3-7E37-40FF-9EC9-636DF5F8296F}">
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6256,7 +6824,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -6267,30 +6835,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6299,21 +6867,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -6322,21 +6890,21 @@
         <v>7</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6345,21 +6913,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6368,21 +6936,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6391,21 +6959,21 @@
         <v>3</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>188</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -6414,39 +6982,85 @@
         <v>2</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>194</v>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D24978-90C2-4A3D-8725-19A5CAB245AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D74239-5321-461A-B9E0-643C82597953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DAF7762-BF46-4C9A-81A6-655627E543EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B55A304-6CF8-4966-BE79-91FAB95C07FE}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="411">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -159,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>2 / 2</t>
+    <t>2 / 3</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>257 / 234</t>
+    <t>306 / 294</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>64,3 / 58,5</t>
+    <t>61,2 / 58,8</t>
   </si>
   <si>
     <t>Игры</t>
@@ -189,19 +189,22 @@
     <t>Eagles - SIRIUS 42:48</t>
   </si>
   <si>
+    <t>SIRIUS - ОПЛАТИ 49:60</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 29,8</t>
+    <t>ТУРОВЕЦ Роман 28,0</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 10,3</t>
+    <t>БЕЗРУЧЕНКО Евгений 10,0</t>
   </si>
   <si>
     <t>% 2 очк.</t>
@@ -210,10 +213,10 @@
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 44,8</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 37,0</t>
+    <t>ТУРОВЕЦ Роман 44,9</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 38,1</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -234,7 +237,7 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 56,1</t>
+    <t>ТУРОВЕЦ Роман 58,3</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 50,0</t>
@@ -243,46 +246,46 @@
     <t>Подборы</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 12,8</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 12,5</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 7,5</t>
+    <t>КОВАЛЕНКО Олег 13,4</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 12,2</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 7,2</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,7</t>
+    <t>СИКОРСКИЙ Егор 4,3</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 2,5</t>
+    <t>ТУРОВЕЦ Роман 2,8</t>
   </si>
   <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,5</t>
-  </si>
-  <si>
-    <t>СИКОРСКИЙ Егор 2,0</t>
+    <t>ТУРОВЕЦ Роман 3,2</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 1,8</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 1,5</t>
-  </si>
-  <si>
-    <t>ЧАЙКО Евгений 1,0</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 0,5</t>
+    <t>ГАБРУКОВИЧ Павел 2,2</t>
+  </si>
+  <si>
+    <t>ЧАЙКО Евгений 0,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 0,4</t>
   </si>
   <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
@@ -336,802 +339,928 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>149:04</t>
-  </si>
-  <si>
-    <t>30/67</t>
-  </si>
-  <si>
-    <t>12/53</t>
-  </si>
-  <si>
-    <t>23/41</t>
-  </si>
-  <si>
-    <t>22 (15/7)</t>
-  </si>
-  <si>
-    <t>25 (10/15)</t>
-  </si>
-  <si>
-    <t>10 (1/1/0) - 9</t>
+    <t>182:20</t>
+  </si>
+  <si>
+    <t>35/78</t>
+  </si>
+  <si>
+    <t>14/59</t>
+  </si>
+  <si>
+    <t>28/48</t>
+  </si>
+  <si>
+    <t>27 (19/8)</t>
+  </si>
+  <si>
+    <t>31 (12/19)</t>
+  </si>
+  <si>
+    <t>15 (1/1/0) - 13</t>
   </si>
   <si>
     <t>#11. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>115:06</t>
-  </si>
-  <si>
-    <t>16/49</t>
+    <t>139:40</t>
+  </si>
+  <si>
+    <t>17/53</t>
   </si>
   <si>
     <t>0/1</t>
   </si>
   <si>
-    <t>9/20</t>
-  </si>
-  <si>
-    <t>51 (22/29)</t>
+    <t>12/24</t>
+  </si>
+  <si>
+    <t>67 (36/31)</t>
+  </si>
+  <si>
+    <t>6 (1/5)</t>
+  </si>
+  <si>
+    <t>14 (0/0/0) - 9</t>
+  </si>
+  <si>
+    <t>#77. АКСЮЧИЦ Александр</t>
+  </si>
+  <si>
+    <t>132:20</t>
+  </si>
+  <si>
+    <t>12/34</t>
+  </si>
+  <si>
+    <t>2/19</t>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <t>36 (22/14)</t>
+  </si>
+  <si>
+    <t>8 (5/3)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>173:09</t>
+  </si>
+  <si>
+    <t>8/21</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>61 (36/25)</t>
+  </si>
+  <si>
+    <t>5 (5/0)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 12</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>86:56</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>2/14</t>
+  </si>
+  <si>
+    <t>15 (12/3)</t>
+  </si>
+  <si>
+    <t>15 (13/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>134:37</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>5/24</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>15 (14/1)</t>
+  </si>
+  <si>
+    <t>11 (6/5)</t>
+  </si>
+  <si>
+    <t>8 (0/0/0) - 12</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
   </si>
   <si>
     <t>4 (1/3)</t>
   </si>
   <si>
-    <t>10 (0/0/0) - 7</t>
-  </si>
-  <si>
-    <t>#77. АКСЮЧИЦ Александр</t>
-  </si>
-  <si>
-    <t>112:42</t>
-  </si>
-  <si>
-    <t>10/27</t>
-  </si>
-  <si>
-    <t>2/17</t>
-  </si>
-  <si>
-    <t>0/2</t>
-  </si>
-  <si>
-    <t>30 (18/12)</t>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>64:04</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>12 (10/2)</t>
+  </si>
+  <si>
+    <t>7 (2/5)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>16:56</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>1000:00</t>
+  </si>
+  <si>
+    <t>90/244</t>
+  </si>
+  <si>
+    <t>27/129</t>
+  </si>
+  <si>
+    <t>45/85</t>
+  </si>
+  <si>
+    <t>243 (156/87)</t>
+  </si>
+  <si>
+    <t>90 (45/45)</t>
+  </si>
+  <si>
+    <t>58 (1/3/0) - 52</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>36:28</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>28:56</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>26:28</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>29:59</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>34:39</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>35:38</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>27:02</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
   </si>
   <si>
     <t>6 (4/2)</t>
   </si>
   <si>
-    <t>5 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
-  </si>
-  <si>
-    <t>46:43</t>
-  </si>
-  <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>7 (4/3)</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>56:12</t>
-  </si>
-  <si>
-    <t>4/16</t>
-  </si>
-  <si>
-    <t>2/8</t>
-  </si>
-  <si>
-    <t>9 (7/2)</t>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
   </si>
   <si>
     <t>6 (5/1)</t>
   </si>
   <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>135:17</t>
-  </si>
-  <si>
-    <t>5/16</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>50 (26/24)</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>104:29</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>2/18</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>13 (12/1)</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>7 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>50:45</t>
-  </si>
-  <si>
-    <t>12 (10/2)</t>
-  </si>
-  <si>
-    <t>3 (1/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#21. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>800:00</t>
-  </si>
-  <si>
-    <t>77/210</t>
-  </si>
-  <si>
-    <t>22/107</t>
-  </si>
-  <si>
-    <t>37/74</t>
-  </si>
-  <si>
-    <t>196 (116/80)</t>
-  </si>
-  <si>
-    <t>56 (26/30)</t>
-  </si>
-  <si>
-    <t>44 (1/3/0) - 38</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>37:16</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>29:47</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>28:06</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>28:11</t>
-  </si>
-  <si>
-    <t>34:49</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>35:50</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>13:41</t>
-  </si>
-  <si>
-    <t>1,0</t>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>16 (14/2)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
+  </si>
+  <si>
+    <t>ВЕЛИЧКО Марина</t>
+  </si>
+  <si>
+    <t>САНЮК Андрей</t>
+  </si>
+  <si>
+    <t>ВЕРЕМЕЕНКО Андрей</t>
+  </si>
+  <si>
+    <t>АВЕРКИНА Мария</t>
   </si>
   <si>
     <t>1,5</t>
   </si>
   <si>
-    <t>28:35</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>4/8</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>5/19</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>8 (5/3)</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>САНЮК Андрей</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>ВЕРЕМЕЕНКО Андрей</t>
-  </si>
-  <si>
     <t>ЛЕСИЦКИЙ Артем</t>
-  </si>
-  <si>
-    <t>АВЕРКИНА Мария</t>
   </si>
 </sst>
 </file>
@@ -1714,8 +1843,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB02252C-1308-4600-9410-B050F8D027CD}">
-  <dimension ref="A1:AT28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F4FD78-21E0-4936-BE0B-42CF8EB43554}">
+  <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -2152,7 +2281,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2247,7 +2376,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11">
@@ -2801,12 +2930,12 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="K20" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -2859,7 +2988,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="K21" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -2870,7 +2999,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -2881,7 +3010,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
@@ -2892,7 +3021,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
@@ -2918,7 +3047,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -2929,7 +3058,7 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -2940,7 +3069,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
@@ -2951,7 +3080,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -2977,7 +3106,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -2988,7 +3117,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -2999,7 +3128,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3010,7 +3139,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -3034,7 +3163,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="K24" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3045,7 +3174,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3056,7 +3185,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3067,7 +3196,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3091,7 +3220,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="K25" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -3102,7 +3231,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -3113,7 +3242,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -3124,7 +3253,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
@@ -3148,7 +3277,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -3159,7 +3288,7 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -3170,7 +3299,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
@@ -3181,7 +3310,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
@@ -3205,7 +3334,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3216,7 +3345,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3227,7 +3356,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3238,7 +3367,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -3262,7 +3391,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3273,7 +3402,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3284,7 +3413,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3295,7 +3424,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3306,8 +3435,21 @@
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
     </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="155">
+  <mergeCells count="156">
     <mergeCell ref="AL28:AT28"/>
     <mergeCell ref="K28:S28"/>
     <mergeCell ref="T25:AB25"/>
@@ -3327,6 +3469,7 @@
     <mergeCell ref="AL25:AT25"/>
     <mergeCell ref="AL26:AT26"/>
     <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="T22:AB22"/>
     <mergeCell ref="T23:AB23"/>
     <mergeCell ref="T24:AB24"/>
     <mergeCell ref="AC21:AK21"/>
@@ -3336,13 +3479,13 @@
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="K20:AT20"/>
     <mergeCell ref="K21:S21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
     <mergeCell ref="K24:S24"/>
     <mergeCell ref="T21:AB21"/>
-    <mergeCell ref="T22:AB22"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="A23:F23"/>
@@ -3469,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECC9397-607A-4031-86D9-7897D7DB7D25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E05072E-528E-4C23-A880-8C5DF9CA0629}">
   <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3493,7 +3636,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3525,49 +3668,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3576,22 +3719,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>92</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>92</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3603,143 +3746,143 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="28">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="28">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I5" s="28">
-        <v>22.6</v>
+        <v>23.7</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K5" s="28">
-        <v>56.1</v>
+        <v>58.3</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" s="28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N5" s="28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O5" s="28">
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="28">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="28">
-        <v>32.700000000000003</v>
+        <v>32.1</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="28">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O6" s="28">
         <v>2</v>
       </c>
       <c r="P6" s="28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="28">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G7" s="28">
-        <v>37</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I7" s="28">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K7" s="28">
         <v>0</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="28">
         <v>6</v>
@@ -3754,15 +3897,15 @@
         <v>3</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="28">
         <v>2</v>
@@ -3771,28 +3914,28 @@
         <v>20</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="28">
         <v>47.4</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I8" s="28">
         <v>0</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" s="28">
         <v>66.7</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" s="28">
         <v>1</v>
@@ -3807,280 +3950,280 @@
         <v>2</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" s="28">
-        <v>25</v>
+        <v>38.1</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I9" s="28">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K9" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M9" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O9" s="28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P9" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="28">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28">
+        <v>16</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="28">
+        <v>26.3</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="28">
+        <v>14.3</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="28">
+        <v>6</v>
+      </c>
+      <c r="N10" s="28">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
-        <v>14</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="28">
-        <v>31.3</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="28">
-        <v>100</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="28">
-        <v>50</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="28">
-        <v>4</v>
-      </c>
-      <c r="N10" s="28">
-        <v>7</v>
-      </c>
       <c r="O10" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P10" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G11" s="28">
-        <v>33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I11" s="28">
-        <v>28.6</v>
+        <v>20.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K11" s="28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M11" s="28">
+        <v>17</v>
+      </c>
+      <c r="N11" s="28">
+        <v>7</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
         <v>3</v>
       </c>
-      <c r="N11" s="28">
-        <v>3</v>
-      </c>
-      <c r="O11" s="28">
-        <v>0</v>
-      </c>
-      <c r="P11" s="28">
-        <v>1</v>
-      </c>
       <c r="Q11" s="29" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28">
+        <v>11</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="28">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="28">
+        <v>28.6</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="28">
+        <v>50</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="28">
         <v>3</v>
       </c>
-      <c r="D12" s="28">
-        <v>7</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="28">
-        <v>11.1</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="28">
-        <v>25</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="28">
-        <v>14</v>
-      </c>
       <c r="N12" s="28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O12" s="28">
         <v>0</v>
       </c>
       <c r="P12" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C13" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G13" s="28">
         <v>25</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="28">
         <v>0</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M13" s="28">
         <v>5</v>
       </c>
       <c r="N13" s="28">
+        <v>5</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0</v>
+      </c>
+      <c r="P13" s="28">
         <v>2</v>
       </c>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="P13" s="28">
-        <v>1</v>
-      </c>
       <c r="Q13" s="29" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C14" s="28">
         <v>0</v>
@@ -4089,28 +4232,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I14" s="28">
         <v>0</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M14" s="28">
         <v>0</v>
@@ -4125,15 +4268,15 @@
         <v>0</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4142,28 +4285,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4178,15 +4321,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
@@ -4195,28 +4338,28 @@
         <v>0</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" s="28">
         <v>0</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M16" s="28">
         <v>0</v>
@@ -4231,52 +4374,52 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="28">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="28">
+        <v>0</v>
+      </c>
+      <c r="N17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="28">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="28">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" s="28">
-        <v>0</v>
-      </c>
-      <c r="N17" s="28">
-        <v>0</v>
-      </c>
       <c r="O17" s="28">
         <v>0</v>
       </c>
@@ -4284,71 +4427,71 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C18" s="31">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18" s="31">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G18" s="31">
-        <v>36.700000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I18" s="31">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K18" s="31">
-        <v>50</v>
+        <v>52.9</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M18" s="31">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N18" s="31">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="O18" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P18" s="31">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4362,68 +4505,68 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="28">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="D22" s="28">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E22" s="28">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F22" s="28">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I22" s="28">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C23" s="28">
         <v>11</v>
@@ -4447,239 +4590,239 @@
         <v>4</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C24" s="28">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="28">
-        <v>12.8</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="28">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="28">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="28">
         <v>1</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C25" s="28">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D25" s="28">
-        <v>3.5</v>
+        <v>13.4</v>
       </c>
       <c r="E25" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="28">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G25" s="28">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H25" s="28">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="I25" s="28">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C26" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="28">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="E26" s="28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F26" s="28">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="28">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H26" s="28">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="28">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C27" s="28">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="D27" s="28">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="E27" s="28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="28">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="G27" s="28">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H27" s="28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I27" s="28">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C28" s="28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="28">
-        <v>12.5</v>
+        <v>3.8</v>
       </c>
       <c r="E28" s="28">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="F28" s="28">
         <v>1.8</v>
       </c>
       <c r="G28" s="28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="28">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C29" s="28">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
       <c r="D29" s="28">
-        <v>4.3</v>
+        <v>12.2</v>
       </c>
       <c r="E29" s="28">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="F29" s="28">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G29" s="28">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H29" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="28">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="28">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D30" s="28">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E30" s="28">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I30" s="28">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C31" s="28">
         <v>0</v>
@@ -4703,15 +4846,15 @@
         <v>0</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -4735,15 +4878,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -4767,27 +4910,27 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
       </c>
       <c r="D34" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="28">
         <v>0</v>
       </c>
       <c r="F34" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="28">
         <v>0</v>
@@ -4796,27 +4939,27 @@
         <v>0</v>
       </c>
       <c r="I34" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C35" s="31">
-        <v>8.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D35" s="31">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E35" s="31">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F35" s="31">
         <v>1.5</v>
@@ -4828,13 +4971,13 @@
         <v>2</v>
       </c>
       <c r="I35" s="31">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4862,8 +5005,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48A1305-BD08-4B23-A05E-E2BB4B11FAAB}">
-  <dimension ref="B1:T36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65EF05E-0AB6-4152-B059-84E8259D0371}">
+  <dimension ref="B1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4889,7 +5032,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -4912,55 +5055,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -4969,22 +5112,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>92</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>92</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -4998,7 +5141,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5021,35 +5164,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -5064,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5078,37 +5221,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -5123,13 +5266,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5137,37 +5280,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5182,13 +5325,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5196,35 +5339,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5239,13 +5382,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5253,37 +5396,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5298,13 +5441,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -5312,37 +5455,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -5357,13 +5500,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -5371,37 +5514,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -5416,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -5430,7 +5573,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5453,35 +5596,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5496,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5510,37 +5653,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5555,13 +5698,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5569,37 +5712,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5614,13 +5757,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5628,37 +5771,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -5673,13 +5816,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -5687,37 +5830,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -5732,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -5746,35 +5889,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -5789,13 +5932,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -5803,37 +5946,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -5848,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -5862,7 +6005,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -5885,35 +6028,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -5928,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -5942,37 +6085,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -5987,13 +6130,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6001,37 +6144,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6046,13 +6189,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6060,37 +6203,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6105,13 +6248,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6119,37 +6262,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6164,13 +6307,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6178,35 +6321,35 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6221,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6235,35 +6378,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6278,13 +6421,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6292,37 +6435,37 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -6337,13 +6480,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -6351,7 +6494,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -6374,35 +6517,35 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -6417,13 +6560,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -6431,37 +6574,37 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -6476,13 +6619,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -6490,37 +6633,37 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="K32" s="6">
         <v>100</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M32" s="6">
         <v>2</v>
@@ -6535,13 +6678,13 @@
         <v>2</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="T32" s="6">
         <v>6</v>
@@ -6549,37 +6692,37 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -6594,13 +6737,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -6608,35 +6751,35 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
@@ -6651,13 +6794,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -6665,37 +6808,37 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -6710,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -6724,37 +6867,37 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>341</v>
+        <v>124</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -6769,25 +6912,515 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
       </c>
     </row>
+    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="6">
+        <v>25</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>3</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="T38" s="6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" s="6">
+        <v>3</v>
+      </c>
+      <c r="N39" s="6">
+        <v>2</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S39" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="T39" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="6">
+        <v>21</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" s="6">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="M40" s="6">
+        <v>4</v>
+      </c>
+      <c r="N40" s="6">
+        <v>2</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="T40" s="6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="6">
+        <v>9</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="M41" s="6">
+        <v>3</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="T41" s="6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="6">
+        <v>25</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="6">
+        <v>75</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2</v>
+      </c>
+      <c r="N42" s="6">
+        <v>3</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="S42" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="T42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="6">
+        <v>6</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="6">
+        <v>60</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="6">
+        <v>5</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S43" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="T43" s="6">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="T44" s="6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="S45" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="T45" s="6">
+        <v>-11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
     <mergeCell ref="B20:T20"/>
     <mergeCell ref="B29:T29"/>
+    <mergeCell ref="B37:T37"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -6810,8 +7443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC22DEE3-7E37-40FF-9EC9-636DF5F8296F}">
-  <dimension ref="B1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AC750F-03BA-4AF8-975D-82A124C3466D}">
+  <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6824,7 +7457,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -6835,30 +7468,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6867,44 +7500,44 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -6913,21 +7546,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -6936,21 +7569,21 @@
         <v>5</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -6959,44 +7592,44 @@
         <v>3</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>362</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -7005,62 +7638,85 @@
         <v>2</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>204</v>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>193</v>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D74239-5321-461A-B9E0-643C82597953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F085B6-DDDD-4711-B4B2-3E1EF007F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B55A304-6CF8-4966-BE79-91FAB95C07FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B420E356-8D6F-441E-A16D-6E93DC97F1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="439">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -159,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>2 / 3</t>
+    <t>3 / 3</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>306 / 294</t>
+    <t>391 / 338</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>61,2 / 58,8</t>
+    <t>65,2 / 56,3</t>
   </si>
   <si>
     <t>Игры</t>
@@ -192,31 +192,34 @@
     <t>SIRIUS - ОПЛАТИ 49:60</t>
   </si>
   <si>
+    <t>NORD - SIRIUS 44:85</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 28,0</t>
+    <t>ТУРОВЕЦ Роман 29,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 11,7</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
   </si>
   <si>
-    <t>БЕЗРУЧЕНКО Евгений 10,0</t>
-  </si>
-  <si>
     <t>% 2 очк.</t>
   </si>
   <si>
+    <t>ТУРОВЕЦ Роман 48,9</t>
+  </si>
+  <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 44,9</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 38,1</t>
+    <t>ГАБРУКОВИЧ Павел 40,7</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -237,19 +240,19 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 58,3</t>
-  </si>
-  <si>
-    <t>МОЛОЧНИКОВ Александр 50,0</t>
+    <t>ТУРОВЕЦ Роман 63,2</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 55,2</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 13,4</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 12,2</t>
+    <t>КОВАЛЕНКО Олег 13,3</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 11,8</t>
   </si>
   <si>
     <t>АКСЮЧИЦ Александр 7,2</t>
@@ -258,22 +261,22 @@
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,3</t>
+    <t>СИКОРСКИЙ Егор 4,6</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 2,8</t>
+    <t>ТУРОВЕЦ Роман 2,7</t>
   </si>
   <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,2</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 1,8</t>
+    <t>ТУРОВЕЦ Роман 3,0</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 1,7</t>
   </si>
   <si>
     <t>Блок-шоты</t>
@@ -282,10 +285,10 @@
     <t>ГАБРУКОВИЧ Павел 2,2</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 0,7</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 0,4</t>
+    <t>ЧАЙКО Евгений 0,5</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 0,3</t>
   </si>
   <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
@@ -339,43 +342,43 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>182:20</t>
-  </si>
-  <si>
-    <t>35/78</t>
-  </si>
-  <si>
-    <t>14/59</t>
-  </si>
-  <si>
-    <t>28/48</t>
-  </si>
-  <si>
-    <t>27 (19/8)</t>
-  </si>
-  <si>
-    <t>31 (12/19)</t>
-  </si>
-  <si>
-    <t>15 (1/1/0) - 13</t>
+    <t>220:30</t>
+  </si>
+  <si>
+    <t>45/92</t>
+  </si>
+  <si>
+    <t>15/66</t>
+  </si>
+  <si>
+    <t>43/68</t>
+  </si>
+  <si>
+    <t>33 (23/10)</t>
+  </si>
+  <si>
+    <t>35 (13/22)</t>
+  </si>
+  <si>
+    <t>17 (1/1/0) - 13</t>
   </si>
   <si>
     <t>#11. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>139:40</t>
-  </si>
-  <si>
-    <t>17/53</t>
+    <t>169:10</t>
+  </si>
+  <si>
+    <t>27/72</t>
   </si>
   <si>
     <t>0/1</t>
   </si>
   <si>
-    <t>12/24</t>
-  </si>
-  <si>
-    <t>67 (36/31)</t>
+    <t>16/29</t>
+  </si>
+  <si>
+    <t>80 (44/36)</t>
   </si>
   <si>
     <t>6 (1/5)</t>
@@ -408,6 +411,54 @@
     <t>5 (0/0/0) - 2</t>
   </si>
   <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>205:50</t>
+  </si>
+  <si>
+    <t>11/27</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>71 (41/30)</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>12 (0/0/0) - 20</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>167:53</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>7/31</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>19 (18/1)</t>
+  </si>
+  <si>
+    <t>15 (9/6)</t>
+  </si>
+  <si>
+    <t>9 (0/0/0) - 12</t>
+  </si>
+  <si>
     <t>#21. БЕЗРУЧЕНКО Евгений</t>
   </si>
   <si>
@@ -432,817 +483,850 @@
     <t>5 (0/2/0) - 0</t>
   </si>
   <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>173:09</t>
-  </si>
-  <si>
-    <t>8/21</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>61 (36/25)</t>
-  </si>
-  <si>
-    <t>5 (5/0)</t>
-  </si>
-  <si>
-    <t>7 (0/0/0) - 12</t>
-  </si>
-  <si>
     <t>#6. ЧАЙКО Евгений</t>
   </si>
   <si>
-    <t>86:56</t>
+    <t>113:29</t>
+  </si>
+  <si>
+    <t>5/22</t>
+  </si>
+  <si>
+    <t>3/16</t>
+  </si>
+  <si>
+    <t>19 (14/5)</t>
+  </si>
+  <si>
+    <t>16 (14/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>80:16</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>18 (16/2)</t>
+  </si>
+  <si>
+    <t>8 (2/6)</t>
+  </si>
+  <si>
+    <t>6 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>40:34</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>1200:00</t>
+  </si>
+  <si>
+    <t>114/289</t>
+  </si>
+  <si>
+    <t>33/150</t>
+  </si>
+  <si>
+    <t>64/112</t>
+  </si>
+  <si>
+    <t>290 (188/102)</t>
+  </si>
+  <si>
+    <t>101 (50/51)</t>
+  </si>
+  <si>
+    <t>71 (1/3/0) - 70</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>37:45</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>28:12</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>26:28</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>34:35</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>28:22</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>34:18</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>27:16</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
   </si>
   <si>
     <t>5/19</t>
   </si>
   <si>
-    <t>2/14</t>
-  </si>
-  <si>
-    <t>15 (12/3)</t>
-  </si>
-  <si>
-    <t>15 (13/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>134:37</t>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
   </si>
   <si>
     <t>0/6</t>
   </si>
   <si>
-    <t>5/24</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>15 (14/1)</t>
-  </si>
-  <si>
-    <t>11 (6/5)</t>
-  </si>
-  <si>
-    <t>8 (0/0/0) - 12</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>64:04</t>
-  </si>
-  <si>
-    <t>2/8</t>
-  </si>
-  <si>
-    <t>12 (10/2)</t>
-  </si>
-  <si>
-    <t>7 (2/5)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#21. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>16:56</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>1000:00</t>
-  </si>
-  <si>
-    <t>90/244</t>
-  </si>
-  <si>
-    <t>27/129</t>
-  </si>
-  <si>
-    <t>45/85</t>
-  </si>
-  <si>
-    <t>243 (156/87)</t>
-  </si>
-  <si>
-    <t>90 (45/45)</t>
-  </si>
-  <si>
-    <t>58 (1/3/0) - 52</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>6 (6/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>26:33</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>38:10</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>13 (8/5)</t>
+  </si>
+  <si>
+    <t>1,137</t>
+  </si>
+  <si>
+    <t>32:41</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,500</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>ВАЛЕНДО Таисия</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
   </si>
   <si>
     <t>3,0</t>
-  </si>
-  <si>
-    <t>36:28</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>28:56</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>26:28</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>29:59</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>34:39</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>35:38</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>13:49</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>27:02</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>4/8</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>6 (5/1)</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>-0,053</t>
-  </si>
-  <si>
-    <t>30:44</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>9 (8/1)</t>
-  </si>
-  <si>
-    <t>-0,279</t>
-  </si>
-  <si>
-    <t>33:16</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>5 (4/1)</t>
-  </si>
-  <si>
-    <t>6 (2/4)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,395</t>
-  </si>
-  <si>
-    <t>30:08</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>0,071</t>
-  </si>
-  <si>
-    <t>24:34</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>16 (14/2)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,924</t>
-  </si>
-  <si>
-    <t>37:52</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>11 (10/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,496</t>
-  </si>
-  <si>
-    <t>10:29</t>
-  </si>
-  <si>
-    <t>-0,233</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
   </si>
   <si>
     <t>ВЕЛИЧКО Марина</t>
@@ -1843,8 +1927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F4FD78-21E0-4936-BE0B-42CF8EB43554}">
-  <dimension ref="A1:AT29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A725F0-9AA9-48FC-879B-402AD2AE78BA}">
+  <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -2930,12 +3014,12 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="K20" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -2988,7 +3072,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="K21" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -2999,7 +3083,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -3010,7 +3094,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
@@ -3021,7 +3105,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
@@ -3047,7 +3131,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -3058,7 +3142,7 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -3069,7 +3153,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
@@ -3080,7 +3164,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -3106,7 +3190,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -3117,7 +3201,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3128,7 +3212,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3139,7 +3223,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -3163,7 +3247,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="K24" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3174,7 +3258,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3185,7 +3269,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3196,7 +3280,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3220,7 +3304,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="K25" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -3231,7 +3315,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -3242,7 +3326,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -3253,7 +3337,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
@@ -3277,7 +3361,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -3288,7 +3372,7 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -3299,7 +3383,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
@@ -3310,7 +3394,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
@@ -3334,7 +3418,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3345,7 +3429,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3356,7 +3440,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3367,7 +3451,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -3391,7 +3475,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3402,7 +3486,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3413,7 +3497,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3424,7 +3508,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3448,8 +3532,21 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="157">
     <mergeCell ref="AL28:AT28"/>
     <mergeCell ref="K28:S28"/>
     <mergeCell ref="T25:AB25"/>
@@ -3480,12 +3577,12 @@
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:I30"/>
     <mergeCell ref="K20:AT20"/>
     <mergeCell ref="K21:S21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
     <mergeCell ref="K24:S24"/>
-    <mergeCell ref="T21:AB21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="A23:F23"/>
@@ -3498,6 +3595,7 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="T21:AB21"/>
     <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="T17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
@@ -3612,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E05072E-528E-4C23-A880-8C5DF9CA0629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88812DDE-DA92-45B8-B868-0F354B50BB04}">
   <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3636,7 +3734,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3668,49 +3766,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3719,22 +3817,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3746,93 +3844,93 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="28">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G5" s="28">
-        <v>44.9</v>
+        <v>48.9</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="28">
-        <v>23.7</v>
+        <v>22.7</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K5" s="28">
-        <v>58.3</v>
+        <v>63.2</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" s="28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N5" s="28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O5" s="28">
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="28">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" s="28">
-        <v>32.1</v>
+        <v>37.5</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6" s="28">
-        <v>50</v>
+        <v>55.2</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="28">
         <v>9</v>
@@ -3841,18 +3939,18 @@
         <v>2</v>
       </c>
       <c r="P6" s="28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
@@ -3861,28 +3959,28 @@
         <v>30</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7" s="28">
         <v>35.299999999999997</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I7" s="28">
         <v>10.5</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7" s="28">
         <v>0</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" s="28">
         <v>6</v>
@@ -3897,227 +3995,227 @@
         <v>3</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="28">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="28">
-        <v>47.4</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I8" s="28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K8" s="28">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8" s="28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P8" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="28">
         <v>5</v>
       </c>
       <c r="D9" s="28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G9" s="28">
-        <v>38.1</v>
+        <v>14.3</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I9" s="28">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" s="28">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N9" s="28">
         <v>8</v>
       </c>
       <c r="O9" s="28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P9" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G10" s="28">
-        <v>26.3</v>
+        <v>47.4</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I10" s="28">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="K10" s="28">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N10" s="28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O10" s="28">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28">
         <v>2</v>
       </c>
-      <c r="P10" s="28">
-        <v>3</v>
-      </c>
       <c r="Q10" s="29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C11" s="28">
         <v>4</v>
       </c>
       <c r="D11" s="28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11" s="28">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I11" s="28">
-        <v>20.8</v>
+        <v>18.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K11" s="28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" s="28">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N11" s="28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O11" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="28">
         <v>3</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -4126,28 +4224,28 @@
         <v>11</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G12" s="28">
         <v>33.299999999999997</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I12" s="28">
         <v>28.6</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K12" s="28">
         <v>50</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -4162,121 +4260,121 @@
         <v>1</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13" s="28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K13" s="28">
         <v>0</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O13" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="28">
         <v>2</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="I14" s="28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="28">
         <v>0</v>
       </c>
       <c r="P14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4285,28 +4383,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4321,15 +4419,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
@@ -4338,28 +4436,28 @@
         <v>0</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K16" s="28">
         <v>0</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M16" s="28">
         <v>0</v>
@@ -4374,51 +4472,51 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C17" s="28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="28">
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K17" s="28">
         <v>0</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" s="28">
         <v>0</v>
       </c>
       <c r="N17" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="28">
         <v>0</v>
@@ -4430,68 +4528,68 @@
         <v>179</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" s="31">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D18" s="31">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G18" s="31">
-        <v>36.9</v>
+        <v>39.4</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I18" s="31">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K18" s="31">
-        <v>52.9</v>
+        <v>57.1</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" s="31">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N18" s="31">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O18" s="31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P18" s="31">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4505,112 +4603,112 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="28">
-        <v>28</v>
+        <v>29.7</v>
       </c>
       <c r="D22" s="28">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E22" s="28">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F22" s="28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I22" s="28">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C23" s="28">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="D23" s="28">
-        <v>2</v>
+        <v>13.3</v>
       </c>
       <c r="E23" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="28">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G23" s="28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H23" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="I23" s="28">
         <v>1</v>
       </c>
-      <c r="I23" s="28">
-        <v>4</v>
-      </c>
       <c r="J23" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="C24" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="28">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="28">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="28">
         <v>0</v>
@@ -4619,50 +4717,50 @@
         <v>1</v>
       </c>
       <c r="I24" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C25" s="28">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="D25" s="28">
-        <v>13.4</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="28">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="H25" s="28">
         <v>1</v>
       </c>
-      <c r="F25" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="28">
-        <v>3.6</v>
-      </c>
       <c r="I25" s="28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="28">
         <v>6</v>
@@ -4686,175 +4784,175 @@
         <v>1.6</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C27" s="28">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="D27" s="28">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="E27" s="28">
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F27" s="28">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G27" s="28">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H27" s="28">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I27" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" s="28">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D28" s="28">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="E28" s="28">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="F28" s="28">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G28" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="28">
         <v>0.8</v>
       </c>
       <c r="I28" s="28">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C29" s="28">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D29" s="28">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E29" s="28">
         <v>0.8</v>
       </c>
       <c r="F29" s="28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G29" s="28">
         <v>2.2000000000000002</v>
       </c>
       <c r="H29" s="28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="28">
         <v>1</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C30" s="28">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="28">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="E30" s="28">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F30" s="28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="28">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C31" s="28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D31" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G31" s="28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H31" s="28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I31" s="28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -4878,15 +4976,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -4910,27 +5008,27 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
       </c>
       <c r="D34" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="28">
         <v>0</v>
       </c>
       <c r="F34" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G34" s="28">
         <v>0</v>
@@ -4939,27 +5037,27 @@
         <v>0</v>
       </c>
       <c r="I34" s="28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" s="31">
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="D35" s="31">
         <v>6.6</v>
       </c>
       <c r="E35" s="31">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="F35" s="31">
         <v>1.5</v>
@@ -4971,13 +5069,13 @@
         <v>2</v>
       </c>
       <c r="I35" s="31">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5005,8 +5103,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65EF05E-0AB6-4152-B059-84E8259D0371}">
-  <dimension ref="B1:T45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0832E8-A66C-489D-B5C4-A4D546E9BE2F}">
+  <dimension ref="B1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5032,7 +5130,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5055,55 +5153,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -5112,22 +5210,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>93</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -5141,7 +5239,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5164,35 +5262,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -5207,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5221,37 +5319,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -5266,13 +5364,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5280,37 +5378,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5325,13 +5423,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5339,35 +5437,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5382,13 +5480,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5396,37 +5494,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5441,13 +5539,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -5455,37 +5553,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -5500,13 +5598,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -5514,37 +5612,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -5559,13 +5657,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -5573,7 +5671,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5596,35 +5694,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5639,13 +5737,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5653,37 +5751,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5698,13 +5796,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5712,37 +5810,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5757,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5771,37 +5869,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -5816,13 +5914,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -5830,37 +5928,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -5875,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -5889,35 +5987,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -5932,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -5946,37 +6044,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -5991,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6005,7 +6103,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6028,35 +6126,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6071,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -6085,37 +6183,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -6130,13 +6228,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6144,37 +6242,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6189,13 +6287,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6203,37 +6301,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6248,13 +6346,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6262,37 +6360,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6307,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6321,35 +6419,35 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6364,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6378,35 +6476,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6421,13 +6519,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6435,37 +6533,37 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -6480,13 +6578,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -6494,7 +6592,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -6517,35 +6615,35 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -6560,13 +6658,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -6574,37 +6672,37 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -6619,13 +6717,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -6633,37 +6731,37 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>144</v>
+        <v>337</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K32" s="6">
         <v>100</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M32" s="6">
         <v>2</v>
@@ -6678,13 +6776,13 @@
         <v>2</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="T32" s="6">
         <v>6</v>
@@ -6692,37 +6790,37 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -6737,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -6751,35 +6849,35 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
@@ -6794,13 +6892,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -6808,37 +6906,37 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -6853,13 +6951,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -6867,37 +6965,37 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -6912,13 +7010,13 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
@@ -6926,7 +7024,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -6949,35 +7047,35 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G38" s="6">
         <v>25</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -6992,13 +7090,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T38" s="6">
         <v>-4</v>
@@ -7006,37 +7104,37 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G39" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>151</v>
+        <v>361</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>341</v>
+        <v>133</v>
       </c>
       <c r="M39" s="6">
         <v>3</v>
@@ -7051,13 +7149,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="T39" s="6">
         <v>-1</v>
@@ -7065,37 +7163,37 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G40" s="6">
         <v>45.5</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K40" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="M40" s="6">
         <v>4</v>
@@ -7110,13 +7208,13 @@
         <v>9</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="T40" s="6">
         <v>-10</v>
@@ -7124,37 +7222,37 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D41" s="6">
         <v>9</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M41" s="6">
         <v>3</v>
@@ -7169,13 +7267,13 @@
         <v>1</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="T41" s="6">
         <v>-8</v>
@@ -7183,37 +7281,37 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G42" s="6">
         <v>25</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K42" s="6">
         <v>75</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -7228,13 +7326,13 @@
         <v>3</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -7242,37 +7340,37 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G43" s="6">
         <v>60</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -7287,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="T43" s="6">
         <v>-16</v>
@@ -7301,35 +7399,35 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K44" s="6">
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -7344,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T44" s="6">
         <v>-5</v>
@@ -7358,35 +7456,35 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
         <v>4</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G45" s="6">
         <v>28.6</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -7401,20 +7499,453 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="T45" s="6">
         <v>-11</v>
       </c>
     </row>
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" s="6">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6">
+        <v>2</v>
+      </c>
+      <c r="O47" s="6">
+        <v>1</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="S47" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="T47" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B48" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="T48" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B49" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="6">
+        <v>38</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G49" s="6">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K49" s="6">
+        <v>75</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="M49" s="6">
+        <v>2</v>
+      </c>
+      <c r="N49" s="6">
+        <v>2</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="S49" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="T49" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B50" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="6">
+        <v>8</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="6">
+        <v>100</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M50" s="6">
+        <v>6</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="S50" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="T50" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B51" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="6">
+        <v>24</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="K51" s="6">
+        <v>80</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S51" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="T51" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B52" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" s="6">
+        <v>6</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" s="6">
+        <v>50</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1</v>
+      </c>
+      <c r="N52" s="6">
+        <v>2</v>
+      </c>
+      <c r="O52" s="6">
+        <v>2</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="S52" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="T52" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B53" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6">
+        <v>6</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S53" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="T53" s="6">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B46:T46"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
@@ -7443,8 +7974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AC750F-03BA-4AF8-975D-82A124C3466D}">
-  <dimension ref="B1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0526183-DB73-431F-B7FC-6B08CAB78FBD}">
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7457,7 +7988,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -7468,30 +7999,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -7500,21 +8031,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -7523,21 +8054,21 @@
         <v>15</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -7546,67 +8077,67 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>199</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -7615,44 +8146,44 @@
         <v>3</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>199</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>210</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -7661,62 +8192,85 @@
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>409</v>
+      <c r="E11" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>206</v>
+      <c r="E14" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F085B6-DDDD-4711-B4B2-3E1EF007F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC83961-9A03-4336-AAA0-03037517E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B420E356-8D6F-441E-A16D-6E93DC97F1A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AD3B95F-23FF-4A22-AF42-547F518A5F57}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="465">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -159,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>3 / 3</t>
+    <t>4 / 3</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>391 / 338</t>
+    <t>458 / 391</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>65,2 / 56,3</t>
+    <t>65,4 / 55,9</t>
   </si>
   <si>
     <t>Игры</t>
@@ -195,16 +195,19 @@
     <t>NORD - SIRIUS 44:85</t>
   </si>
   <si>
+    <t>SIRIUS - ISsoft 67:53</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 29,7</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 11,7</t>
+    <t>ТУРОВЕЦ Роман 29,1</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 12,1</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
@@ -213,13 +216,13 @@
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 48,9</t>
+    <t>ТУРОВЕЦ Роман 51,4</t>
   </si>
   <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 40,7</t>
+    <t>КОВАЛЕНКО Олег 40,7</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -228,7 +231,7 @@
     <t>ГЕРАСИМОВИЧ Сергей 100,0</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 100,0</t>
+    <t>ГАБРУКОВИЧ Павел 50,0</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 28,6</t>
@@ -240,49 +243,49 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 63,2</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 55,2</t>
+    <t>ТУРОВЕЦ Роман 61,3</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 55,9</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 13,3</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 11,8</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 7,2</t>
+    <t>КОВАЛЕНКО Олег 13,1</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 12,1</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 6,8</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,6</t>
+    <t>СИКОРСКИЙ Егор 4,0</t>
+  </si>
+  <si>
+    <t>ТУРОВЕЦ Роман 3,3</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 2,7</t>
-  </si>
-  <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,0</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 1,7</t>
+    <t>ТУРОВЕЦ Роман 3,9</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 1,6</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 2,2</t>
+    <t>ГАБРУКОВИЧ Павел 2,0</t>
   </si>
   <si>
     <t>ЧАЙКО Евгений 0,5</t>
@@ -342,1009 +345,1084 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>220:30</t>
-  </si>
-  <si>
-    <t>45/92</t>
-  </si>
-  <si>
-    <t>15/66</t>
-  </si>
-  <si>
-    <t>43/68</t>
-  </si>
-  <si>
-    <t>33 (23/10)</t>
-  </si>
-  <si>
-    <t>35 (13/22)</t>
-  </si>
-  <si>
-    <t>17 (1/1/0) - 13</t>
+    <t>260:30</t>
+  </si>
+  <si>
+    <t>55/107</t>
+  </si>
+  <si>
+    <t>15/76</t>
+  </si>
+  <si>
+    <t>49/80</t>
+  </si>
+  <si>
+    <t>39 (29/10)</t>
+  </si>
+  <si>
+    <t>42 (16/26)</t>
+  </si>
+  <si>
+    <t>20 (1/1/0) - 15</t>
   </si>
   <si>
     <t>#11. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>169:10</t>
-  </si>
-  <si>
-    <t>27/72</t>
+    <t>209:10</t>
+  </si>
+  <si>
+    <t>33/81</t>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <t>19/34</t>
+  </si>
+  <si>
+    <t>92 (50/42)</t>
+  </si>
+  <si>
+    <t>7 (1/6)</t>
+  </si>
+  <si>
+    <t>17 (0/0/0) - 13</t>
+  </si>
+  <si>
+    <t>#77. АКСЮЧИЦ Александр</t>
+  </si>
+  <si>
+    <t>165:03</t>
+  </si>
+  <si>
+    <t>16/44</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>4/8</t>
+  </si>
+  <si>
+    <t>41 (26/15)</t>
+  </si>
+  <si>
+    <t>10 (7/3)</t>
+  </si>
+  <si>
+    <t>6 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>201:42</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>9/36</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>21 (20/1)</t>
+  </si>
+  <si>
+    <t>21 (12/9)</t>
+  </si>
+  <si>
+    <t>13 (0/0/0) - 18</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>245:50</t>
+  </si>
+  <si>
+    <t>11/29</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>85 (52/33)</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>13 (0/0/0) - 20</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>113:29</t>
+  </si>
+  <si>
+    <t>5/22</t>
+  </si>
+  <si>
+    <t>3/16</t>
+  </si>
+  <si>
+    <t>19 (14/5)</t>
+  </si>
+  <si>
+    <t>16 (14/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>93:44</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>20 (16/4)</t>
+  </si>
+  <si>
+    <t>8 (2/6)</t>
+  </si>
+  <si>
+    <t>6 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>40:34</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>1400:00</t>
+  </si>
+  <si>
+    <t>137/330</t>
+  </si>
+  <si>
+    <t>35/173</t>
+  </si>
+  <si>
+    <t>79/143</t>
+  </si>
+  <si>
+    <t>331 (217/114)</t>
+  </si>
+  <si>
+    <t>119 (59/60)</t>
+  </si>
+  <si>
+    <t>83 (1/3/0) - 82</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>37:13</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>30:53</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>28:31</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>34:37</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>28:22</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>35:07</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>28:00</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
   </si>
   <si>
     <t>0/1</t>
   </si>
   <si>
-    <t>16/29</t>
-  </si>
-  <si>
-    <t>80 (44/36)</t>
-  </si>
-  <si>
-    <t>6 (1/5)</t>
-  </si>
-  <si>
-    <t>14 (0/0/0) - 9</t>
-  </si>
-  <si>
-    <t>#77. АКСЮЧИЦ Александр</t>
-  </si>
-  <si>
-    <t>132:20</t>
-  </si>
-  <si>
-    <t>12/34</t>
-  </si>
-  <si>
-    <t>2/19</t>
-  </si>
-  <si>
-    <t>0/2</t>
-  </si>
-  <si>
-    <t>36 (22/14)</t>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
   </si>
   <si>
     <t>8 (5/3)</t>
   </si>
   <si>
-    <t>5 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>205:50</t>
-  </si>
-  <si>
-    <t>11/27</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>71 (41/30)</t>
-  </si>
-  <si>
-    <t>6 (5/1)</t>
-  </si>
-  <si>
-    <t>12 (0/0/0) - 20</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>167:53</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>7/31</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>19 (18/1)</t>
-  </si>
-  <si>
-    <t>15 (9/6)</t>
-  </si>
-  <si>
-    <t>9 (0/0/0) - 12</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
-  </si>
-  <si>
-    <t>46:43</t>
-  </si>
-  <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>7 (4/3)</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>113:29</t>
-  </si>
-  <si>
-    <t>5/22</t>
-  </si>
-  <si>
-    <t>3/16</t>
-  </si>
-  <si>
-    <t>19 (14/5)</t>
-  </si>
-  <si>
-    <t>16 (14/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>80:16</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>18 (16/2)</t>
-  </si>
-  <si>
-    <t>8 (2/6)</t>
-  </si>
-  <si>
-    <t>6 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#21. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>40:34</t>
-  </si>
-  <si>
-    <t>2/8</t>
-  </si>
-  <si>
-    <t>5 (4/1)</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>1200:00</t>
-  </si>
-  <si>
-    <t>114/289</t>
-  </si>
-  <si>
-    <t>33/150</t>
-  </si>
-  <si>
-    <t>64/112</t>
-  </si>
-  <si>
-    <t>290 (188/102)</t>
-  </si>
-  <si>
-    <t>101 (50/51)</t>
-  </si>
-  <si>
-    <t>71 (1/3/0) - 70</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>37:45</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>28:12</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>26:28</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>34:35</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>28:22</t>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>6 (6/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>26:33</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>38:10</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>13 (8/5)</t>
+  </si>
+  <si>
+    <t>1,137</t>
+  </si>
+  <si>
+    <t>32:41</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,500</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>Игра№143, Регулярный сезон, SIRIUS - ISsoft 67:53, 28.12.2024 16:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t>40:00</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>7 (3/4)</t>
+  </si>
+  <si>
+    <t>0,533</t>
+  </si>
+  <si>
+    <t>33:49</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 6</t>
+  </si>
+  <si>
+    <t>-0,012</t>
+  </si>
+  <si>
+    <t>12 (6/6)</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,633</t>
+  </si>
+  <si>
+    <t>14 (11/3)</t>
+  </si>
+  <si>
+    <t>0,318</t>
+  </si>
+  <si>
+    <t>32:43</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>0,065</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>ВАЛЕНДО Таисия</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>КВИТУН Николай</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>БАРАЙ Александр</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>ВЕЛИЧКО Марина</t>
+  </si>
+  <si>
+    <t>САНЮК Андрей</t>
   </si>
   <si>
     <t>2,0</t>
   </si>
   <si>
-    <t>34:18</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>13:23</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>27:16</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>4/8</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>5/19</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>-0,053</t>
-  </si>
-  <si>
-    <t>30:44</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>9 (8/1)</t>
-  </si>
-  <si>
-    <t>-0,279</t>
-  </si>
-  <si>
-    <t>33:16</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>6 (2/4)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,395</t>
-  </si>
-  <si>
-    <t>30:08</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>0,071</t>
-  </si>
-  <si>
-    <t>24:34</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,924</t>
-  </si>
-  <si>
-    <t>37:52</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>11 (10/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,496</t>
-  </si>
-  <si>
-    <t>10:29</t>
-  </si>
-  <si>
-    <t>-0,233</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:12</t>
-  </si>
-  <si>
-    <t>6 (6/0)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>0,261</t>
-  </si>
-  <si>
-    <t>26:33</t>
-  </si>
-  <si>
-    <t>0,125</t>
-  </si>
-  <si>
-    <t>38:10</t>
-  </si>
-  <si>
-    <t>10/14</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>15/20</t>
-  </si>
-  <si>
-    <t>0,853</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>29:30</t>
-  </si>
-  <si>
-    <t>10/19</t>
-  </si>
-  <si>
-    <t>4/5</t>
-  </si>
-  <si>
-    <t>13 (8/5)</t>
-  </si>
-  <si>
-    <t>1,137</t>
-  </si>
-  <si>
-    <t>32:41</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,500</t>
-  </si>
-  <si>
-    <t>23:38</t>
-  </si>
-  <si>
-    <t>40,0</t>
-  </si>
-  <si>
-    <t>0,334</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>ВАЛЕНДО Таисия</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>ВЕЛИЧКО Марина</t>
-  </si>
-  <si>
-    <t>САНЮК Андрей</t>
-  </si>
-  <si>
     <t>ВЕРЕМЕЕНКО Андрей</t>
   </si>
   <si>
+    <t>ЛЕСИЦКИЙ Артем</t>
+  </si>
+  <si>
     <t>АВЕРКИНА Мария</t>
   </si>
   <si>
     <t>1,5</t>
-  </si>
-  <si>
-    <t>ЛЕСИЦКИЙ Артем</t>
   </si>
 </sst>
 </file>
@@ -1927,8 +2005,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A725F0-9AA9-48FC-879B-402AD2AE78BA}">
-  <dimension ref="A1:AT30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E686678-BD62-4BC1-9590-DAACBC7D2162}">
+  <dimension ref="A1:AT31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -2265,7 +2343,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF6" s="11"/>
       <c r="AG6" s="11">
@@ -2365,7 +2443,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3019,7 +3097,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="K20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -3072,7 +3150,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="K21" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -3083,7 +3161,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -3094,7 +3172,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
@@ -3105,7 +3183,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
@@ -3131,7 +3209,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -3142,7 +3220,7 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -3153,7 +3231,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
@@ -3164,7 +3242,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -3190,7 +3268,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -3201,7 +3279,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3212,7 +3290,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3223,7 +3301,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -3247,7 +3325,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="K24" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3258,7 +3336,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3269,7 +3347,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3280,7 +3358,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3304,7 +3382,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="K25" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -3315,7 +3393,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -3326,7 +3404,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -3337,7 +3415,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
@@ -3361,7 +3439,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -3372,7 +3450,7 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -3383,7 +3461,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
@@ -3394,7 +3472,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
@@ -3418,7 +3496,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3429,7 +3507,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3440,7 +3518,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3451,7 +3529,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -3475,7 +3553,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3486,7 +3564,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3497,7 +3575,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3508,7 +3586,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3545,44 +3623,57 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="158">
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AL27:AT27"/>
     <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
     <mergeCell ref="K28:S28"/>
     <mergeCell ref="T25:AB25"/>
     <mergeCell ref="T26:AB26"/>
     <mergeCell ref="T27:AB27"/>
     <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="AL22:AT22"/>
     <mergeCell ref="AL23:AT23"/>
     <mergeCell ref="AL24:AT24"/>
-    <mergeCell ref="K25:S25"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="T21:AB21"/>
     <mergeCell ref="T22:AB22"/>
     <mergeCell ref="T23:AB23"/>
     <mergeCell ref="T24:AB24"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AC24:AK24"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="K20:AT20"/>
-    <mergeCell ref="K21:S21"/>
-    <mergeCell ref="K22:S22"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="A31:I31"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="A23:F23"/>
@@ -3595,8 +3686,9 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="T21:AB21"/>
-    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="K20:AT20"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="T17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="AG17:AH17"/>
@@ -3710,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88812DDE-DA92-45B8-B868-0F354B50BB04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C22580-63B1-458B-8F92-A336EAE4D76F}">
   <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3734,7 +3826,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3766,49 +3858,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3817,22 +3909,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3844,272 +3936,272 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="28">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="28">
-        <v>48.9</v>
+        <v>51.4</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" s="28">
-        <v>22.7</v>
+        <v>19.7</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="28">
-        <v>63.2</v>
+        <v>61.3</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" s="28">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N5" s="28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O5" s="28">
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="28">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="28">
-        <v>37.5</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K6" s="28">
-        <v>55.2</v>
+        <v>55.9</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M6" s="28">
         <v>6</v>
       </c>
       <c r="N6" s="28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O6" s="28">
         <v>2</v>
       </c>
       <c r="P6" s="28">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="28">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G7" s="28">
-        <v>35.299999999999997</v>
+        <v>36.4</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I7" s="28">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" s="28">
         <v>6</v>
       </c>
       <c r="N7" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O7" s="28">
         <v>1</v>
       </c>
       <c r="P7" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="28">
         <v>6</v>
       </c>
       <c r="D8" s="28">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G8" s="28">
-        <v>40.700000000000003</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I8" s="28">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K8" s="28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" s="28">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N8" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="28">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P8" s="28">
         <v>4</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G9" s="28">
-        <v>14.3</v>
+        <v>37.9</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I9" s="28">
-        <v>22.6</v>
+        <v>50</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9" s="28">
         <v>25</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" s="28">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N9" s="28">
+        <v>10</v>
+      </c>
+      <c r="O9" s="28">
+        <v>14</v>
+      </c>
+      <c r="P9" s="28">
         <v>8</v>
       </c>
-      <c r="O9" s="28">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28">
-        <v>3</v>
-      </c>
       <c r="Q9" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="28">
         <v>2</v>
@@ -4118,28 +4210,28 @@
         <v>20</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G10" s="28">
         <v>47.4</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I10" s="28">
         <v>0</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K10" s="28">
         <v>66.7</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" s="28">
         <v>1</v>
@@ -4154,15 +4246,15 @@
         <v>2</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="28">
         <v>4</v>
@@ -4171,28 +4263,28 @@
         <v>19</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" s="28">
         <v>22.7</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I11" s="28">
         <v>18.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K11" s="28">
         <v>0</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" s="28">
         <v>7</v>
@@ -4207,15 +4299,15 @@
         <v>3</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -4224,28 +4316,28 @@
         <v>11</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G12" s="28">
         <v>33.299999999999997</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I12" s="28">
         <v>28.6</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K12" s="28">
         <v>50</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -4260,68 +4352,68 @@
         <v>1</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G13" s="28">
-        <v>20</v>
+        <v>23.1</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K13" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M13" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13" s="28">
         <v>1</v>
       </c>
       <c r="P13" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C14" s="28">
         <v>3</v>
@@ -4330,28 +4422,28 @@
         <v>6</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="I14" s="28">
         <v>25</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" s="28">
         <v>1</v>
@@ -4366,15 +4458,15 @@
         <v>1</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4383,28 +4475,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4419,46 +4511,46 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>179</v>
-      </c>
       <c r="M16" s="28">
         <v>0</v>
       </c>
@@ -4472,15 +4564,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="28">
         <v>0</v>
@@ -4489,28 +4581,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="28">
         <v>0</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="28">
         <v>0</v>
@@ -4525,71 +4617,71 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="31">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18" s="31">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G18" s="31">
-        <v>39.4</v>
+        <v>41.5</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I18" s="31">
-        <v>22</v>
+        <v>20.2</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K18" s="31">
-        <v>57.1</v>
+        <v>55.2</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" s="31">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N18" s="31">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O18" s="31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="31">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4603,100 +4695,100 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="28">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="D22" s="28">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="E22" s="28">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="F22" s="28">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I22" s="28">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="28">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D23" s="28">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E23" s="28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F23" s="28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G23" s="28">
         <v>0.3</v>
       </c>
       <c r="H23" s="28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" s="28">
         <v>1</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" s="28">
         <v>11</v>
@@ -4720,15 +4812,15 @@
         <v>4</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="28">
         <v>10</v>
@@ -4752,79 +4844,79 @@
         <v>1</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="28">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="E26" s="28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="28">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G26" s="28">
         <v>0.2</v>
       </c>
       <c r="H26" s="28">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I26" s="28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C27" s="28">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="D27" s="28">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="28">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F27" s="28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G27" s="28">
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I27" s="28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="28">
         <v>4.8</v>
@@ -4848,47 +4940,47 @@
         <v>4</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C29" s="28">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D29" s="28">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E29" s="28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F29" s="28">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="G29" s="28">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H29" s="28">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I29" s="28">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C30" s="28">
         <v>2</v>
@@ -4912,47 +5004,47 @@
         <v>0.3</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C31" s="28">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D31" s="28">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E31" s="28">
         <v>1</v>
       </c>
       <c r="F31" s="28">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G31" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H31" s="28">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I31" s="28">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -4976,15 +5068,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -5008,15 +5100,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -5040,18 +5132,18 @@
         <v>0</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C35" s="31">
-        <v>8.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D35" s="31">
         <v>6.6</v>
@@ -5060,22 +5152,22 @@
         <v>1.7</v>
       </c>
       <c r="F35" s="31">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G35" s="31">
         <v>0.4</v>
       </c>
       <c r="H35" s="31">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I35" s="31">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5103,8 +5195,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0832E8-A66C-489D-B5C4-A4D546E9BE2F}">
-  <dimension ref="B1:T53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7478C13-7404-4CC7-83EC-01CC40610B1A}">
+  <dimension ref="B1:T60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5130,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5153,55 +5245,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -5210,22 +5302,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -5239,7 +5331,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5262,35 +5354,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -5305,13 +5397,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5319,37 +5411,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -5364,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5378,37 +5470,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5423,13 +5515,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5437,35 +5529,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5480,13 +5572,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5494,37 +5586,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5539,13 +5631,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -5553,37 +5645,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -5598,13 +5690,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -5612,37 +5704,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -5657,13 +5749,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -5671,7 +5763,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5694,35 +5786,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5737,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5751,37 +5843,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5796,13 +5888,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5810,37 +5902,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5855,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5869,37 +5961,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -5914,13 +6006,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -5928,37 +6020,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -5973,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -5987,35 +6079,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -6030,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -6044,37 +6136,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -6089,13 +6181,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6103,7 +6195,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6126,35 +6218,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6169,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -6183,37 +6275,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -6228,13 +6320,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6242,37 +6334,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6287,13 +6379,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6301,37 +6393,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6346,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6360,37 +6452,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6405,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6419,35 +6511,35 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6462,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6476,35 +6568,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6519,13 +6611,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6533,37 +6625,37 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -6578,13 +6670,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -6592,7 +6684,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -6615,35 +6707,35 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -6658,13 +6750,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -6672,37 +6764,37 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -6717,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -6731,25 +6823,25 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c r="I32" s="36" t="s">
         <v>339</v>
@@ -6779,7 +6871,7 @@
         <v>342</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
         <v>343</v>
@@ -6790,10 +6882,10 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -6802,7 +6894,7 @@
         <v>344</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -6811,16 +6903,16 @@
         <v>345</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -6835,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -6849,35 +6941,35 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
@@ -6892,13 +6984,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -6906,31 +6998,31 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
@@ -6951,13 +7043,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -6965,37 +7057,37 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -7010,13 +7102,13 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
@@ -7024,7 +7116,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -7047,35 +7139,35 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G38" s="6">
         <v>25</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -7090,13 +7182,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="T38" s="6">
         <v>-4</v>
@@ -7104,37 +7196,37 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G39" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="M39" s="6">
         <v>3</v>
@@ -7149,13 +7241,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="T39" s="6">
         <v>-1</v>
@@ -7163,37 +7255,37 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G40" s="6">
         <v>45.5</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K40" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M40" s="6">
         <v>4</v>
@@ -7208,13 +7300,13 @@
         <v>9</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="T40" s="6">
         <v>-10</v>
@@ -7222,37 +7314,37 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D41" s="6">
         <v>9</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M41" s="6">
         <v>3</v>
@@ -7267,13 +7359,13 @@
         <v>1</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="T41" s="6">
         <v>-8</v>
@@ -7281,37 +7373,37 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G42" s="6">
         <v>25</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K42" s="6">
         <v>75</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -7326,13 +7418,13 @@
         <v>3</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -7340,37 +7432,37 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G43" s="6">
         <v>60</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -7385,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="T43" s="6">
         <v>-16</v>
@@ -7399,35 +7491,35 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K44" s="6">
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -7442,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="T44" s="6">
         <v>-5</v>
@@ -7456,35 +7548,35 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
         <v>4</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G45" s="6">
         <v>28.6</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -7499,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="T45" s="6">
         <v>-11</v>
@@ -7513,7 +7605,7 @@
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7536,35 +7628,35 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M47" s="6">
         <v>1</v>
@@ -7579,13 +7671,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T47" s="6">
         <v>18</v>
@@ -7593,37 +7685,37 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K48" s="6">
         <v>0</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M48" s="6">
         <v>1</v>
@@ -7638,13 +7730,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="T48" s="6">
         <v>18</v>
@@ -7652,37 +7744,37 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D49" s="6">
         <v>38</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G49" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K49" s="6">
         <v>75</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M49" s="6">
         <v>2</v>
@@ -7697,13 +7789,13 @@
         <v>11</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="T49" s="6">
         <v>43</v>
@@ -7711,37 +7803,37 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D50" s="6">
         <v>8</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="G50" s="6">
         <v>100</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50" s="6">
         <v>0</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M50" s="6">
         <v>6</v>
@@ -7756,13 +7848,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="T50" s="6">
         <v>36</v>
@@ -7770,37 +7862,37 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D51" s="6">
         <v>24</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G51" s="6">
         <v>52.6</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K51" s="6">
         <v>80</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
@@ -7815,13 +7907,13 @@
         <v>3</v>
       </c>
       <c r="Q51" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S51" s="36" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="T51" s="6">
         <v>30</v>
@@ -7829,37 +7921,37 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="33" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D52" s="6">
         <v>6</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G52" s="6">
         <v>50</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M52" s="6">
         <v>1</v>
@@ -7874,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="S52" s="36" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="T52" s="6">
         <v>32</v>
@@ -7888,35 +7980,35 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
         <v>6</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M53" s="6">
         <v>1</v>
@@ -7931,21 +8023,397 @@
         <v>1</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S53" s="36" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="T53" s="6">
         <v>28</v>
       </c>
     </row>
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B55" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6">
+        <v>3</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K55" s="6">
+        <v>50</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="N55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S55" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="T55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B56" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="6">
+        <v>26</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K56" s="6">
+        <v>50</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="M56" s="6">
+        <v>7</v>
+      </c>
+      <c r="N56" s="6">
+        <v>9</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="T56" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B57" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" s="6">
+        <v>100</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="S57" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="T57" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B58" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="6">
+        <v>15</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="G58" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" s="6">
+        <v>60</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>2</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="S58" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="T58" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B59" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K59" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" s="6">
+        <v>2</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="S59" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="T59" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B60" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="6">
+        <v>12</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="6">
+        <v>40</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="K60" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>2</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="S60" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="T60" s="6">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="B46:T46"/>
+    <mergeCell ref="B54:T54"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
@@ -7974,8 +8442,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0526183-DB73-431F-B7FC-6B08CAB78FBD}">
-  <dimension ref="B1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FC938-2428-4492-9C0E-CEA2CA1E58E7}">
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7988,7 +8456,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -7999,30 +8467,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -8031,21 +8499,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -8054,21 +8522,21 @@
         <v>15</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -8077,21 +8545,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -8100,177 +8568,223 @@
         <v>7</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>213</v>
+      <c r="E12" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
       <c r="E13" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>207</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BC83961-9A03-4336-AAA0-03037517E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{490A2025-DCE9-45B7-BF33-E3BBECC10E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AD3B95F-23FF-4A22-AF42-547F518A5F57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C236F88A-1F8E-47CE-A4F4-3626E73E5D32}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="493">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -159,19 +159,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>4 / 3</t>
+    <t>5 / 3</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>458 / 391</t>
+    <t>542 / 434</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>65,4 / 55,9</t>
+    <t>67,8 / 54,3</t>
   </si>
   <si>
     <t>Игры</t>
@@ -198,16 +198,19 @@
     <t>SIRIUS - ISsoft 67:53</t>
   </si>
   <si>
+    <t>VSS - SIRIUS 43:84</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 29,1</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 12,1</t>
+    <t>ТУРОВЕЦ Роман 29,9</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 12,0</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
@@ -216,13 +219,13 @@
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 51,4</t>
+    <t>ТУРОВЕЦ Роман 51,3</t>
   </si>
   <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 40,7</t>
+    <t>ГАБРУКОВИЧ Павел 41,2</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -243,10 +246,10 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 61,3</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 55,9</t>
+    <t>ТУРОВЕЦ Роман 64,9</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 57,9</t>
   </si>
   <si>
     <t>Подборы</t>
@@ -255,19 +258,19 @@
     <t>КОВАЛЕНКО Олег 13,1</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 12,1</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 6,8</t>
+    <t>ГАБРУКОВИЧ Павел 11,8</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 6,7</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,0</t>
-  </si>
-  <si>
-    <t>ТУРОВЕЦ Роман 3,3</t>
+    <t>СИКОРСКИЙ Егор 4,1</t>
+  </si>
+  <si>
+    <t>ТУРОВЕЦ Роман 3,1</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
@@ -276,10 +279,10 @@
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,9</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 1,6</t>
+    <t>ТУРОВЕЦ Роман 3,4</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 2,0</t>
   </si>
   <si>
     <t>Блок-шоты</t>
@@ -288,10 +291,10 @@
     <t>ГАБРУКОВИЧ Павел 2,0</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 0,5</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 0,3</t>
+    <t>ЧАЙКО Евгений 0,4</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 0,4</t>
   </si>
   <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
@@ -345,106 +348,106 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>260:30</t>
-  </si>
-  <si>
-    <t>55/107</t>
-  </si>
-  <si>
-    <t>15/76</t>
-  </si>
-  <si>
-    <t>49/80</t>
-  </si>
-  <si>
-    <t>39 (29/10)</t>
-  </si>
-  <si>
-    <t>42 (16/26)</t>
-  </si>
-  <si>
-    <t>20 (1/1/0) - 15</t>
+    <t>291:21</t>
+  </si>
+  <si>
+    <t>59/115</t>
+  </si>
+  <si>
+    <t>20/87</t>
+  </si>
+  <si>
+    <t>61/94</t>
+  </si>
+  <si>
+    <t>42 (30/12)</t>
+  </si>
+  <si>
+    <t>44 (17/27)</t>
+  </si>
+  <si>
+    <t>21 (1/1/0) - 15</t>
   </si>
   <si>
     <t>#11. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>209:10</t>
-  </si>
-  <si>
-    <t>33/81</t>
+    <t>236:29</t>
+  </si>
+  <si>
+    <t>37/91</t>
   </si>
   <si>
     <t>0/2</t>
   </si>
   <si>
-    <t>19/34</t>
-  </si>
-  <si>
-    <t>92 (50/42)</t>
-  </si>
-  <si>
-    <t>7 (1/6)</t>
-  </si>
-  <si>
-    <t>17 (0/0/0) - 13</t>
+    <t>22/38</t>
+  </si>
+  <si>
+    <t>105 (58/47)</t>
+  </si>
+  <si>
+    <t>8 (1/7)</t>
+  </si>
+  <si>
+    <t>18 (0/0/0) - 15</t>
   </si>
   <si>
     <t>#77. АКСЮЧИЦ Александр</t>
   </si>
   <si>
-    <t>165:03</t>
-  </si>
-  <si>
-    <t>16/44</t>
-  </si>
-  <si>
-    <t>2/25</t>
+    <t>191:11</t>
+  </si>
+  <si>
+    <t>19/49</t>
+  </si>
+  <si>
+    <t>4/29</t>
   </si>
   <si>
     <t>4/8</t>
   </si>
   <si>
-    <t>41 (26/15)</t>
-  </si>
-  <si>
-    <t>10 (7/3)</t>
-  </si>
-  <si>
-    <t>6 (0/0/0) - 2</t>
+    <t>47 (31/16)</t>
+  </si>
+  <si>
+    <t>11 (7/4)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 4</t>
   </si>
   <si>
     <t>#10. СИКОРСКИЙ Егор</t>
   </si>
   <si>
-    <t>201:42</t>
-  </si>
-  <si>
-    <t>3/9</t>
-  </si>
-  <si>
-    <t>9/36</t>
+    <t>232:09</t>
+  </si>
+  <si>
+    <t>4/15</t>
+  </si>
+  <si>
+    <t>12/44</t>
   </si>
   <si>
     <t>1/4</t>
   </si>
   <si>
-    <t>21 (20/1)</t>
-  </si>
-  <si>
-    <t>21 (12/9)</t>
-  </si>
-  <si>
-    <t>13 (0/0/0) - 18</t>
+    <t>26 (25/1)</t>
+  </si>
+  <si>
+    <t>25 (14/11)</t>
+  </si>
+  <si>
+    <t>14 (0/0/0) - 18</t>
   </si>
   <si>
     <t>#19. ГАБРУКОВИЧ Павел</t>
   </si>
   <si>
-    <t>245:50</t>
-  </si>
-  <si>
-    <t>11/29</t>
+    <t>277:23</t>
+  </si>
+  <si>
+    <t>14/34</t>
   </si>
   <si>
     <t>1/2</t>
@@ -453,13 +456,37 @@
     <t>2/8</t>
   </si>
   <si>
-    <t>85 (52/33)</t>
+    <t>94 (59/35)</t>
   </si>
   <si>
     <t>8 (6/2)</t>
   </si>
   <si>
-    <t>13 (0/0/0) - 20</t>
+    <t>14 (0/0/0) - 22</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>133:28</t>
+  </si>
+  <si>
+    <t>8/26</t>
+  </si>
+  <si>
+    <t>4/19</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>21 (16/5)</t>
+  </si>
+  <si>
+    <t>18 (15/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
   </si>
   <si>
     <t>#21. БЕЗРУЧЕНКО Евгений</t>
@@ -486,937 +513,994 @@
     <t>5 (0/2/0) - 0</t>
   </si>
   <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>113:29</t>
-  </si>
-  <si>
-    <t>5/22</t>
-  </si>
-  <si>
-    <t>3/16</t>
-  </si>
-  <si>
-    <t>19 (14/5)</t>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>107:54</t>
+  </si>
+  <si>
+    <t>3/15</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>22 (18/4)</t>
+  </si>
+  <si>
+    <t>9 (2/7)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#21. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>60:07</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>10 (9/1)</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>1600:00</t>
+  </si>
+  <si>
+    <t>155/370</t>
+  </si>
+  <si>
+    <t>46/200</t>
+  </si>
+  <si>
+    <t>94/164</t>
+  </si>
+  <si>
+    <t>376 (252/124)</t>
+  </si>
+  <si>
+    <t>131 (63/68)</t>
+  </si>
+  <si>
+    <t>90 (1/3/0) - 88</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>36:25</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>30:34</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>27:19</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>33:10</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>35:40</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>13:29</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>28:35</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>#15. КОВАЛЕНКО Олег</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>8 (5/3)</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
   </si>
   <si>
     <t>16 (14/2)</t>
   </si>
   <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>93:44</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>20 (16/4)</t>
-  </si>
-  <si>
-    <t>8 (2/6)</t>
-  </si>
-  <si>
-    <t>6 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#21. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>40:34</t>
-  </si>
-  <si>
-    <t>5 (4/1)</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>1400:00</t>
-  </si>
-  <si>
-    <t>137/330</t>
-  </si>
-  <si>
-    <t>35/173</t>
-  </si>
-  <si>
-    <t>79/143</t>
-  </si>
-  <si>
-    <t>331 (217/114)</t>
-  </si>
-  <si>
-    <t>119 (59/60)</t>
-  </si>
-  <si>
-    <t>83 (1/3/0) - 82</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>37:13</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>30:53</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>28:31</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>34:37</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>28:22</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>35:07</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>13:23</t>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>6 (6/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>26:33</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>38:10</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>13 (8/5)</t>
+  </si>
+  <si>
+    <t>1,137</t>
+  </si>
+  <si>
+    <t>32:41</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,500</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>Игра№143, Регулярный сезон, SIRIUS - ISsoft 67:53, 28.12.2024 16:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t>40:00</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>7 (3/4)</t>
+  </si>
+  <si>
+    <t>0,533</t>
+  </si>
+  <si>
+    <t>33:49</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 6</t>
+  </si>
+  <si>
+    <t>-0,012</t>
+  </si>
+  <si>
+    <t>12 (6/6)</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,633</t>
+  </si>
+  <si>
+    <t>14 (11/3)</t>
+  </si>
+  <si>
+    <t>0,318</t>
+  </si>
+  <si>
+    <t>32:43</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>0,065</t>
+  </si>
+  <si>
+    <t>Игра№168, Регулярный сезон, VSS - SIRIUS 43:84, 19.1.2025 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>-0,191</t>
+  </si>
+  <si>
+    <t>19:59</t>
+  </si>
+  <si>
+    <t>0,408</t>
+  </si>
+  <si>
+    <t>30:51</t>
+  </si>
+  <si>
+    <t>45,5</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>3 (1/2)</t>
+  </si>
+  <si>
+    <t>30:27</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>5 (5/0)</t>
+  </si>
+  <si>
+    <t>0,231</t>
+  </si>
+  <si>
+    <t>1,103</t>
+  </si>
+  <si>
+    <t>31:33</t>
+  </si>
+  <si>
+    <t>9 (7/2)</t>
+  </si>
+  <si>
+    <t>0,638</t>
+  </si>
+  <si>
+    <t>19:33</t>
+  </si>
+  <si>
+    <t>0,429</t>
+  </si>
+  <si>
+    <t>26:08</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>0,552</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>ВАЛЕНДО Таисия</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>КВИТУН Николай</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>БАРАЙ Александр</t>
+  </si>
+  <si>
+    <t>ВЕЛИЧКО Марина</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
+  </si>
+  <si>
+    <t>КРИЦКИЙ Владимир</t>
+  </si>
+  <si>
+    <t>САНЮК Андрей</t>
+  </si>
+  <si>
+    <t>ВЕРЕМЕЕНКО Андрей</t>
+  </si>
+  <si>
+    <t>ЛЕСИЦКИЙ Артем</t>
   </si>
   <si>
     <t>1,7</t>
-  </si>
-  <si>
-    <t>28:00</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>#15. КОВАЛЕНКО Олег</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>5/19</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>6 (5/1)</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>8 (5/3)</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>-0,053</t>
-  </si>
-  <si>
-    <t>30:44</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>9 (8/1)</t>
-  </si>
-  <si>
-    <t>-0,279</t>
-  </si>
-  <si>
-    <t>33:16</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>6 (2/4)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,395</t>
-  </si>
-  <si>
-    <t>30:08</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>0,071</t>
-  </si>
-  <si>
-    <t>24:34</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,924</t>
-  </si>
-  <si>
-    <t>37:52</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>11 (10/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,496</t>
-  </si>
-  <si>
-    <t>10:29</t>
-  </si>
-  <si>
-    <t>-0,233</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:12</t>
-  </si>
-  <si>
-    <t>6 (6/0)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>0,261</t>
-  </si>
-  <si>
-    <t>26:33</t>
-  </si>
-  <si>
-    <t>0,125</t>
-  </si>
-  <si>
-    <t>38:10</t>
-  </si>
-  <si>
-    <t>10/14</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>15/20</t>
-  </si>
-  <si>
-    <t>0,853</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>29:30</t>
-  </si>
-  <si>
-    <t>10/19</t>
-  </si>
-  <si>
-    <t>4/5</t>
-  </si>
-  <si>
-    <t>13 (8/5)</t>
-  </si>
-  <si>
-    <t>1,137</t>
-  </si>
-  <si>
-    <t>32:41</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,500</t>
-  </si>
-  <si>
-    <t>23:38</t>
-  </si>
-  <si>
-    <t>40,0</t>
-  </si>
-  <si>
-    <t>0,334</t>
-  </si>
-  <si>
-    <t>Игра№143, Регулярный сезон, SIRIUS - ISsoft 67:53, 28.12.2024 16:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:28</t>
-  </si>
-  <si>
-    <t>40:00</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0/10</t>
-  </si>
-  <si>
-    <t>7 (3/4)</t>
-  </si>
-  <si>
-    <t>0,533</t>
-  </si>
-  <si>
-    <t>33:49</t>
-  </si>
-  <si>
-    <t>2/2</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 6</t>
-  </si>
-  <si>
-    <t>-0,012</t>
-  </si>
-  <si>
-    <t>12 (6/6)</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,633</t>
-  </si>
-  <si>
-    <t>14 (11/3)</t>
-  </si>
-  <si>
-    <t>0,318</t>
-  </si>
-  <si>
-    <t>32:43</t>
-  </si>
-  <si>
-    <t>4/6</t>
-  </si>
-  <si>
-    <t>0,065</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>ВАЛЕНДО Таисия</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>КВИТУН Николай</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>БАРАЙ Александр</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>ВЕЛИЧКО Марина</t>
-  </si>
-  <si>
-    <t>САНЮК Андрей</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>ВЕРЕМЕЕНКО Андрей</t>
-  </si>
-  <si>
-    <t>ЛЕСИЦКИЙ Артем</t>
   </si>
   <si>
     <t>АВЕРКИНА Мария</t>
@@ -2005,8 +2089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E686678-BD62-4BC1-9590-DAACBC7D2162}">
-  <dimension ref="A1:AT31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16889A7-10D9-4431-8F0F-3F4EFCCAEAA5}">
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -3097,7 +3181,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="K20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -3150,7 +3234,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="K21" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -3161,7 +3245,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
@@ -3172,7 +3256,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
@@ -3183,7 +3267,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22"/>
@@ -3209,7 +3293,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
@@ -3220,7 +3304,7 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -3231,7 +3315,7 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
@@ -3242,7 +3326,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
       <c r="AL22" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
@@ -3268,7 +3352,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -3279,7 +3363,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
@@ -3290,7 +3374,7 @@
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD23" s="10"/>
       <c r="AE23" s="10"/>
@@ -3301,7 +3385,7 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
       <c r="AL23" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
@@ -3325,7 +3409,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="K24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3336,7 +3420,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3347,7 +3431,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3358,7 +3442,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3382,7 +3466,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="K25" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -3393,7 +3477,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
@@ -3404,7 +3488,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD25" s="22"/>
       <c r="AE25" s="22"/>
@@ -3415,7 +3499,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
       <c r="AL25" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM25" s="22"/>
       <c r="AN25" s="22"/>
@@ -3439,7 +3523,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
@@ -3450,7 +3534,7 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -3461,7 +3545,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
@@ -3472,7 +3556,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
       <c r="AL26" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM26" s="23"/>
       <c r="AN26" s="23"/>
@@ -3496,7 +3580,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3507,7 +3591,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
@@ -3518,7 +3602,7 @@
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AE27" s="10"/>
@@ -3529,7 +3613,7 @@
       <c r="AJ27" s="10"/>
       <c r="AK27" s="10"/>
       <c r="AL27" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM27" s="10"/>
       <c r="AN27" s="10"/>
@@ -3553,7 +3637,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3564,7 +3648,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3575,7 +3659,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3586,7 +3670,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3636,8 +3720,21 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="158">
+  <mergeCells count="159">
     <mergeCell ref="AC25:AK25"/>
     <mergeCell ref="AC26:AK26"/>
     <mergeCell ref="AC27:AK27"/>
@@ -3661,6 +3758,9 @@
     <mergeCell ref="AL22:AT22"/>
     <mergeCell ref="AL23:AT23"/>
     <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K20:AT20"/>
+    <mergeCell ref="K21:S21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
     <mergeCell ref="K24:S24"/>
@@ -3686,8 +3786,6 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K20:AT20"/>
-    <mergeCell ref="K21:S21"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="T17:AD17"/>
     <mergeCell ref="AE17:AF17"/>
@@ -3802,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C22580-63B1-458B-8F92-A336EAE4D76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E99F8D6-D02C-4477-B03F-03E909FE8891}">
   <dimension ref="B2:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3826,7 +3924,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3858,49 +3956,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -3909,22 +4007,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -3936,149 +4034,149 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="28">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" s="28">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I5" s="28">
-        <v>19.7</v>
+        <v>23</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" s="28">
-        <v>61.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5" s="28">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="28">
         <v>27</v>
       </c>
       <c r="O5" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="28">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="28">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" s="28">
         <v>40.700000000000003</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6" s="28">
-        <v>55.9</v>
+        <v>57.9</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M6" s="28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" s="28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O6" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="28">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" s="28">
-        <v>36.4</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I7" s="28">
-        <v>8</v>
+        <v>13.8</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7" s="28">
         <v>50</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" s="28">
+        <v>7</v>
+      </c>
+      <c r="N7" s="28">
         <v>6</v>
-      </c>
-      <c r="N7" s="28">
-        <v>5</v>
       </c>
       <c r="O7" s="28">
         <v>1</v>
@@ -4087,227 +4185,227 @@
         <v>6</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="28">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G8" s="28">
-        <v>33.299999999999997</v>
+        <v>26.7</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I8" s="28">
-        <v>25</v>
+        <v>27.3</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K8" s="28">
         <v>25</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" s="28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N8" s="28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" s="28">
         <v>0</v>
       </c>
       <c r="P8" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G9" s="28">
-        <v>37.9</v>
+        <v>41.2</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I9" s="28">
         <v>50</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K9" s="28">
         <v>25</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M9" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="28">
+        <v>11</v>
+      </c>
+      <c r="O9" s="28">
+        <v>16</v>
+      </c>
+      <c r="P9" s="28">
         <v>10</v>
       </c>
-      <c r="O9" s="28">
-        <v>14</v>
-      </c>
-      <c r="P9" s="28">
-        <v>8</v>
-      </c>
       <c r="Q9" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="28">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28">
+        <v>28</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="28">
+        <v>30.8</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="28">
+        <v>21.1</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="28">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="28">
+        <v>8</v>
+      </c>
+      <c r="N10" s="28">
+        <v>6</v>
+      </c>
+      <c r="O10" s="28">
         <v>2</v>
       </c>
-      <c r="D10" s="28">
-        <v>20</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="28">
-        <v>47.4</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="28">
-        <v>66.7</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="28">
-        <v>1</v>
-      </c>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10" s="28">
-        <v>0</v>
-      </c>
       <c r="P10" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G11" s="28">
-        <v>22.7</v>
+        <v>47.4</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I11" s="28">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K11" s="28">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N11" s="28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
         <v>2</v>
       </c>
-      <c r="P11" s="28">
-        <v>3</v>
-      </c>
       <c r="Q11" s="29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -4316,28 +4414,28 @@
         <v>11</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G12" s="28">
         <v>33.299999999999997</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I12" s="28">
         <v>28.6</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12" s="28">
         <v>50</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M12" s="28">
         <v>3</v>
@@ -4352,45 +4450,45 @@
         <v>1</v>
       </c>
       <c r="Q12" s="29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="28">
         <v>10</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="28">
-        <v>23.1</v>
+        <v>20</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K13" s="28">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13" s="28">
         <v>7</v>
@@ -4402,54 +4500,54 @@
         <v>1</v>
       </c>
       <c r="P13" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C14" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="28">
         <v>6</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="I14" s="28">
-        <v>25</v>
+        <v>22.2</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K14" s="28">
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M14" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" s="28">
         <v>0</v>
@@ -4458,15 +4556,15 @@
         <v>1</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4475,28 +4573,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4511,46 +4609,46 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="28">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="28">
-        <v>0</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>180</v>
-      </c>
       <c r="M16" s="28">
         <v>0</v>
       </c>
@@ -4564,15 +4662,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="28">
         <v>0</v>
@@ -4581,28 +4679,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K17" s="28">
         <v>0</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="28">
         <v>0</v>
@@ -4617,71 +4715,71 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="31">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D18" s="31">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G18" s="31">
-        <v>41.5</v>
+        <v>41.9</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I18" s="31">
-        <v>20.2</v>
+        <v>23</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K18" s="31">
-        <v>55.2</v>
+        <v>57.3</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" s="31">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="N18" s="31">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O18" s="31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P18" s="31">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R18" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -4695,100 +4793,100 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="28">
-        <v>29.1</v>
+        <v>29.9</v>
       </c>
       <c r="D22" s="28">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="E22" s="28">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F22" s="28">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="G22" s="28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H22" s="28">
         <v>8.3000000000000007</v>
       </c>
       <c r="I22" s="28">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="28">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D23" s="28">
         <v>13.1</v>
       </c>
       <c r="E23" s="28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F23" s="28">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="28">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="28">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I23" s="28">
         <v>1</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C24" s="28">
         <v>11</v>
@@ -4812,15 +4910,15 @@
         <v>4</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C25" s="28">
         <v>10</v>
@@ -4844,59 +4942,59 @@
         <v>1</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" s="28">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D26" s="28">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="E26" s="28">
         <v>1</v>
       </c>
       <c r="F26" s="28">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H26" s="28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I26" s="28">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="28">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D27" s="28">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E27" s="28">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F27" s="28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G27" s="28">
         <v>0</v>
@@ -4905,56 +5003,56 @@
         <v>0.7</v>
       </c>
       <c r="I27" s="28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C28" s="28">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="D28" s="28">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="E28" s="28">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="F28" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="H28" s="28">
         <v>1</v>
       </c>
-      <c r="G28" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="28">
-        <v>0.8</v>
-      </c>
       <c r="I28" s="28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="28">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D29" s="28">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E29" s="28">
         <v>1</v>
@@ -4966,33 +5064,33 @@
         <v>2</v>
       </c>
       <c r="H29" s="28">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="I29" s="28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C30" s="28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D30" s="28">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="E30" s="28">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F30" s="28">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G30" s="28">
         <v>0</v>
@@ -5001,50 +5099,50 @@
         <v>0.3</v>
       </c>
       <c r="I30" s="28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C31" s="28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D31" s="28">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E31" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="28">
         <v>1</v>
-      </c>
-      <c r="F31" s="28">
-        <v>1.1000000000000001</v>
       </c>
       <c r="G31" s="28">
         <v>0.1</v>
       </c>
       <c r="H31" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="28">
         <v>0</v>
@@ -5068,15 +5166,15 @@
         <v>0</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -5100,15 +5198,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -5132,21 +5230,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="31">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D35" s="31">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E35" s="31">
         <v>1.7</v>
@@ -5158,16 +5256,16 @@
         <v>0.4</v>
       </c>
       <c r="H35" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I35" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I35" s="31">
-        <v>2.4</v>
-      </c>
       <c r="J35" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5195,8 +5293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7478C13-7404-4CC7-83EC-01CC40610B1A}">
-  <dimension ref="B1:T60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5759852-3613-44B7-B288-DD5FF7B93FBB}">
+  <dimension ref="B1:T69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5222,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5245,55 +5343,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -5302,22 +5400,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -5331,7 +5429,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5354,29 +5452,29 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -5397,13 +5495,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5411,31 +5509,31 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -5456,13 +5554,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5470,37 +5568,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5515,13 +5613,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5529,35 +5627,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5572,13 +5670,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5586,37 +5684,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5631,13 +5729,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -5645,37 +5743,37 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -5690,13 +5788,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -5704,37 +5802,37 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -5749,13 +5847,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="T11" s="6">
         <v>17</v>
@@ -5763,7 +5861,7 @@
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -5786,35 +5884,35 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -5829,13 +5927,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="T13" s="6">
         <v>-4</v>
@@ -5843,37 +5941,37 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G14" s="6">
         <v>47.1</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" s="6">
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -5888,13 +5986,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -5902,37 +6000,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -5947,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -5961,37 +6059,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -6006,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -6020,37 +6118,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -6065,13 +6163,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -6079,35 +6177,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -6122,13 +6220,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -6136,37 +6234,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -6181,13 +6279,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6195,7 +6293,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6218,35 +6316,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6261,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -6275,37 +6373,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -6320,13 +6418,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6334,37 +6432,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6379,13 +6477,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6393,37 +6491,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6438,13 +6536,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6452,37 +6550,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6497,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6511,35 +6609,35 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6554,13 +6652,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6568,35 +6666,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6611,13 +6709,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6625,37 +6723,37 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>327</v>
+        <v>214</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -6670,13 +6768,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -6684,7 +6782,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -6707,35 +6805,35 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -6750,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -6764,37 +6862,37 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -6809,13 +6907,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -6823,37 +6921,37 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K32" s="6">
         <v>100</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M32" s="6">
         <v>2</v>
@@ -6868,13 +6966,13 @@
         <v>2</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T32" s="6">
         <v>6</v>
@@ -6882,37 +6980,37 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -6927,13 +7025,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -6941,35 +7039,35 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M34" s="6">
         <v>1</v>
@@ -6984,13 +7082,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -6998,37 +7096,37 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -7043,13 +7141,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -7057,37 +7155,37 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -7102,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
@@ -7116,7 +7214,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -7139,35 +7237,35 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G38" s="6">
         <v>25</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -7182,13 +7280,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="T38" s="6">
         <v>-4</v>
@@ -7196,37 +7294,37 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G39" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M39" s="6">
         <v>3</v>
@@ -7241,13 +7339,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T39" s="6">
         <v>-1</v>
@@ -7255,37 +7353,37 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G40" s="6">
         <v>45.5</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K40" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="M40" s="6">
         <v>4</v>
@@ -7300,13 +7398,13 @@
         <v>9</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="T40" s="6">
         <v>-10</v>
@@ -7314,37 +7412,37 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D41" s="6">
         <v>9</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M41" s="6">
         <v>3</v>
@@ -7359,13 +7457,13 @@
         <v>1</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="T41" s="6">
         <v>-8</v>
@@ -7373,37 +7471,37 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G42" s="6">
         <v>25</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K42" s="6">
         <v>75</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -7418,13 +7516,13 @@
         <v>3</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -7432,37 +7530,37 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G43" s="6">
         <v>60</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -7477,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="T43" s="6">
         <v>-16</v>
@@ -7491,35 +7589,35 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K44" s="6">
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -7534,13 +7632,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="T44" s="6">
         <v>-5</v>
@@ -7548,29 +7646,29 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
         <v>4</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G45" s="6">
         <v>28.6</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
@@ -7591,13 +7689,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="T45" s="6">
         <v>-11</v>
@@ -7605,7 +7703,7 @@
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7628,35 +7726,35 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M47" s="6">
         <v>1</v>
@@ -7671,13 +7769,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="T47" s="6">
         <v>18</v>
@@ -7685,37 +7783,37 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K48" s="6">
         <v>0</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M48" s="6">
         <v>1</v>
@@ -7730,13 +7828,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="T48" s="6">
         <v>18</v>
@@ -7744,31 +7842,31 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D49" s="6">
         <v>38</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G49" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K49" s="6">
         <v>75</v>
@@ -7789,13 +7887,13 @@
         <v>11</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="T49" s="6">
         <v>43</v>
@@ -7803,37 +7901,37 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" s="6">
         <v>8</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G50" s="6">
         <v>100</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K50" s="6">
         <v>0</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M50" s="6">
         <v>6</v>
@@ -7848,13 +7946,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="T50" s="6">
         <v>36</v>
@@ -7862,37 +7960,37 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D51" s="6">
         <v>24</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G51" s="6">
         <v>52.6</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K51" s="6">
         <v>80</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
@@ -7907,13 +8005,13 @@
         <v>3</v>
       </c>
       <c r="Q51" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S51" s="36" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="T51" s="6">
         <v>30</v>
@@ -7921,37 +8019,37 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D52" s="6">
         <v>6</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G52" s="6">
         <v>50</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
       </c>
       <c r="L52" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M52" s="6">
         <v>1</v>
@@ -7966,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="S52" s="36" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="T52" s="6">
         <v>32</v>
@@ -7980,35 +8078,35 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="33" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
         <v>6</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M53" s="6">
         <v>1</v>
@@ -8023,13 +8121,13 @@
         <v>1</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S53" s="36" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="T53" s="6">
         <v>28</v>
@@ -8037,7 +8135,7 @@
     </row>
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
@@ -8060,35 +8158,35 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G55" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K55" s="6">
         <v>50</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M55" s="6">
         <v>1</v>
@@ -8103,13 +8201,13 @@
         <v>3</v>
       </c>
       <c r="Q55" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S55" s="36" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T55" s="6">
         <v>1</v>
@@ -8117,37 +8215,37 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G56" s="6">
         <v>66.7</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K56" s="6">
         <v>50</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M56" s="6">
         <v>7</v>
@@ -8162,13 +8260,13 @@
         <v>9</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S56" s="36" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="T56" s="6">
         <v>14</v>
@@ -8176,37 +8274,37 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D57" s="6">
         <v>10</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G57" s="6">
         <v>100</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K57" s="6">
         <v>0</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M57" s="6">
         <v>1</v>
@@ -8221,13 +8319,13 @@
         <v>1</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="S57" s="36" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="T57" s="6">
         <v>12</v>
@@ -8235,37 +8333,37 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" s="6">
         <v>15</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G58" s="6">
         <v>66.7</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K58" s="6">
         <v>60</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M58" s="6">
         <v>0</v>
@@ -8280,13 +8378,13 @@
         <v>4</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="S58" s="36" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="T58" s="6">
         <v>14</v>
@@ -8294,37 +8392,37 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K59" s="6">
         <v>16.7</v>
       </c>
       <c r="L59" s="36" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M59" s="6">
         <v>2</v>
@@ -8339,13 +8437,13 @@
         <v>4</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S59" s="36" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="T59" s="6">
         <v>14</v>
@@ -8353,37 +8451,37 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D60" s="6">
         <v>12</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G60" s="6">
         <v>40</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K60" s="6">
         <v>66.7</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
       <c r="M60" s="6">
         <v>0</v>
@@ -8398,22 +8496,512 @@
         <v>3</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S60" s="36" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="T60" s="6">
         <v>15</v>
       </c>
     </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B62" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S62" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="T62" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B63" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6">
+        <v>9</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="G63" s="6">
+        <v>75</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6">
+        <v>2</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S63" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="T63" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B64" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="6">
+        <v>35</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="6">
+        <v>50</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="K64" s="6">
+        <v>85.7</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="M64" s="6">
+        <v>2</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <v>1</v>
+      </c>
+      <c r="P64" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S64" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="T64" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B65" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="6">
+        <v>11</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="M65" s="6">
+        <v>5</v>
+      </c>
+      <c r="N65" s="6">
+        <v>2</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="S65" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="T65" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B66" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="6">
+        <v>11</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G66" s="6">
+        <v>40</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="K66" s="6">
+        <v>75</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="M66" s="6">
+        <v>2</v>
+      </c>
+      <c r="N66" s="6">
+        <v>5</v>
+      </c>
+      <c r="O66" s="6">
+        <v>1</v>
+      </c>
+      <c r="P66" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S66" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="T66" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B67" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="6">
+        <v>6</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G67" s="6">
+        <v>60</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J67" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="6">
+        <v>2</v>
+      </c>
+      <c r="P67" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S67" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="T67" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B68" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" s="6">
+        <v>2</v>
+      </c>
+      <c r="N68" s="6">
+        <v>2</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="S68" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="T68" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B69" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="6">
+        <v>12</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="F69" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G69" s="6">
+        <v>60</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="M69" s="6">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S69" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="T69" s="6">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="B46:T46"/>
     <mergeCell ref="B54:T54"/>
+    <mergeCell ref="B61:T61"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
@@ -8442,8 +9030,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960FC938-2428-4492-9C0E-CEA2CA1E58E7}">
-  <dimension ref="B1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCB2E9-57E5-4E3E-A255-4378781E4DE4}">
+  <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8456,7 +9044,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -8467,30 +9055,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -8499,21 +9087,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -8522,21 +9110,21 @@
         <v>15</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -8545,21 +9133,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -8568,21 +9156,21 @@
         <v>7</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -8591,44 +9179,44 @@
         <v>5</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -8637,21 +9225,21 @@
         <v>8</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -8660,21 +9248,21 @@
         <v>3</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -8683,21 +9271,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -8706,21 +9294,21 @@
         <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>460</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -8729,62 +9317,85 @@
         <v>2</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>460</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
-        <v>4</v>
-      </c>
       <c r="E14" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>460</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>464</v>
+      <c r="E17" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF7956F-5B62-4ED6-8004-C85F67637EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{632DFA63-8FE6-44D7-9641-8729CB5CF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{094D544D-1454-4BB0-8D63-4DA4DF9DA34F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{583D0FB8-4143-4B91-863F-282EEFFD2B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="552">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -162,19 +162,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>5 / 4</t>
+    <t>5 / 5</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>621 / 529</t>
+    <t>677 / 588</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>69,0 / 58,8</t>
+    <t>67,7 / 58,8</t>
   </si>
   <si>
     <t>Игры</t>
@@ -207,16 +207,19 @@
     <t>SIRIUS - Грушвиль 79:95</t>
   </si>
   <si>
+    <t>БГУФК - SIRIUS 59:56</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 29,8</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 12,2</t>
+    <t>ТУРОВЕЦ Роман 28,8</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 12,4</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
@@ -225,13 +228,13 @@
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 49,6</t>
+    <t>ТУРОВЕЦ Роман 48,0</t>
   </si>
   <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 41,6</t>
+    <t>КОВАЛЕНКО Олег 43,4</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -243,7 +246,7 @@
     <t>ГАБРУКОВИЧ Павел 50,0</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 33,3</t>
+    <t>ЧАЙКО Евгений 34,9</t>
   </si>
   <si>
     <t>% штр.</t>
@@ -255,28 +258,28 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 62,4</t>
+    <t>ТУРОВЕЦ Роман 62,2</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 14,0</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 11,0</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 6,9</t>
+    <t>КОВАЛЕНКО Олег 13,8</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 11,5</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 6,6</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,1</t>
-  </si>
-  <si>
-    <t>ТУРОВЕЦ Роман 3,3</t>
+    <t>СИКОРСКИЙ Егор 4,0</t>
+  </si>
+  <si>
+    <t>ТУРОВЕЦ Роман 3,2</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
@@ -285,24 +288,24 @@
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,2</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 2,0</t>
+    <t>ТУРОВЕЦ Роман 3,0</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 1,9</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 2,0</t>
+    <t>ГАБРУКОВИЧ Павел 1,9</t>
+  </si>
+  <si>
+    <t>ЧАЙКО Евгений 0,4</t>
   </si>
   <si>
     <t>КОВАЛЕНКО Олег 0,4</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 0,3</t>
-  </si>
-  <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
   </si>
   <si>
@@ -354,34 +357,34 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>328:24</t>
-  </si>
-  <si>
-    <t>67/135</t>
-  </si>
-  <si>
-    <t>22/92</t>
-  </si>
-  <si>
-    <t>68/109</t>
-  </si>
-  <si>
-    <t>51 (36/15)</t>
-  </si>
-  <si>
-    <t>53 (18/35)</t>
-  </si>
-  <si>
-    <t>26 (1/2/0) - 20</t>
+    <t>365:30</t>
+  </si>
+  <si>
+    <t>72/150</t>
+  </si>
+  <si>
+    <t>25/109</t>
+  </si>
+  <si>
+    <t>69/111</t>
+  </si>
+  <si>
+    <t>58 (43/15)</t>
+  </si>
+  <si>
+    <t>57 (19/38)</t>
+  </si>
+  <si>
+    <t>28 (1/2/0) - 20</t>
   </si>
   <si>
     <t>#15. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>273:22</t>
-  </si>
-  <si>
-    <t>42/101</t>
+    <t>300:43</t>
+  </si>
+  <si>
+    <t>49/113</t>
   </si>
   <si>
     <t>0/2</t>
@@ -390,897 +393,900 @@
     <t>26/42</t>
   </si>
   <si>
-    <t>126 (71/55)</t>
-  </si>
-  <si>
-    <t>10 (2/8)</t>
+    <t>138 (75/63)</t>
+  </si>
+  <si>
+    <t>11 (3/8)</t>
   </si>
   <si>
     <t>19 (0/0/0) - 16</t>
   </si>
   <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>198:40</t>
+  </si>
+  <si>
+    <t>10/33</t>
+  </si>
+  <si>
+    <t>15/43</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>27 (21/6)</t>
+  </si>
+  <si>
+    <t>32 (26/6)</t>
+  </si>
+  <si>
+    <t>6 (0/0/0) - 8</t>
+  </si>
+  <si>
     <t>#77. АКСЮЧИЦ Александр</t>
   </si>
   <si>
-    <t>219:12</t>
-  </si>
-  <si>
-    <t>21/57</t>
-  </si>
-  <si>
-    <t>4/31</t>
+    <t>238:20</t>
+  </si>
+  <si>
+    <t>21/63</t>
+  </si>
+  <si>
+    <t>4/33</t>
   </si>
   <si>
     <t>4/8</t>
   </si>
   <si>
-    <t>55 (37/18)</t>
+    <t>59 (38/21)</t>
+  </si>
+  <si>
+    <t>15 (10/5)</t>
+  </si>
+  <si>
+    <t>13 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>263:27</t>
+  </si>
+  <si>
+    <t>5/16</t>
+  </si>
+  <si>
+    <t>12/47</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>28 (26/2)</t>
+  </si>
+  <si>
+    <t>26 (15/11)</t>
+  </si>
+  <si>
+    <t>16 (0/0/0) - 20</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>351:37</t>
+  </si>
+  <si>
+    <t>14/44</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>115 (73/42)</t>
+  </si>
+  <si>
+    <t>10 (8/2)</t>
+  </si>
+  <si>
+    <t>19 (0/0/0) - 31</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>80:43</t>
+  </si>
+  <si>
+    <t>4/13</t>
+  </si>
+  <si>
+    <t>12 (11/1)</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>121:35</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>23 (18/5)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#23. ЛИЦКЕВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 1</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>2000:00</t>
+  </si>
+  <si>
+    <t>186/462</t>
+  </si>
+  <si>
+    <t>64/257</t>
+  </si>
+  <si>
+    <t>113/194</t>
+  </si>
+  <si>
+    <t>469 (311/158)</t>
+  </si>
+  <si>
+    <t>170 (85/85)</t>
+  </si>
+  <si>
+    <t>117 (1/4/0) - 120</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>37:33</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>30:04</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>28:23</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>26:29</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>33:56</t>
+  </si>
+  <si>
+    <t>35:10</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>28:47</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
+  </si>
+  <si>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>8 (5/3)</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>16 (14/2)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>6 (6/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>26:33</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>38:10</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>4/5</t>
   </si>
   <si>
     <t>13 (8/5)</t>
   </si>
   <si>
-    <t>11 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>171:37</t>
-  </si>
-  <si>
-    <t>9/30</t>
-  </si>
-  <si>
-    <t>11/33</t>
-  </si>
-  <si>
-    <t>6/8</t>
-  </si>
-  <si>
-    <t>25 (19/6)</t>
-  </si>
-  <si>
-    <t>30 (24/6)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>232:09</t>
-  </si>
-  <si>
-    <t>4/15</t>
-  </si>
-  <si>
-    <t>12/44</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>26 (25/1)</t>
-  </si>
-  <si>
-    <t>25 (14/11)</t>
-  </si>
-  <si>
-    <t>14 (0/0/0) - 18</t>
-  </si>
-  <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>314:09</t>
-  </si>
-  <si>
-    <t>14/37</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>3/10</t>
-  </si>
-  <si>
-    <t>99 (63/36)</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>17 (0/0/0) - 27</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
-  </si>
-  <si>
-    <t>46:43</t>
-  </si>
-  <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>7 (4/3)</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>121:35</t>
-  </si>
-  <si>
-    <t>4/18</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>23 (18/5)</t>
-  </si>
-  <si>
-    <t>11 (3/8)</t>
-  </si>
-  <si>
-    <t>7 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>60:07</t>
-  </si>
-  <si>
-    <t>2/9</t>
-  </si>
-  <si>
-    <t>10 (9/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#23. ЛИЦКЕВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 1</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>1800:00</t>
-  </si>
-  <si>
-    <t>172/418</t>
-  </si>
-  <si>
-    <t>55/221</t>
-  </si>
-  <si>
-    <t>112/192</t>
-  </si>
-  <si>
-    <t>424 (284/140)</t>
-  </si>
-  <si>
-    <t>158 (76/82)</t>
-  </si>
-  <si>
-    <t>106 (1/4/0) - 108</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>36:29</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>30:22</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>0,7</t>
-  </si>
-  <si>
-    <t>29:36</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>27:24</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>33:10</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>35:54</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>15:02</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>28:42</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>5/19</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>6 (5/1)</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>8 (5/3)</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>-0,053</t>
-  </si>
-  <si>
-    <t>30:44</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>9 (8/1)</t>
-  </si>
-  <si>
-    <t>-0,279</t>
-  </si>
-  <si>
-    <t>33:16</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>5 (4/1)</t>
-  </si>
-  <si>
-    <t>6 (2/4)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,395</t>
-  </si>
-  <si>
-    <t>30:08</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>0,071</t>
-  </si>
-  <si>
-    <t>24:34</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>16 (14/2)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,924</t>
-  </si>
-  <si>
-    <t>37:52</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>11 (10/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,496</t>
-  </si>
-  <si>
-    <t>10:29</t>
-  </si>
-  <si>
-    <t>-0,233</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:12</t>
-  </si>
-  <si>
-    <t>6 (6/0)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>0,261</t>
-  </si>
-  <si>
-    <t>26:33</t>
-  </si>
-  <si>
-    <t>0,125</t>
-  </si>
-  <si>
-    <t>38:10</t>
-  </si>
-  <si>
-    <t>10/14</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>15/20</t>
-  </si>
-  <si>
-    <t>0,853</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>29:30</t>
-  </si>
-  <si>
-    <t>10/19</t>
-  </si>
-  <si>
-    <t>4/5</t>
-  </si>
-  <si>
     <t>1,137</t>
   </si>
   <si>
@@ -1338,9 +1344,6 @@
     <t>12 (6/6)</t>
   </si>
   <si>
-    <t>3 (0/0/0) - 4</t>
-  </si>
-  <si>
     <t>0,633</t>
   </si>
   <si>
@@ -1509,6 +1512,69 @@
     <t>0,171</t>
   </si>
   <si>
+    <t>Игра№201, Регулярный сезон, БГУФК - SIRIUS 59:56, 16.2.2025 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>27:03</t>
+  </si>
+  <si>
+    <t>5/15</t>
+  </si>
+  <si>
+    <t>3/17</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>7 (7/0)</t>
+  </si>
+  <si>
+    <t>-0,077</t>
+  </si>
+  <si>
+    <t>31:18</t>
+  </si>
+  <si>
+    <t>0,096</t>
+  </si>
+  <si>
+    <t>27:21</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>12 (4/8)</t>
+  </si>
+  <si>
+    <t>0,919</t>
+  </si>
+  <si>
+    <t>37:28</t>
+  </si>
+  <si>
+    <t>0/7</t>
+  </si>
+  <si>
+    <t>16 (10/6)</t>
+  </si>
+  <si>
+    <t>0,357</t>
+  </si>
+  <si>
+    <t>20:36</t>
+  </si>
+  <si>
+    <t>0,363</t>
+  </si>
+  <si>
+    <t>19:08</t>
+  </si>
+  <si>
+    <t>-0,303</t>
+  </si>
+  <si>
     <t>Статистика судей</t>
   </si>
   <si>
@@ -1551,12 +1617,15 @@
     <t>7,5</t>
   </si>
   <si>
+    <t>ЕРЕМА Александр</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
     <t>ВАЛЕНДО Таисия</t>
   </si>
   <si>
-    <t>7,0</t>
-  </si>
-  <si>
     <t>МАЛАШЕВИЧ Андрей</t>
   </si>
   <si>
@@ -1575,16 +1644,16 @@
     <t>5,7</t>
   </si>
   <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
     <t>КВИТУН Николай</t>
   </si>
   <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>4,0</t>
+    <t>3,5</t>
   </si>
   <si>
     <t>НИКОЛАЙЧИК Максим</t>
@@ -2197,8 +2266,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8D13D4-24AD-47E1-8223-C138A44CC43B}">
-  <dimension ref="A1:AT34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E3773-ADE9-4198-B04C-3E3ECE61414D}">
+  <dimension ref="A1:AT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -2635,7 +2704,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3195,7 +3264,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF18" s="11"/>
       <c r="AG18" s="11">
@@ -3334,7 +3403,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="K21" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -3387,7 +3456,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -3398,7 +3467,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -3409,7 +3478,7 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD22" s="22"/>
       <c r="AE22" s="22"/>
@@ -3420,7 +3489,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
       <c r="AL22" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM22" s="22"/>
       <c r="AN22" s="22"/>
@@ -3446,7 +3515,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -3457,7 +3526,7 @@
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
@@ -3468,7 +3537,7 @@
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
@@ -3479,7 +3548,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
       <c r="AL23" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" s="23"/>
       <c r="AN23" s="23"/>
@@ -3505,7 +3574,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="K24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3516,7 +3585,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3527,7 +3596,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3538,7 +3607,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3562,7 +3631,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="K25" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -3573,7 +3642,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3584,7 +3653,7 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
@@ -3595,7 +3664,7 @@
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
@@ -3619,7 +3688,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
@@ -3630,7 +3699,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
@@ -3641,7 +3710,7 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD26" s="22"/>
       <c r="AE26" s="22"/>
@@ -3652,7 +3721,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
       <c r="AL26" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM26" s="22"/>
       <c r="AN26" s="22"/>
@@ -3676,7 +3745,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -3687,7 +3756,7 @@
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
@@ -3698,7 +3767,7 @@
       <c r="AA27" s="23"/>
       <c r="AB27" s="23"/>
       <c r="AC27" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD27" s="23"/>
       <c r="AE27" s="23"/>
@@ -3709,7 +3778,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
       <c r="AL27" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM27" s="23"/>
       <c r="AN27" s="23"/>
@@ -3733,7 +3802,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3744,7 +3813,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3755,7 +3824,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3766,7 +3835,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3790,7 +3859,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="K29" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -3801,7 +3870,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3812,7 +3881,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
@@ -3823,7 +3892,7 @@
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
       <c r="AL29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM29" s="10"/>
       <c r="AN29" s="10"/>
@@ -3899,35 +3968,49 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AL28:AT28"/>
+  <mergeCells count="167">
     <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="K26:S26"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K28:S28"/>
     <mergeCell ref="K29:S29"/>
     <mergeCell ref="T26:AB26"/>
     <mergeCell ref="T27:AB27"/>
     <mergeCell ref="T28:AB28"/>
     <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="T24:AB24"/>
     <mergeCell ref="T25:AB25"/>
     <mergeCell ref="AC22:AK22"/>
     <mergeCell ref="AC23:AK23"/>
     <mergeCell ref="AC24:AK24"/>
     <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="AL24:AT24"/>
-    <mergeCell ref="AL25:AT25"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I35"/>
     <mergeCell ref="K21:AT21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
@@ -3935,7 +4018,6 @@
     <mergeCell ref="K25:S25"/>
     <mergeCell ref="T22:AB22"/>
     <mergeCell ref="T23:AB23"/>
-    <mergeCell ref="T24:AB24"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
@@ -3954,6 +4036,7 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:I22"/>
+    <mergeCell ref="AL22:AT22"/>
     <mergeCell ref="T18:AD18"/>
     <mergeCell ref="AE18:AF18"/>
     <mergeCell ref="AG18:AH18"/>
@@ -4073,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B05C085-53D5-4AD0-B318-6D8E4C49CBAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAD6705-CBF1-466A-A2DA-DA73B20946DB}">
   <dimension ref="B2:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4097,7 +4180,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -4129,49 +4212,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -4180,22 +4263,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -4207,96 +4290,96 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="28">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="28">
-        <v>49.6</v>
+        <v>48</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" s="28">
-        <v>23.9</v>
+        <v>22.9</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K5" s="28">
-        <v>62.4</v>
+        <v>62.2</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M5" s="28">
+        <v>32</v>
+      </c>
+      <c r="N5" s="28">
         <v>30</v>
-      </c>
-      <c r="N5" s="28">
-        <v>29</v>
       </c>
       <c r="O5" s="28">
         <v>1</v>
       </c>
       <c r="P5" s="28">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="28">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G6" s="28">
-        <v>41.6</v>
+        <v>43.4</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6" s="28">
         <v>61.9</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M6" s="28">
         <v>8</v>
       </c>
       <c r="N6" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" s="28">
         <v>4</v>
@@ -4305,227 +4388,227 @@
         <v>30</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="28">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G7" s="28">
-        <v>36.799999999999997</v>
+        <v>30.3</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="28">
-        <v>12.9</v>
+        <v>34.9</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K7" s="28">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M7" s="28">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N7" s="28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R7" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" s="28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G8" s="28">
-        <v>30</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" s="28">
-        <v>33.299999999999997</v>
+        <v>12.1</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M8" s="28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N8" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="28">
-        <v>26.7</v>
+        <v>31.3</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I9" s="28">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="28">
         <v>25</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" s="28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N9" s="28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" s="28">
         <v>0</v>
       </c>
       <c r="P9" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="28">
         <v>34</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G10" s="28">
-        <v>37.799999999999997</v>
+        <v>31.8</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I10" s="28">
         <v>50</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10" s="28">
         <v>30</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M10" s="28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N10" s="28">
         <v>12</v>
       </c>
       <c r="O10" s="28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P10" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" s="28">
         <v>2</v>
@@ -4534,28 +4617,28 @@
         <v>20</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="28">
         <v>47.4</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I11" s="28">
         <v>0</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K11" s="28">
         <v>66.7</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M11" s="28">
         <v>1</v>
@@ -4570,157 +4653,157 @@
         <v>2</v>
       </c>
       <c r="Q11" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="28">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" s="28">
         <v>12</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G12" s="28">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>166</v>
       </c>
       <c r="I12" s="28">
-        <v>100</v>
+        <v>30.8</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="K12" s="28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>167</v>
       </c>
       <c r="M12" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12" s="28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O12" s="28">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28">
         <v>1</v>
       </c>
-      <c r="P12" s="28">
-        <v>6</v>
-      </c>
       <c r="Q12" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="R12" s="28" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="28">
+        <v>9</v>
+      </c>
+      <c r="D13" s="28">
+        <v>12</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="28">
+      <c r="F13" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="28">
+        <v>22.2</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="28">
+        <v>100</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="28">
+        <v>25</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="28">
+        <v>7</v>
+      </c>
+      <c r="N13" s="28">
+        <v>8</v>
+      </c>
+      <c r="O13" s="28">
         <v>1</v>
       </c>
-      <c r="D13" s="28">
-        <v>11</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="28">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="28">
-        <v>28.6</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" s="28">
-        <v>50</v>
-      </c>
-      <c r="L13" s="29" t="s">
+      <c r="P13" s="28">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="M13" s="28">
-        <v>3</v>
-      </c>
-      <c r="N13" s="28">
-        <v>3</v>
-      </c>
-      <c r="O13" s="28">
-        <v>0</v>
-      </c>
-      <c r="P13" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="R13" s="28" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>11</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="28">
-        <v>4</v>
-      </c>
-      <c r="D14" s="28">
-        <v>6</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="G14" s="28">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="28">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="I14" s="28">
+        <v>28.6</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="28">
+        <v>50</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="I14" s="28">
-        <v>22.2</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="28">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
       </c>
       <c r="N14" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" s="28">
         <v>0</v>
@@ -4729,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="R14" s="28" t="s">
         <v>181</v>
@@ -4749,19 +4832,19 @@
         <v>183</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I15" s="28">
         <v>0</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K15" s="28">
         <v>0</v>
@@ -4785,7 +4868,7 @@
         <v>184</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4802,19 +4885,19 @@
         <v>183</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I16" s="28">
         <v>0</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K16" s="28">
         <v>0</v>
@@ -4838,7 +4921,7 @@
         <v>184</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4855,19 +4938,19 @@
         <v>183</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I17" s="28">
         <v>0</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K17" s="28">
         <v>0</v>
@@ -4891,7 +4974,7 @@
         <v>184</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4908,19 +4991,19 @@
         <v>188</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I18" s="28">
         <v>0</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K18" s="28">
         <v>0</v>
@@ -4952,10 +5035,10 @@
         <v>190</v>
       </c>
       <c r="C19" s="31">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D19" s="31">
-        <v>621</v>
+        <v>677</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>191</v>
@@ -4964,7 +5047,7 @@
         <v>192</v>
       </c>
       <c r="G19" s="31">
-        <v>41.1</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>193</v>
@@ -4976,22 +5059,22 @@
         <v>194</v>
       </c>
       <c r="K19" s="31">
-        <v>58.3</v>
+        <v>58.2</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>195</v>
       </c>
       <c r="M19" s="31">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="N19" s="31">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O19" s="31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P19" s="31">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="32" t="s">
         <v>196</v>
@@ -5002,7 +5085,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>198</v>
@@ -5048,28 +5131,28 @@
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="28">
-        <v>29.8</v>
+        <v>28.8</v>
       </c>
       <c r="D23" s="28">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="E23" s="28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F23" s="28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="28">
         <v>0.1</v>
       </c>
       <c r="H23" s="28">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="I23" s="28">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>208</v>
@@ -5080,25 +5163,25 @@
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="28">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D24" s="28">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E24" s="28">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F24" s="28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G24" s="28">
         <v>0.4</v>
       </c>
       <c r="H24" s="28">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I24" s="28">
         <v>1.1000000000000001</v>
@@ -5112,7 +5195,7 @@
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C25" s="28">
         <v>11</v>
@@ -5139,33 +5222,33 @@
         <v>212</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C26" s="28">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D26" s="28">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E26" s="28">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="28">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="28">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="28">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I26" s="28">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>213</v>
@@ -5176,28 +5259,28 @@
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C27" s="28">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D27" s="28">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="28">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="28">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28">
         <v>1</v>
       </c>
-      <c r="G27" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="H27" s="28">
-        <v>1.7</v>
-      </c>
       <c r="I27" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>215</v>
@@ -5208,13 +5291,13 @@
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C28" s="28">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="D28" s="28">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E28" s="28">
         <v>1</v>
@@ -5226,10 +5309,10 @@
         <v>0.1</v>
       </c>
       <c r="H28" s="28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I28" s="28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J28" s="29" t="s">
         <v>217</v>
@@ -5240,16 +5323,16 @@
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" s="28">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="D29" s="28">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="E29" s="28">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F29" s="28">
         <v>1.6</v>
@@ -5258,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="28">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J29" s="29" t="s">
         <v>219</v>
@@ -5272,71 +5355,71 @@
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="28">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D30" s="28">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="E30" s="28">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F30" s="28">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G30" s="28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H30" s="28">
         <v>1.2</v>
       </c>
       <c r="I30" s="28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J30" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C31" s="28">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D31" s="28">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="E31" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="28">
         <v>0.8</v>
       </c>
-      <c r="F31" s="28">
-        <v>1</v>
-      </c>
       <c r="G31" s="28">
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J31" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C32" s="28">
         <v>1.3</v>
@@ -5360,10 +5443,10 @@
         <v>1.2</v>
       </c>
       <c r="J32" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5488,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K36" s="29" t="s">
         <v>188</v>
@@ -5499,7 +5582,7 @@
         <v>190</v>
       </c>
       <c r="C37" s="31">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="D37" s="31">
         <v>6.5</v>
@@ -5514,16 +5597,16 @@
         <v>0.4</v>
       </c>
       <c r="H37" s="31">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I37" s="31">
         <v>2.4</v>
       </c>
       <c r="J37" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="K37" s="32" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5551,8 +5634,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E025EC6-C51E-4971-9EBF-4AB2469A5A43}">
-  <dimension ref="B1:T77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0FE68-9934-453B-89AC-273EF089E8C8}">
+  <dimension ref="B1:T85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5578,7 +5661,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5601,55 +5684,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S2" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -5658,22 +5741,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>98</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -5687,7 +5770,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5710,35 +5793,35 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>236</v>
-      </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -5753,13 +5836,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5" s="36" t="s">
         <v>238</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>239</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5767,37 +5850,37 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -5812,13 +5895,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" s="36" t="s">
         <v>244</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>245</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5826,37 +5909,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>249</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>250</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5871,13 +5954,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="36" t="s">
         <v>253</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>254</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5885,35 +5968,35 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -5928,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -5942,37 +6025,37 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>257</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>258</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -5987,10 +6070,10 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="S9" s="36" t="s">
         <v>261</v>
@@ -6001,10 +6084,10 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
@@ -6013,19 +6096,19 @@
         <v>262</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>263</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
@@ -6049,7 +6132,7 @@
         <v>184</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S10" s="36" t="s">
         <v>265</v>
@@ -6060,10 +6143,10 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -6084,7 +6167,7 @@
         <v>212</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
@@ -6142,7 +6225,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
@@ -6152,19 +6235,19 @@
         <v>273</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>263</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
@@ -6185,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S13" s="36" t="s">
         <v>274</v>
@@ -6199,10 +6282,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
@@ -6229,7 +6312,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="M14" s="6">
         <v>3</v>
@@ -6244,13 +6327,13 @@
         <v>8</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T14" s="6">
         <v>-3</v>
@@ -6258,37 +6341,37 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -6303,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T15" s="6">
         <v>4</v>
@@ -6317,37 +6400,37 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G16" s="6">
         <v>38.5</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -6365,10 +6448,10 @@
         <v>184</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -6376,37 +6459,37 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -6421,13 +6504,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -6435,35 +6518,35 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -6481,10 +6564,10 @@
         <v>184</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -6492,37 +6575,37 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -6540,10 +6623,10 @@
         <v>184</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6551,7 +6634,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6574,35 +6657,35 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6620,10 +6703,10 @@
         <v>184</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -6631,37 +6714,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -6676,13 +6759,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6690,37 +6773,37 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K23" s="6">
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6735,13 +6818,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6749,37 +6832,37 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I24" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K24" s="6">
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6794,13 +6877,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6808,37 +6891,37 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I25" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6853,13 +6936,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6867,29 +6950,29 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
@@ -6916,7 +6999,7 @@
         <v>270</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -6924,35 +7007,35 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K27" s="6">
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -6967,13 +7050,13 @@
         <v>2</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -6981,19 +7064,19 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
@@ -7002,16 +7085,16 @@
         <v>267</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -7026,13 +7109,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -7040,7 +7123,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -7063,35 +7146,35 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -7106,13 +7189,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -7120,37 +7203,37 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I31" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K31" s="6">
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -7165,13 +7248,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -7179,37 +7262,37 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K32" s="6">
         <v>100</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M32" s="6">
         <v>2</v>
@@ -7224,13 +7307,13 @@
         <v>2</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T32" s="6">
         <v>6</v>
@@ -7238,37 +7321,37 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K33" s="6">
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -7283,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -7297,29 +7380,29 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I34" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
@@ -7340,13 +7423,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -7354,37 +7437,37 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I35" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K35" s="6">
         <v>0</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -7402,10 +7485,10 @@
         <v>184</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -7413,19 +7496,19 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
@@ -7437,13 +7520,13 @@
         <v>212</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -7458,13 +7541,13 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
@@ -7472,7 +7555,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -7495,29 +7578,29 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="6">
         <v>25</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K38" s="6">
         <v>0</v>
@@ -7538,13 +7621,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T38" s="6">
         <v>-4</v>
@@ -7552,37 +7635,37 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G39" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I39" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K39" s="6">
         <v>0</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" s="6">
         <v>3</v>
@@ -7597,13 +7680,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T39" s="6">
         <v>-1</v>
@@ -7611,37 +7694,37 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G40" s="6">
         <v>45.5</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K40" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M40" s="6">
         <v>4</v>
@@ -7656,13 +7739,13 @@
         <v>9</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T40" s="6">
         <v>-10</v>
@@ -7670,37 +7753,37 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="6">
         <v>9</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M41" s="6">
         <v>3</v>
@@ -7715,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R41" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="T41" s="6">
         <v>-8</v>
@@ -7729,37 +7812,37 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G42" s="6">
         <v>25</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I42" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K42" s="6">
         <v>75</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -7774,13 +7857,13 @@
         <v>3</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -7788,37 +7871,37 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G43" s="6">
         <v>60</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I43" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K43" s="6">
         <v>0</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -7833,13 +7916,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T43" s="6">
         <v>-16</v>
@@ -7847,35 +7930,35 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="33" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
         <v>0</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I44" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K44" s="6">
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -7890,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T44" s="6">
         <v>-5</v>
@@ -7904,35 +7987,35 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
         <v>4</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G45" s="6">
         <v>28.6</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I45" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K45" s="6">
         <v>0</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -7947,13 +8030,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T45" s="6">
         <v>-11</v>
@@ -7961,7 +8044,7 @@
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7984,35 +8067,35 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I47" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K47" s="6">
         <v>0</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M47" s="6">
         <v>1</v>
@@ -8027,13 +8110,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T47" s="6">
         <v>18</v>
@@ -8041,16 +8124,16 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>268</v>
@@ -8059,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K48" s="6">
         <v>0</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M48" s="6">
         <v>1</v>
@@ -8086,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T48" s="6">
         <v>18</v>
@@ -8100,37 +8183,37 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D49" s="6">
         <v>38</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G49" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K49" s="6">
         <v>75</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M49" s="6">
         <v>2</v>
@@ -8145,13 +8228,13 @@
         <v>11</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T49" s="6">
         <v>43</v>
@@ -8159,37 +8242,37 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="6">
         <v>8</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G50" s="6">
         <v>100</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K50" s="6">
         <v>0</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M50" s="6">
         <v>6</v>
@@ -8204,13 +8287,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T50" s="6">
         <v>36</v>
@@ -8218,37 +8301,37 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D51" s="6">
         <v>24</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G51" s="6">
         <v>52.6</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I51" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K51" s="6">
         <v>80</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
@@ -8266,10 +8349,10 @@
         <v>184</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S51" s="36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T51" s="6">
         <v>30</v>
@@ -8277,31 +8360,31 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="6">
         <v>6</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G52" s="6">
         <v>50</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I52" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K52" s="6">
         <v>0</v>
@@ -8322,13 +8405,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="S52" s="36" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="T52" s="6">
         <v>32</v>
@@ -8336,35 +8419,35 @@
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="33" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
         <v>6</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M53" s="6">
         <v>1</v>
@@ -8382,10 +8465,10 @@
         <v>184</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S53" s="36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T53" s="6">
         <v>28</v>
@@ -8393,7 +8476,7 @@
     </row>
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
@@ -8416,35 +8499,35 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G55" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I55" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K55" s="6">
         <v>50</v>
       </c>
       <c r="L55" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M55" s="6">
         <v>1</v>
@@ -8462,10 +8545,10 @@
         <v>184</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S55" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T55" s="6">
         <v>1</v>
@@ -8473,37 +8556,37 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G56" s="6">
         <v>66.7</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I56" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K56" s="6">
         <v>50</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M56" s="6">
         <v>7</v>
@@ -8518,13 +8601,13 @@
         <v>9</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S56" s="36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="T56" s="6">
         <v>14</v>
@@ -8532,37 +8615,37 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D57" s="6">
         <v>10</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G57" s="6">
         <v>100</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K57" s="6">
         <v>0</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M57" s="6">
         <v>1</v>
@@ -8577,13 +8660,13 @@
         <v>1</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="S57" s="36" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="T57" s="6">
         <v>12</v>
@@ -8591,37 +8674,37 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D58" s="6">
         <v>15</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G58" s="6">
         <v>66.7</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I58" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K58" s="6">
         <v>60</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M58" s="6">
         <v>0</v>
@@ -8636,13 +8719,13 @@
         <v>4</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>436</v>
+        <v>168</v>
       </c>
       <c r="S58" s="36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T58" s="6">
         <v>14</v>
@@ -8650,25 +8733,25 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I59" s="36" t="s">
         <v>212</v>
@@ -8680,7 +8763,7 @@
         <v>16.7</v>
       </c>
       <c r="L59" s="36" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M59" s="6">
         <v>2</v>
@@ -8695,13 +8778,13 @@
         <v>4</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S59" s="36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T59" s="6">
         <v>14</v>
@@ -8709,16 +8792,16 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D60" s="6">
         <v>12</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>279</v>
@@ -8727,19 +8810,19 @@
         <v>40</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I60" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K60" s="6">
         <v>66.7</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M60" s="6">
         <v>0</v>
@@ -8754,13 +8837,13 @@
         <v>3</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S60" s="36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T60" s="6">
         <v>15</v>
@@ -8768,7 +8851,7 @@
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
@@ -8791,35 +8874,35 @@
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <v>0</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I62" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
       </c>
       <c r="L62" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M62" s="6">
         <v>0</v>
@@ -8834,13 +8917,13 @@
         <v>1</v>
       </c>
       <c r="Q62" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S62" s="36" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T62" s="6">
         <v>4</v>
@@ -8848,35 +8931,35 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <v>9</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G63" s="6">
         <v>75</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K63" s="6">
         <v>0</v>
       </c>
       <c r="L63" s="36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
@@ -8891,13 +8974,13 @@
         <v>2</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S63" s="36" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T63" s="6">
         <v>9</v>
@@ -8905,37 +8988,37 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B64" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="6">
         <v>35</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G64" s="6">
         <v>50</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K64" s="6">
         <v>85.7</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M64" s="6">
         <v>2</v>
@@ -8950,13 +9033,13 @@
         <v>8</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S64" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T64" s="6">
         <v>29</v>
@@ -8964,16 +9047,16 @@
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B65" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65" s="6">
         <v>11</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F65" s="36" t="s">
         <v>267</v>
@@ -8982,19 +9065,19 @@
         <v>16.7</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K65" s="6">
         <v>0</v>
       </c>
       <c r="L65" s="36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M65" s="6">
         <v>5</v>
@@ -9009,13 +9092,13 @@
         <v>1</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S65" s="36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T65" s="6">
         <v>35</v>
@@ -9023,16 +9106,16 @@
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B66" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D66" s="6">
         <v>11</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F66" s="36" t="s">
         <v>279</v>
@@ -9041,19 +9124,19 @@
         <v>40</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I66" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K66" s="6">
         <v>75</v>
       </c>
       <c r="L66" s="36" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="M66" s="6">
         <v>2</v>
@@ -9068,13 +9151,13 @@
         <v>2</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S66" s="36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T66" s="6">
         <v>35</v>
@@ -9082,37 +9165,37 @@
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B67" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" s="6">
         <v>6</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G67" s="6">
         <v>60</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I67" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67" s="6">
         <v>0</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M67" s="6">
         <v>1</v>
@@ -9133,7 +9216,7 @@
         <v>270</v>
       </c>
       <c r="S67" s="36" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T67" s="6">
         <v>36</v>
@@ -9141,35 +9224,35 @@
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B68" s="33" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6">
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I68" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K68" s="6">
         <v>0</v>
       </c>
       <c r="L68" s="36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M68" s="6">
         <v>2</v>
@@ -9184,13 +9267,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S68" s="36" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T68" s="6">
         <v>14</v>
@@ -9198,37 +9281,37 @@
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B69" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D69" s="6">
         <v>12</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G69" s="6">
         <v>60</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K69" s="6">
         <v>0</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M69" s="6">
         <v>1</v>
@@ -9243,13 +9326,13 @@
         <v>0</v>
       </c>
       <c r="Q69" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S69" s="36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="T69" s="6">
         <v>43</v>
@@ -9257,7 +9340,7 @@
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
@@ -9280,35 +9363,35 @@
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B71" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G71" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I71" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J71" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K71" s="6">
         <v>0</v>
       </c>
       <c r="L71" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M71" s="6">
         <v>0</v>
@@ -9323,13 +9406,13 @@
         <v>0</v>
       </c>
       <c r="Q71" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S71" s="36" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T71" s="6">
         <v>-8</v>
@@ -9337,37 +9420,37 @@
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B72" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" s="6">
         <v>29</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G72" s="6">
         <v>25</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K72" s="6">
         <v>85.7</v>
       </c>
       <c r="L72" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M72" s="6">
         <v>3</v>
@@ -9382,13 +9465,13 @@
         <v>5</v>
       </c>
       <c r="Q72" s="36" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="S72" s="36" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T72" s="6">
         <v>-16</v>
@@ -9396,37 +9479,37 @@
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D73" s="6">
         <v>29</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G73" s="6">
         <v>40</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K73" s="6">
         <v>46.7</v>
       </c>
       <c r="L73" s="36" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M73" s="6">
         <v>5</v>
@@ -9441,13 +9524,13 @@
         <v>8</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S73" s="36" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="T73" s="6">
         <v>-18</v>
@@ -9455,37 +9538,37 @@
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B74" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D74" s="6">
         <v>14</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G74" s="6">
         <v>50</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I74" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K74" s="6">
         <v>100</v>
       </c>
       <c r="L74" s="36" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M74" s="6">
         <v>0</v>
@@ -9500,13 +9583,13 @@
         <v>3</v>
       </c>
       <c r="Q74" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R74" s="6" t="s">
         <v>189</v>
       </c>
       <c r="S74" s="36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T74" s="6">
         <v>-17</v>
@@ -9514,16 +9597,16 @@
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B75" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F75" s="36" t="s">
         <v>268</v>
@@ -9532,19 +9615,19 @@
         <v>0</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I75" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K75" s="6">
         <v>50</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M75" s="6">
         <v>0</v>
@@ -9562,10 +9645,10 @@
         <v>184</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S75" s="36" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T75" s="6">
         <v>-22</v>
@@ -9583,19 +9666,19 @@
         <v>188</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I76" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K76" s="6">
         <v>0</v>
@@ -9622,7 +9705,7 @@
         <v>189</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T76" s="6">
         <v>0</v>
@@ -9630,37 +9713,37 @@
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B77" s="33" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="6">
         <v>4</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G77" s="6">
         <v>25</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I77" s="36" t="s">
         <v>212</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K77" s="6">
         <v>0</v>
       </c>
       <c r="L77" s="36" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="M77" s="6">
         <v>1</v>
@@ -9675,24 +9758,457 @@
         <v>2</v>
       </c>
       <c r="Q77" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="S77" s="36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T77" s="6">
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B79" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" s="6">
+        <v>14</v>
+      </c>
+      <c r="E79" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="F79" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="G79" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H79" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="J79" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="M79" s="6">
+        <v>3</v>
+      </c>
+      <c r="N79" s="6">
+        <v>0</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1</v>
+      </c>
+      <c r="P79" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="S79" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="T79" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B80" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="6">
+        <v>20</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="G80" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="K80" s="6">
+        <v>50</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="M80" s="6">
+        <v>2</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+      <c r="O80" s="6">
+        <v>0</v>
+      </c>
+      <c r="P80" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S80" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="T80" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B81" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="F81" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G81" s="6">
+        <v>100</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I81" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J81" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M81" s="6">
+        <v>3</v>
+      </c>
+      <c r="N81" s="6">
+        <v>2</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+      <c r="P81" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="S81" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="T81" s="6">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B82" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6">
+        <v>14</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="F82" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="G82" s="6">
+        <v>58.3</v>
+      </c>
+      <c r="H82" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J82" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S82" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="T82" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B83" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="F83" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J83" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="M83" s="6">
+        <v>3</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="6">
+        <v>1</v>
+      </c>
+      <c r="P83" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="S83" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="T83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B84" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <v>6</v>
+      </c>
+      <c r="E84" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="I84" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="J84" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="M84" s="6">
+        <v>3</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="S84" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="T84" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B85" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0</v>
+      </c>
+      <c r="E85" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="F85" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I85" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J85" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="6">
+        <v>0</v>
+      </c>
+      <c r="P85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S85" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="T85" s="6">
+        <v>-21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="B46:T46"/>
     <mergeCell ref="B54:T54"/>
     <mergeCell ref="B61:T61"/>
     <mergeCell ref="B70:T70"/>
+    <mergeCell ref="B78:T78"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
@@ -9721,8 +10237,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEFE2F-954A-4769-B30D-9BF40EB20FDE}">
-  <dimension ref="B1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3847BB-D201-464C-9B04-DECD27C29986}">
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9735,7 +10251,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -9746,30 +10262,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -9778,21 +10294,21 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -9801,21 +10317,21 @@
         <v>15</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -9824,21 +10340,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -9847,90 +10363,90 @@
         <v>7</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -9939,44 +10455,44 @@
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -9985,44 +10501,44 @@
         <v>3</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>219</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -10031,10 +10547,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -10045,7 +10561,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -10054,10 +10570,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -10068,48 +10584,71 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="E17" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>528</v>
+      <c r="E19" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/public/statistic/SIRIUS.xlsx
+++ b/public/statistic/SIRIUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Баскетбол\Отчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{632DFA63-8FE6-44D7-9641-8729CB5CF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACB3B83-23A5-4CC1-8AA5-6AC807307D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{583D0FB8-4143-4B91-863F-282EEFFD2B3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9258CE54-8A5E-48E7-874B-8F1EF01FC525}"/>
   </bookViews>
   <sheets>
     <sheet name="О команде" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="572">
   <si>
     <t>SIRIUS</t>
   </si>
@@ -162,19 +162,19 @@
     <t>Побед / Поражений</t>
   </si>
   <si>
-    <t>5 / 5</t>
+    <t>5 / 6</t>
   </si>
   <si>
     <t>Забито / пропущено</t>
   </si>
   <si>
-    <t>677 / 588</t>
+    <t>731 / 643</t>
   </si>
   <si>
     <t>в среднем за игру</t>
   </si>
   <si>
-    <t>67,7 / 58,8</t>
+    <t>66,5 / 58,5</t>
   </si>
   <si>
     <t>Игры</t>
@@ -210,16 +210,19 @@
     <t>БГУФК - SIRIUS 59:56</t>
   </si>
   <si>
+    <t>SIRIUS - Эра-Недвижимости плюс 54:55</t>
+  </si>
+  <si>
     <t>Лидеры команды</t>
   </si>
   <si>
     <t>Очки</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 28,8</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 12,4</t>
+    <t>ТУРОВЕЦ Роман 27,9</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 12,5</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 11,0</t>
@@ -228,13 +231,13 @@
     <t>% 2 очк.</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 48,0</t>
+    <t>ТУРОВЕЦ Роман 48,1</t>
   </si>
   <si>
     <t>БЕЗРУЧЕНКО Евгений 47,4</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 43,4</t>
+    <t>КОВАЛЕНКО Олег 41,9</t>
   </si>
   <si>
     <t>% 3 очк.</t>
@@ -246,7 +249,7 @@
     <t>ГАБРУКОВИЧ Павел 50,0</t>
   </si>
   <si>
-    <t>ЧАЙКО Евгений 34,9</t>
+    <t>ЧАЙКО Евгений 32,0</t>
   </si>
   <si>
     <t>% штр.</t>
@@ -258,54 +261,54 @@
     <t>БЕЗРУЧЕНКО Евгений 66,7</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 62,2</t>
+    <t>ТУРОВЕЦ Роман 63,9</t>
   </si>
   <si>
     <t>Подборы</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 13,8</t>
-  </si>
-  <si>
-    <t>ГАБРУКОВИЧ Павел 11,5</t>
-  </si>
-  <si>
-    <t>АКСЮЧИЦ Александр 6,6</t>
+    <t>КОВАЛЕНКО Олег 14,2</t>
+  </si>
+  <si>
+    <t>ГАБРУКОВИЧ Павел 12,1</t>
+  </si>
+  <si>
+    <t>АКСЮЧИЦ Александр 6,5</t>
   </si>
   <si>
     <t>Передачи</t>
   </si>
   <si>
-    <t>СИКОРСКИЙ Егор 4,0</t>
-  </si>
-  <si>
-    <t>ТУРОВЕЦ Роман 3,2</t>
+    <t>СИКОРСКИЙ Егор 3,8</t>
   </si>
   <si>
     <t>МОЛОЧНИКОВ Александр 3,0</t>
   </si>
   <si>
+    <t>ТУРОВЕЦ Роман 2,9</t>
+  </si>
+  <si>
     <t>Перехваты</t>
   </si>
   <si>
-    <t>ТУРОВЕЦ Роман 3,0</t>
-  </si>
-  <si>
-    <t>КОВАЛЕНКО Олег 1,9</t>
+    <t>ТУРОВЕЦ Роман 2,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 1,7</t>
   </si>
   <si>
     <t>Блок-шоты</t>
   </si>
   <si>
-    <t>ГАБРУКОВИЧ Павел 1,9</t>
+    <t>ГАБРУКОВИЧ Павел 1,7</t>
+  </si>
+  <si>
+    <t>КОВАЛЕНКО Олег 0,5</t>
   </si>
   <si>
     <t>ЧАЙКО Евгений 0,4</t>
   </si>
   <si>
-    <t>КОВАЛЕНКО Олег 0,4</t>
-  </si>
-  <si>
     <t>Общая сводная статистика игроков команды SIRIUS</t>
   </si>
   <si>
@@ -357,1317 +360,1377 @@
     <t>#8. ТУРОВЕЦ Роман</t>
   </si>
   <si>
-    <t>365:30</t>
-  </si>
-  <si>
-    <t>72/150</t>
-  </si>
-  <si>
-    <t>25/109</t>
-  </si>
-  <si>
-    <t>69/111</t>
-  </si>
-  <si>
-    <t>58 (43/15)</t>
-  </si>
-  <si>
-    <t>57 (19/38)</t>
-  </si>
-  <si>
-    <t>28 (1/2/0) - 20</t>
+    <t>400:20</t>
+  </si>
+  <si>
+    <t>78/162</t>
+  </si>
+  <si>
+    <t>25/110</t>
+  </si>
+  <si>
+    <t>76/119</t>
+  </si>
+  <si>
+    <t>62 (44/18)</t>
+  </si>
+  <si>
+    <t>59 (20/39)</t>
+  </si>
+  <si>
+    <t>31 (1/2/0) - 23</t>
   </si>
   <si>
     <t>#15. КОВАЛЕНКО Олег</t>
   </si>
   <si>
-    <t>300:43</t>
-  </si>
-  <si>
-    <t>49/113</t>
+    <t>339:17</t>
+  </si>
+  <si>
+    <t>54/129</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <t>29/49</t>
+  </si>
+  <si>
+    <t>156 (86/70)</t>
+  </si>
+  <si>
+    <t>13 (5/8)</t>
+  </si>
+  <si>
+    <t>23 (0/0/0) - 16</t>
+  </si>
+  <si>
+    <t>#6. ЧАЙКО Евгений</t>
+  </si>
+  <si>
+    <t>229:56</t>
+  </si>
+  <si>
+    <t>10/39</t>
+  </si>
+  <si>
+    <t>16/50</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>33 (26/7)</t>
+  </si>
+  <si>
+    <t>7 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>#77. АКСЮЧИЦ Александр</t>
+  </si>
+  <si>
+    <t>254:55</t>
+  </si>
+  <si>
+    <t>23/69</t>
+  </si>
+  <si>
+    <t>5/39</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>65 (41/24)</t>
+  </si>
+  <si>
+    <t>15 (10/5)</t>
+  </si>
+  <si>
+    <t>14 (0/0/0) - 12</t>
+  </si>
+  <si>
+    <t>#10. СИКОРСКИЙ Егор</t>
+  </si>
+  <si>
+    <t>293:48</t>
+  </si>
+  <si>
+    <t>6/19</t>
+  </si>
+  <si>
+    <t>15/55</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>32 (30/2)</t>
+  </si>
+  <si>
+    <t>29 (16/13)</t>
+  </si>
+  <si>
+    <t>20 (0/0/0) - 20</t>
+  </si>
+  <si>
+    <t>#19. ГАБРУКОВИЧ Павел</t>
+  </si>
+  <si>
+    <t>391:37</t>
+  </si>
+  <si>
+    <t>14/46</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>133 (82/51)</t>
+  </si>
+  <si>
+    <t>13 (11/2)</t>
+  </si>
+  <si>
+    <t>23 (0/0/0) - 37</t>
+  </si>
+  <si>
+    <t>#21. БЕЗРУЧЕНКО Евгений</t>
+  </si>
+  <si>
+    <t>46:43</t>
+  </si>
+  <si>
+    <t>9/19</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>7 (4/3)</t>
+  </si>
+  <si>
+    <t>2 (0/2)</t>
+  </si>
+  <si>
+    <t>5 (0/2/0) - 0</t>
+  </si>
+  <si>
+    <t>#20. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>89:07</t>
+  </si>
+  <si>
+    <t>4/16</t>
   </si>
   <si>
     <t>0/2</t>
   </si>
   <si>
-    <t>26/42</t>
-  </si>
-  <si>
-    <t>138 (75/63)</t>
+    <t>14 (12/2)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>121:35</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>23 (18/5)</t>
   </si>
   <si>
     <t>11 (3/8)</t>
   </si>
   <si>
-    <t>19 (0/0/0) - 16</t>
-  </si>
-  <si>
-    <t>#6. ЧАЙКО Евгений</t>
-  </si>
-  <si>
-    <t>198:40</t>
-  </si>
-  <si>
-    <t>10/33</t>
-  </si>
-  <si>
-    <t>15/43</t>
-  </si>
-  <si>
-    <t>6/8</t>
-  </si>
-  <si>
-    <t>27 (21/6)</t>
-  </si>
-  <si>
-    <t>32 (26/6)</t>
-  </si>
-  <si>
-    <t>6 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>#77. АКСЮЧИЦ Александр</t>
-  </si>
-  <si>
-    <t>238:20</t>
-  </si>
-  <si>
-    <t>21/63</t>
-  </si>
-  <si>
-    <t>4/33</t>
+    <t>#13. МОЛОЧНИКОВ Александр</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>2 (2/0)</t>
+  </si>
+  <si>
+    <t>4 (1/3)</t>
+  </si>
+  <si>
+    <t>0 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>#21. НАУМЧИК Сергей</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>0 (0/0)</t>
+  </si>
+  <si>
+    <t>#7. ГРИНКО Дмитрий</t>
+  </si>
+  <si>
+    <t>#9. АЗАРЕВИЧ Евгений</t>
+  </si>
+  <si>
+    <t>#23. ЛИЦКЕВИЧ Сергей</t>
+  </si>
+  <si>
+    <t>09:27</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 1</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>2200:00</t>
+  </si>
+  <si>
+    <t>200/507</t>
+  </si>
+  <si>
+    <t>69/283</t>
+  </si>
+  <si>
+    <t>124/211</t>
+  </si>
+  <si>
+    <t>527 (345/182)</t>
+  </si>
+  <si>
+    <t>181 (92/89)</t>
+  </si>
+  <si>
+    <t>135 (1/4/0) - 133</t>
+  </si>
+  <si>
+    <t>средние показатели</t>
+  </si>
+  <si>
+    <t>очки</t>
+  </si>
+  <si>
+    <t>пд</t>
+  </si>
+  <si>
+    <t>рп</t>
+  </si>
+  <si>
+    <t>пх</t>
+  </si>
+  <si>
+    <t>бл</t>
+  </si>
+  <si>
+    <t>фс</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>пф</t>
+  </si>
+  <si>
+    <t>время</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>36:24</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>31:51</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>23:22</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>29:45</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>25:30</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>33:39</t>
+  </si>
+  <si>
+    <t>36:36</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>15:51</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>28:51</t>
+  </si>
+  <si>
+    <t>Детальная статистика по играм</t>
+  </si>
+  <si>
+    <t>cт.</t>
+  </si>
+  <si>
+    <t>КПИ</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
+  </si>
+  <si>
+    <t>18:28</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>6 (4/2)</t>
+  </si>
+  <si>
+    <t>1 (0/1)</t>
+  </si>
+  <si>
+    <t>0,733</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>27:22</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>33,3</t>
+  </si>
+  <si>
+    <t>3 (3/0)</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>37:06</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>1 (1/0)</t>
+  </si>
+  <si>
+    <t>6 (3/3)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>-0,130</t>
+  </si>
+  <si>
+    <t>28,6</t>
+  </si>
+  <si>
+    <t>0,190</t>
+  </si>
+  <si>
+    <t>28:18</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>11 (2/9)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,965</t>
+  </si>
+  <si>
+    <t>33:14</t>
+  </si>
+  <si>
+    <t>100,0</t>
+  </si>
+  <si>
+    <t>20 (8/12)</t>
+  </si>
+  <si>
+    <t>1,171</t>
+  </si>
+  <si>
+    <t>32:17</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>10 (5/5)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,183</t>
+  </si>
+  <si>
+    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>06:01</t>
+  </si>
+  <si>
+    <t>0,328</t>
+  </si>
+  <si>
+    <t>38:21</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>25,0</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>8 (6/2)</t>
+  </si>
+  <si>
+    <t>9 (4/5)</t>
+  </si>
+  <si>
+    <t>4 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>36:58</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>11,1</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>-0,060</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>5/13</t>
   </si>
   <si>
     <t>4/8</t>
   </si>
   <si>
-    <t>59 (38/21)</t>
-  </si>
-  <si>
-    <t>15 (10/5)</t>
-  </si>
-  <si>
-    <t>13 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#10. СИКОРСКИЙ Егор</t>
-  </si>
-  <si>
-    <t>263:27</t>
+    <t>13 (7/6)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,695</t>
+  </si>
+  <si>
+    <t>37:21</t>
+  </si>
+  <si>
+    <t>11 (9/2)</t>
+  </si>
+  <si>
+    <t>0,419</t>
+  </si>
+  <si>
+    <t>22:18</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>2 (1/1)</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>30:28</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>4 (2/2)</t>
+  </si>
+  <si>
+    <t>1 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,192</t>
+  </si>
+  <si>
+    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>0,170</t>
+  </si>
+  <si>
+    <t>36:15</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>4 (3/1)</t>
+  </si>
+  <si>
+    <t>5 (2/3)</t>
+  </si>
+  <si>
+    <t>3 (1/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>33:33</t>
+  </si>
+  <si>
+    <t>4 (4/0)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,084</t>
+  </si>
+  <si>
+    <t>30:02</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>17 (8/9)</t>
+  </si>
+  <si>
+    <t>0,483</t>
+  </si>
+  <si>
+    <t>31:55</t>
+  </si>
+  <si>
+    <t>10 (4/6)</t>
+  </si>
+  <si>
+    <t>0,349</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>-0,399</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>5 (3/2)</t>
+  </si>
+  <si>
+    <t>0,520</t>
+  </si>
+  <si>
+    <t>27:42</t>
+  </si>
+  <si>
+    <t>16,7</t>
+  </si>
+  <si>
+    <t>3 (2/1)</t>
+  </si>
+  <si>
+    <t>0,095</t>
+  </si>
+  <si>
+    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>0,226</t>
+  </si>
+  <si>
+    <t>28:50</t>
+  </si>
+  <si>
+    <t>0/5</t>
+  </si>
+  <si>
+    <t>-0,158</t>
+  </si>
+  <si>
+    <t>37:22</t>
+  </si>
+  <si>
+    <t>5/19</t>
+  </si>
+  <si>
+    <t>3/13</t>
+  </si>
+  <si>
+    <t>23,1</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>9 (5/4)</t>
+  </si>
+  <si>
+    <t>5 (1/4)</t>
+  </si>
+  <si>
+    <t>0,322</t>
+  </si>
+  <si>
+    <t>33:58</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>6 (5/1)</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>28:13</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>0,359</t>
+  </si>
+  <si>
+    <t>32:47</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>8 (5/3)</t>
+  </si>
+  <si>
+    <t>0,420</t>
+  </si>
+  <si>
+    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>-0,053</t>
+  </si>
+  <si>
+    <t>30:44</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>9 (8/1)</t>
+  </si>
+  <si>
+    <t>-0,279</t>
+  </si>
+  <si>
+    <t>33:16</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>5 (4/1)</t>
+  </si>
+  <si>
+    <t>6 (2/4)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,395</t>
+  </si>
+  <si>
+    <t>30:08</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>50,0</t>
+  </si>
+  <si>
+    <t>0,071</t>
+  </si>
+  <si>
+    <t>24:34</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>16 (14/2)</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 2</t>
+  </si>
+  <si>
+    <t>0,924</t>
+  </si>
+  <si>
+    <t>37:52</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>11 (10/1)</t>
+  </si>
+  <si>
+    <t>2 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,496</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>-0,233</t>
+  </si>
+  <si>
+    <t>19:38</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
+  </si>
+  <si>
+    <t>16:12</t>
+  </si>
+  <si>
+    <t>6 (6/0)</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 10</t>
+  </si>
+  <si>
+    <t>0,261</t>
+  </si>
+  <si>
+    <t>26:33</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>38:10</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>0,853</t>
+  </si>
+  <si>
+    <t>0,196</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>13 (8/5)</t>
+  </si>
+  <si>
+    <t>1,137</t>
+  </si>
+  <si>
+    <t>32:41</t>
+  </si>
+  <si>
+    <t>5 (0/0/0) - 8</t>
+  </si>
+  <si>
+    <t>0,500</t>
+  </si>
+  <si>
+    <t>23:38</t>
+  </si>
+  <si>
+    <t>40,0</t>
+  </si>
+  <si>
+    <t>0,334</t>
+  </si>
+  <si>
+    <t>Игра№143, Регулярный сезон, SIRIUS - ISsoft 67:53, 28.12.2024 16:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:28</t>
+  </si>
+  <si>
+    <t>40:00</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>7 (3/4)</t>
+  </si>
+  <si>
+    <t>0,533</t>
+  </si>
+  <si>
+    <t>33:49</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 6</t>
+  </si>
+  <si>
+    <t>-0,012</t>
+  </si>
+  <si>
+    <t>12 (6/6)</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 4</t>
+  </si>
+  <si>
+    <t>0,633</t>
+  </si>
+  <si>
+    <t>14 (11/3)</t>
+  </si>
+  <si>
+    <t>0,318</t>
+  </si>
+  <si>
+    <t>32:43</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>0,065</t>
+  </si>
+  <si>
+    <t>Игра№168, Регулярный сезон, VSS - SIRIUS 43:84, 19.1.2025 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>-0,191</t>
+  </si>
+  <si>
+    <t>19:59</t>
+  </si>
+  <si>
+    <t>0,408</t>
+  </si>
+  <si>
+    <t>30:51</t>
+  </si>
+  <si>
+    <t>45,5</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>3 (1/2)</t>
+  </si>
+  <si>
+    <t>30:27</t>
+  </si>
+  <si>
+    <t>3/8</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>5 (5/0)</t>
+  </si>
+  <si>
+    <t>0,231</t>
+  </si>
+  <si>
+    <t>27:19</t>
+  </si>
+  <si>
+    <t>1,103</t>
+  </si>
+  <si>
+    <t>31:33</t>
+  </si>
+  <si>
+    <t>9 (7/2)</t>
+  </si>
+  <si>
+    <t>0,638</t>
+  </si>
+  <si>
+    <t>19:33</t>
+  </si>
+  <si>
+    <t>0,429</t>
+  </si>
+  <si>
+    <t>26:08</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>0,552</t>
+  </si>
+  <si>
+    <t>Игра№176, Регулярный сезон, SIRIUS - Грушвиль 79:95, 1.2.2025 16:30, БНТУ</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>-0,075</t>
+  </si>
+  <si>
+    <t>38:09</t>
+  </si>
+  <si>
+    <t>7/14</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <t>12 (9/3)</t>
+  </si>
+  <si>
+    <t>0,195</t>
+  </si>
+  <si>
+    <t>37:03</t>
+  </si>
+  <si>
+    <t>8/20</t>
+  </si>
+  <si>
+    <t>7/15</t>
+  </si>
+  <si>
+    <t>9 (6/3)</t>
+  </si>
+  <si>
+    <t>9 (1/8)</t>
+  </si>
+  <si>
+    <t>5 (0/1/0) - 5</t>
+  </si>
+  <si>
+    <t>0,399</t>
+  </si>
+  <si>
+    <t>36:53</t>
+  </si>
+  <si>
+    <t>21 (13/8)</t>
+  </si>
+  <si>
+    <t>1,038</t>
+  </si>
+  <si>
+    <t>36:46</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 5</t>
+  </si>
+  <si>
+    <t>0,129</t>
+  </si>
+  <si>
+    <t>-0,108</t>
+  </si>
+  <si>
+    <t>28:01</t>
+  </si>
+  <si>
+    <t>2/8</t>
+  </si>
+  <si>
+    <t>0,171</t>
+  </si>
+  <si>
+    <t>Игра№201, Регулярный сезон, БГУФК - SIRIUS 59:56, 16.2.2025 11:00, БНТУ</t>
+  </si>
+  <si>
+    <t>27:03</t>
+  </si>
+  <si>
+    <t>5/15</t>
+  </si>
+  <si>
+    <t>3/17</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>7 (7/0)</t>
+  </si>
+  <si>
+    <t>-0,077</t>
+  </si>
+  <si>
+    <t>31:18</t>
+  </si>
+  <si>
+    <t>0,096</t>
+  </si>
+  <si>
+    <t>27:21</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>12 (4/8)</t>
+  </si>
+  <si>
+    <t>0,919</t>
+  </si>
+  <si>
+    <t>37:28</t>
+  </si>
+  <si>
+    <t>0/7</t>
+  </si>
+  <si>
+    <t>16 (10/6)</t>
+  </si>
+  <si>
+    <t>0,357</t>
+  </si>
+  <si>
+    <t>20:36</t>
+  </si>
+  <si>
+    <t>0,363</t>
+  </si>
+  <si>
+    <t>19:08</t>
+  </si>
+  <si>
+    <t>-0,303</t>
+  </si>
+  <si>
+    <t>Игра№223, Регулярный сезон, SIRIUS - Эра-Недвижимости плюс 54:55, 2.3.2025 12:30, БНТУ</t>
+  </si>
+  <si>
+    <t>31:16</t>
+  </si>
+  <si>
+    <t>0,058</t>
+  </si>
+  <si>
+    <t>34:50</t>
+  </si>
+  <si>
+    <t>7/8</t>
+  </si>
+  <si>
+    <t>3 (0/0/0) - 3</t>
+  </si>
+  <si>
+    <t>0,383</t>
+  </si>
+  <si>
+    <t>30:21</t>
+  </si>
+  <si>
+    <t>4 (0/0/0) - 0</t>
+  </si>
+  <si>
+    <t>0,076</t>
+  </si>
+  <si>
+    <t>38:34</t>
   </si>
   <si>
     <t>5/16</t>
   </si>
   <si>
-    <t>12/47</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>28 (26/2)</t>
-  </si>
-  <si>
-    <t>26 (15/11)</t>
-  </si>
-  <si>
-    <t>16 (0/0/0) - 20</t>
-  </si>
-  <si>
-    <t>#19. ГАБРУКОВИЧ Павел</t>
-  </si>
-  <si>
-    <t>351:37</t>
-  </si>
-  <si>
-    <t>14/44</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>3/10</t>
-  </si>
-  <si>
-    <t>115 (73/42)</t>
-  </si>
-  <si>
-    <t>10 (8/2)</t>
-  </si>
-  <si>
-    <t>19 (0/0/0) - 31</t>
-  </si>
-  <si>
-    <t>#21. БЕЗРУЧЕНКО Евгений</t>
-  </si>
-  <si>
-    <t>46:43</t>
-  </si>
-  <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>7 (4/3)</t>
-  </si>
-  <si>
-    <t>2 (0/2)</t>
-  </si>
-  <si>
-    <t>5 (0/2/0) - 0</t>
-  </si>
-  <si>
-    <t>#20. ТРАВКИН Сергей</t>
-  </si>
-  <si>
-    <t>80:43</t>
-  </si>
-  <si>
-    <t>4/13</t>
-  </si>
-  <si>
-    <t>12 (11/1)</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>#1. ГЕРАСИМОВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>121:35</t>
-  </si>
-  <si>
-    <t>4/18</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>23 (18/5)</t>
-  </si>
-  <si>
-    <t>7 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>#13. МОЛОЧНИКОВ Александр</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/7</t>
-  </si>
-  <si>
-    <t>2 (2/0)</t>
-  </si>
-  <si>
-    <t>4 (1/3)</t>
-  </si>
-  <si>
-    <t>0 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>#21. НАУМЧИК Сергей</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>0 (0/0)</t>
-  </si>
-  <si>
-    <t>#7. ГРИНКО Дмитрий</t>
-  </si>
-  <si>
-    <t>#9. АЗАРЕВИЧ Евгений</t>
-  </si>
-  <si>
-    <t>#23. ЛИЦКЕВИЧ Сергей</t>
-  </si>
-  <si>
-    <t>09:27</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 1</t>
-  </si>
-  <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
-    <t>2000:00</t>
-  </si>
-  <si>
-    <t>186/462</t>
-  </si>
-  <si>
-    <t>64/257</t>
-  </si>
-  <si>
-    <t>113/194</t>
-  </si>
-  <si>
-    <t>469 (311/158)</t>
-  </si>
-  <si>
-    <t>170 (85/85)</t>
-  </si>
-  <si>
-    <t>117 (1/4/0) - 120</t>
-  </si>
-  <si>
-    <t>средние показатели</t>
-  </si>
-  <si>
-    <t>очки</t>
-  </si>
-  <si>
-    <t>пд</t>
-  </si>
-  <si>
-    <t>рп</t>
-  </si>
-  <si>
-    <t>пх</t>
-  </si>
-  <si>
-    <t>бл</t>
-  </si>
-  <si>
-    <t>фс</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>пф</t>
-  </si>
-  <si>
-    <t>время</t>
-  </si>
-  <si>
-    <t>2,8</t>
-  </si>
-  <si>
-    <t>37:33</t>
-  </si>
-  <si>
-    <t>1,9</t>
-  </si>
-  <si>
-    <t>30:04</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>0,9</t>
-  </si>
-  <si>
-    <t>28:23</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>23:22</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>26:29</t>
+    <t>18 (11/7)</t>
+  </si>
+  <si>
+    <t>0,475</t>
+  </si>
+  <si>
+    <t>18 (9/9)</t>
+  </si>
+  <si>
+    <t>0,428</t>
+  </si>
+  <si>
+    <t>#33. ТРАВКИН Сергей</t>
+  </si>
+  <si>
+    <t>08:24</t>
+  </si>
+  <si>
+    <t>-0,231</t>
+  </si>
+  <si>
+    <t>0,245</t>
+  </si>
+  <si>
+    <t>Статистика судей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИО </t>
+  </si>
+  <si>
+    <t>Кол-во игр</t>
+  </si>
+  <si>
+    <t>Фолы всего</t>
+  </si>
+  <si>
+    <t>Фолы U</t>
+  </si>
+  <si>
+    <t>Фолы T</t>
+  </si>
+  <si>
+    <t>Фолы D</t>
+  </si>
+  <si>
+    <t>Фолы в среднем</t>
+  </si>
+  <si>
+    <t>ЮРЕВИЧ Влад</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>ЯГОМОСТЕВ Владислав</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ВАЛЕНДО Таисия</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>ЕРЕМА Александр</t>
+  </si>
+  <si>
+    <t>МАЛАШЕВИЧ Андрей</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>БАРАЙ Александр</t>
+  </si>
+  <si>
+    <t>5,8</t>
+  </si>
+  <si>
+    <t>МЕДНИКОВА Христина</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>СУЛАГАЕВ Тимофей</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>КВИТУН Николай</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>НИКОЛАЙЧИК Максим</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>ВЕЛИЧКО Марина</t>
+  </si>
+  <si>
+    <t>САНЮК Андрей</t>
   </si>
   <si>
     <t>2,0</t>
   </si>
   <si>
-    <t>33:56</t>
-  </si>
-  <si>
-    <t>35:10</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>16:09</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>14:31</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>1,6</t>
-  </si>
-  <si>
-    <t>28:47</t>
-  </si>
-  <si>
-    <t>Детальная статистика по играм</t>
-  </si>
-  <si>
-    <t>cт.</t>
-  </si>
-  <si>
-    <t>КПИ</t>
-  </si>
-  <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>Игра№14, Регулярный сезон, SIRIUS - ЛФК 76:51, 5.10.2024 19:30, БНТУ</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>6 (4/2)</t>
-  </si>
-  <si>
-    <t>1 (0/1)</t>
-  </si>
-  <si>
-    <t>0,733</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>27:22</t>
-  </si>
-  <si>
-    <t>4/11</t>
-  </si>
-  <si>
-    <t>33,3</t>
-  </si>
-  <si>
-    <t>3 (3/0)</t>
-  </si>
-  <si>
-    <t>0,364</t>
-  </si>
-  <si>
-    <t>37:06</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>4/9</t>
-  </si>
-  <si>
-    <t>1 (1/0)</t>
-  </si>
-  <si>
-    <t>6 (3/3)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>-0,130</t>
-  </si>
-  <si>
-    <t>28,6</t>
-  </si>
-  <si>
-    <t>0,190</t>
-  </si>
-  <si>
-    <t>28:18</t>
-  </si>
-  <si>
-    <t>6/13</t>
-  </si>
-  <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>11 (2/9)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,965</t>
-  </si>
-  <si>
-    <t>33:14</t>
-  </si>
-  <si>
-    <t>100,0</t>
-  </si>
-  <si>
-    <t>20 (8/12)</t>
-  </si>
-  <si>
-    <t>1,171</t>
-  </si>
-  <si>
-    <t>32:17</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>0/3</t>
-  </si>
-  <si>
-    <t>10 (5/5)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,183</t>
-  </si>
-  <si>
-    <t>Игра№37, Регулярный сезон, GOLDEN HILL - SIRIUS 64:63, 20.10.2024 12:30, БНТУ</t>
-  </si>
-  <si>
-    <t>06:01</t>
-  </si>
-  <si>
-    <t>0,328</t>
-  </si>
-  <si>
-    <t>38:21</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>25,0</t>
-  </si>
-  <si>
-    <t>4/10</t>
-  </si>
-  <si>
-    <t>8 (6/2)</t>
-  </si>
-  <si>
-    <t>9 (4/5)</t>
-  </si>
-  <si>
-    <t>4 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,217</t>
-  </si>
-  <si>
-    <t>36:58</t>
-  </si>
-  <si>
-    <t>1/9</t>
-  </si>
-  <si>
-    <t>11,1</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>-0,060</t>
-  </si>
-  <si>
-    <t>28:33</t>
-  </si>
-  <si>
-    <t>5/13</t>
-  </si>
-  <si>
-    <t>13 (7/6)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,695</t>
-  </si>
-  <si>
-    <t>37:21</t>
-  </si>
-  <si>
-    <t>11 (9/2)</t>
-  </si>
-  <si>
-    <t>0,419</t>
-  </si>
-  <si>
-    <t>22:18</t>
-  </si>
-  <si>
-    <t>3/7</t>
-  </si>
-  <si>
-    <t>2 (1/1)</t>
-  </si>
-  <si>
-    <t>0,027</t>
-  </si>
-  <si>
-    <t>30:28</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>4 (2/2)</t>
-  </si>
-  <si>
-    <t>1 (0/0/0) - 0</t>
-  </si>
-  <si>
-    <t>0,192</t>
-  </si>
-  <si>
-    <t>Игра№57, Регулярный сезон, SIRIUS - Mapogo males 70:77, 3.11.2024 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>0,170</t>
-  </si>
-  <si>
-    <t>36:15</t>
-  </si>
-  <si>
-    <t>12/19</t>
-  </si>
-  <si>
-    <t>2/11</t>
-  </si>
-  <si>
-    <t>18,2</t>
-  </si>
-  <si>
-    <t>11/18</t>
-  </si>
-  <si>
-    <t>4 (3/1)</t>
-  </si>
-  <si>
-    <t>5 (2/3)</t>
-  </si>
-  <si>
-    <t>3 (1/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,653</t>
-  </si>
-  <si>
-    <t>33:33</t>
-  </si>
-  <si>
-    <t>4 (4/0)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,084</t>
-  </si>
-  <si>
-    <t>30:02</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>17 (8/9)</t>
-  </si>
-  <si>
-    <t>0,483</t>
-  </si>
-  <si>
-    <t>31:55</t>
-  </si>
-  <si>
-    <t>10 (4/6)</t>
-  </si>
-  <si>
-    <t>0,349</t>
-  </si>
-  <si>
-    <t>06:27</t>
-  </si>
-  <si>
-    <t>-0,399</t>
-  </si>
-  <si>
-    <t>24:25</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>5 (3/2)</t>
-  </si>
-  <si>
-    <t>0,520</t>
-  </si>
-  <si>
-    <t>27:42</t>
-  </si>
-  <si>
-    <t>16,7</t>
-  </si>
-  <si>
-    <t>3 (2/1)</t>
-  </si>
-  <si>
-    <t>0,095</t>
-  </si>
-  <si>
-    <t>Игра№85, Регулярный сезон, Eagles - SIRIUS 42:48, 17.11.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>0,226</t>
-  </si>
-  <si>
-    <t>28:50</t>
-  </si>
-  <si>
-    <t>0/5</t>
-  </si>
-  <si>
-    <t>-0,158</t>
-  </si>
-  <si>
-    <t>37:22</t>
-  </si>
-  <si>
-    <t>5/19</t>
-  </si>
-  <si>
-    <t>3/13</t>
-  </si>
-  <si>
-    <t>23,1</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>9 (5/4)</t>
-  </si>
-  <si>
-    <t>5 (1/4)</t>
-  </si>
-  <si>
-    <t>0,322</t>
-  </si>
-  <si>
-    <t>33:58</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>6 (5/1)</t>
-  </si>
-  <si>
-    <t>0,042</t>
-  </si>
-  <si>
-    <t>28:13</t>
-  </si>
-  <si>
-    <t>3/11</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>0,359</t>
-  </si>
-  <si>
-    <t>32:47</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>0,517</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>6/9</t>
-  </si>
-  <si>
-    <t>8 (5/3)</t>
-  </si>
-  <si>
-    <t>0,420</t>
-  </si>
-  <si>
-    <t>Игра№107, Регулярный сезон, SIRIUS - ОПЛАТИ 49:60, 1.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>-0,053</t>
-  </si>
-  <si>
-    <t>30:44</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>9 (8/1)</t>
-  </si>
-  <si>
-    <t>-0,279</t>
-  </si>
-  <si>
-    <t>33:16</t>
-  </si>
-  <si>
-    <t>5/11</t>
-  </si>
-  <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>5 (4/1)</t>
-  </si>
-  <si>
-    <t>6 (2/4)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,395</t>
-  </si>
-  <si>
-    <t>30:08</t>
-  </si>
-  <si>
-    <t>3/6</t>
-  </si>
-  <si>
-    <t>50,0</t>
-  </si>
-  <si>
-    <t>0,071</t>
-  </si>
-  <si>
-    <t>24:34</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>16 (14/2)</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 2</t>
-  </si>
-  <si>
-    <t>0,924</t>
-  </si>
-  <si>
-    <t>37:52</t>
-  </si>
-  <si>
-    <t>3/5</t>
-  </si>
-  <si>
-    <t>11 (10/1)</t>
-  </si>
-  <si>
-    <t>2 (0/0/0) - 4</t>
-  </si>
-  <si>
-    <t>0,496</t>
-  </si>
-  <si>
-    <t>10:29</t>
-  </si>
-  <si>
-    <t>-0,233</t>
-  </si>
-  <si>
-    <t>19:38</t>
-  </si>
-  <si>
-    <t>0,062</t>
-  </si>
-  <si>
-    <t>Игра№131, Регулярный сезон, NORD - SIRIUS 44:85, 15.12.2024 15:30, БНТУ</t>
-  </si>
-  <si>
-    <t>16:12</t>
-  </si>
-  <si>
-    <t>6 (6/0)</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 10</t>
-  </si>
-  <si>
-    <t>0,261</t>
-  </si>
-  <si>
-    <t>26:33</t>
-  </si>
-  <si>
-    <t>0,125</t>
-  </si>
-  <si>
-    <t>38:10</t>
-  </si>
-  <si>
-    <t>10/14</t>
-  </si>
-  <si>
-    <t>14,3</t>
-  </si>
-  <si>
-    <t>15/20</t>
-  </si>
-  <si>
-    <t>0,853</t>
-  </si>
-  <si>
-    <t>0,196</t>
-  </si>
-  <si>
-    <t>29:30</t>
-  </si>
-  <si>
-    <t>10/19</t>
-  </si>
-  <si>
-    <t>4/5</t>
-  </si>
-  <si>
-    <t>13 (8/5)</t>
-  </si>
-  <si>
-    <t>1,137</t>
-  </si>
-  <si>
-    <t>32:41</t>
-  </si>
-  <si>
-    <t>5 (0/0/0) - 8</t>
-  </si>
-  <si>
-    <t>0,500</t>
-  </si>
-  <si>
-    <t>23:38</t>
-  </si>
-  <si>
-    <t>40,0</t>
-  </si>
-  <si>
-    <t>0,334</t>
-  </si>
-  <si>
-    <t>Игра№143, Регулярный сезон, SIRIUS - ISsoft 67:53, 28.12.2024 16:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:28</t>
-  </si>
-  <si>
-    <t>40:00</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0/10</t>
-  </si>
-  <si>
-    <t>7 (3/4)</t>
-  </si>
-  <si>
-    <t>0,533</t>
-  </si>
-  <si>
-    <t>33:49</t>
-  </si>
-  <si>
-    <t>2/2</t>
-  </si>
-  <si>
-    <t>4 (0/0/0) - 6</t>
-  </si>
-  <si>
-    <t>-0,012</t>
-  </si>
-  <si>
-    <t>12 (6/6)</t>
-  </si>
-  <si>
-    <t>0,633</t>
-  </si>
-  <si>
-    <t>14 (11/3)</t>
-  </si>
-  <si>
-    <t>0,318</t>
-  </si>
-  <si>
-    <t>32:43</t>
-  </si>
-  <si>
-    <t>4/6</t>
-  </si>
-  <si>
-    <t>0,065</t>
-  </si>
-  <si>
-    <t>Игра№168, Регулярный сезон, VSS - SIRIUS 43:84, 19.1.2025 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>14:10</t>
-  </si>
-  <si>
-    <t>-0,191</t>
-  </si>
-  <si>
-    <t>19:59</t>
-  </si>
-  <si>
-    <t>0,408</t>
-  </si>
-  <si>
-    <t>30:51</t>
-  </si>
-  <si>
-    <t>45,5</t>
-  </si>
-  <si>
-    <t>12/14</t>
-  </si>
-  <si>
-    <t>3 (1/2)</t>
-  </si>
-  <si>
-    <t>30:27</t>
-  </si>
-  <si>
-    <t>3/8</t>
-  </si>
-  <si>
-    <t>37,5</t>
-  </si>
-  <si>
-    <t>5 (5/0)</t>
-  </si>
-  <si>
-    <t>0,231</t>
-  </si>
-  <si>
-    <t>27:19</t>
-  </si>
-  <si>
-    <t>1,103</t>
-  </si>
-  <si>
-    <t>31:33</t>
-  </si>
-  <si>
-    <t>9 (7/2)</t>
-  </si>
-  <si>
-    <t>0,638</t>
-  </si>
-  <si>
-    <t>19:33</t>
-  </si>
-  <si>
-    <t>0,429</t>
-  </si>
-  <si>
-    <t>26:08</t>
-  </si>
-  <si>
-    <t>2/4</t>
-  </si>
-  <si>
-    <t>0,552</t>
-  </si>
-  <si>
-    <t>Игра№176, Регулярный сезон, SIRIUS - Грушвиль 79:95, 1.2.2025 16:30, БНТУ</t>
-  </si>
-  <si>
-    <t>13:41</t>
-  </si>
-  <si>
-    <t>-0,075</t>
-  </si>
-  <si>
-    <t>38:09</t>
-  </si>
-  <si>
-    <t>7/14</t>
-  </si>
-  <si>
-    <t>6/7</t>
-  </si>
-  <si>
-    <t>12 (9/3)</t>
-  </si>
-  <si>
-    <t>0,195</t>
-  </si>
-  <si>
-    <t>37:03</t>
-  </si>
-  <si>
-    <t>8/20</t>
-  </si>
-  <si>
-    <t>7/15</t>
-  </si>
-  <si>
-    <t>9 (6/3)</t>
-  </si>
-  <si>
-    <t>9 (1/8)</t>
-  </si>
-  <si>
-    <t>5 (0/1/0) - 5</t>
-  </si>
-  <si>
-    <t>0,399</t>
-  </si>
-  <si>
-    <t>36:53</t>
-  </si>
-  <si>
-    <t>5/10</t>
-  </si>
-  <si>
-    <t>21 (13/8)</t>
-  </si>
-  <si>
-    <t>1,038</t>
-  </si>
-  <si>
-    <t>36:46</t>
-  </si>
-  <si>
-    <t>3 (0/0/0) - 5</t>
-  </si>
-  <si>
-    <t>0,129</t>
-  </si>
-  <si>
-    <t>-0,108</t>
-  </si>
-  <si>
-    <t>28:01</t>
-  </si>
-  <si>
-    <t>2/8</t>
-  </si>
-  <si>
-    <t>0,171</t>
-  </si>
-  <si>
-    <t>Игра№201, Регулярный сезон, БГУФК - SIRIUS 59:56, 16.2.2025 11:00, БНТУ</t>
-  </si>
-  <si>
-    <t>27:03</t>
-  </si>
-  <si>
-    <t>5/15</t>
-  </si>
-  <si>
-    <t>3/17</t>
-  </si>
-  <si>
-    <t>17,6</t>
-  </si>
-  <si>
-    <t>7 (7/0)</t>
-  </si>
-  <si>
-    <t>-0,077</t>
-  </si>
-  <si>
-    <t>31:18</t>
-  </si>
-  <si>
-    <t>0,096</t>
-  </si>
-  <si>
-    <t>27:21</t>
-  </si>
-  <si>
-    <t>7/12</t>
-  </si>
-  <si>
-    <t>12 (4/8)</t>
-  </si>
-  <si>
-    <t>0,919</t>
-  </si>
-  <si>
-    <t>37:28</t>
-  </si>
-  <si>
-    <t>0/7</t>
-  </si>
-  <si>
-    <t>16 (10/6)</t>
-  </si>
-  <si>
-    <t>0,357</t>
-  </si>
-  <si>
-    <t>20:36</t>
-  </si>
-  <si>
-    <t>0,363</t>
-  </si>
-  <si>
-    <t>19:08</t>
-  </si>
-  <si>
-    <t>-0,303</t>
-  </si>
-  <si>
-    <t>Статистика судей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИО </t>
-  </si>
-  <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
-    <t>Фолы всего</t>
-  </si>
-  <si>
-    <t>Фолы U</t>
-  </si>
-  <si>
-    <t>Фолы T</t>
-  </si>
-  <si>
-    <t>Фолы D</t>
-  </si>
-  <si>
-    <t>Фолы в среднем</t>
-  </si>
-  <si>
-    <t>ЮРЕВИЧ Влад</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>ЯГОМОСТЕВ Владислав</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>ЕРЕМА Александр</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>ВАЛЕНДО Таисия</t>
-  </si>
-  <si>
-    <t>МАЛАШЕВИЧ Андрей</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>МЕДНИКОВА Христина</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>БАРАЙ Александр</t>
-  </si>
-  <si>
-    <t>5,7</t>
-  </si>
-  <si>
-    <t>СУЛАГАЕВ Тимофей</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>КВИТУН Николай</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>НИКОЛАЙЧИК Максим</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>ВЕЛИЧКО Марина</t>
-  </si>
-  <si>
-    <t>САНЮК Андрей</t>
-  </si>
-  <si>
     <t>КРИЦКИЙ Владимир</t>
   </si>
   <si>
@@ -1675,9 +1738,6 @@
   </si>
   <si>
     <t>ЛЕСИЦКИЙ Артем</t>
-  </si>
-  <si>
-    <t>1,7</t>
   </si>
   <si>
     <t>АВЕРКИНА Мария</t>
@@ -2266,8 +2326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84E3773-ADE9-4198-B04C-3E3ECE61414D}">
-  <dimension ref="A1:AT35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9FE7A5-9A62-4C72-A064-EE31412B1F8B}">
+  <dimension ref="A1:AT36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AT1"/>
@@ -3403,7 +3463,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="K21" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -3456,7 +3516,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="K22" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -3467,7 +3527,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
@@ -3478,7 +3538,7 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD22" s="22"/>
       <c r="AE22" s="22"/>
@@ -3489,7 +3549,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
       <c r="AL22" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" s="22"/>
       <c r="AN22" s="22"/>
@@ -3515,7 +3575,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="K23" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
@@ -3526,7 +3586,7 @@
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U23" s="23"/>
       <c r="V23" s="23"/>
@@ -3537,7 +3597,7 @@
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
@@ -3548,7 +3608,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
       <c r="AL23" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM23" s="23"/>
       <c r="AN23" s="23"/>
@@ -3574,7 +3634,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="K24" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -3585,7 +3645,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
@@ -3596,7 +3656,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
@@ -3607,7 +3667,7 @@
       <c r="AJ24" s="10"/>
       <c r="AK24" s="10"/>
       <c r="AL24" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
@@ -3631,7 +3691,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="K25" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -3642,7 +3702,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
@@ -3653,7 +3713,7 @@
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
@@ -3664,7 +3724,7 @@
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
@@ -3688,7 +3748,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="K26" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
@@ -3699,7 +3759,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
@@ -3710,7 +3770,7 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
       <c r="AC26" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD26" s="22"/>
       <c r="AE26" s="22"/>
@@ -3721,7 +3781,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
       <c r="AL26" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM26" s="22"/>
       <c r="AN26" s="22"/>
@@ -3745,7 +3805,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="K27" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -3756,7 +3816,7 @@
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
@@ -3778,7 +3838,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
       <c r="AL27" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM27" s="23"/>
       <c r="AN27" s="23"/>
@@ -3802,7 +3862,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3813,7 +3873,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -3824,7 +3884,7 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AE28" s="10"/>
@@ -3835,7 +3895,7 @@
       <c r="AJ28" s="10"/>
       <c r="AK28" s="10"/>
       <c r="AL28" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -3859,7 +3919,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="K29" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -3870,7 +3930,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
@@ -3881,7 +3941,7 @@
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10"/>
@@ -3892,7 +3952,7 @@
       <c r="AJ29" s="10"/>
       <c r="AK29" s="10"/>
       <c r="AL29" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM29" s="10"/>
       <c r="AN29" s="10"/>
@@ -3981,8 +4041,21 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="168">
     <mergeCell ref="AL29:AT29"/>
     <mergeCell ref="K29:S29"/>
     <mergeCell ref="T26:AB26"/>
@@ -4002,6 +4075,7 @@
     <mergeCell ref="AL26:AT26"/>
     <mergeCell ref="AL27:AT27"/>
     <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="T23:AB23"/>
     <mergeCell ref="T24:AB24"/>
     <mergeCell ref="T25:AB25"/>
     <mergeCell ref="AC22:AK22"/>
@@ -4011,13 +4085,13 @@
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
     <mergeCell ref="K21:AT21"/>
     <mergeCell ref="K22:S22"/>
     <mergeCell ref="K23:S23"/>
     <mergeCell ref="K24:S24"/>
     <mergeCell ref="K25:S25"/>
     <mergeCell ref="T22:AB22"/>
-    <mergeCell ref="T23:AB23"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A29:I29"/>
@@ -4156,7 +4230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAD6705-CBF1-466A-A2DA-DA73B20946DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A270CD6E-DDE2-4320-A485-19BEDAB0E9E5}">
   <dimension ref="B2:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4180,7 +4254,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -4212,49 +4286,49 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" s="25"/>
       <c r="L3" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
@@ -4263,22 +4337,22 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="I4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="K4" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -4290,37 +4364,37 @@
     </row>
     <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="28">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="28">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" s="28">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" s="28">
-        <v>62.2</v>
+        <v>63.9</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" s="28">
         <v>32</v>
@@ -4332,107 +4406,107 @@
         <v>1</v>
       </c>
       <c r="P5" s="28">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="28">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="28">
-        <v>43.4</v>
+        <v>41.9</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I6" s="28">
         <v>0</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K6" s="28">
-        <v>61.9</v>
+        <v>59.2</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N6" s="28">
         <v>19</v>
       </c>
       <c r="O6" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="28">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R6" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="28">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" s="28">
-        <v>30.3</v>
+        <v>25.6</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="28">
-        <v>34.9</v>
+        <v>32</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="28">
         <v>75</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M7" s="28">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N7" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" s="28">
         <v>3</v>
@@ -4452,10 +4526,10 @@
         <v>132</v>
       </c>
       <c r="C8" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="28">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>133</v>
@@ -4470,7 +4544,7 @@
         <v>135</v>
       </c>
       <c r="I8" s="28">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>136</v>
@@ -4482,7 +4556,7 @@
         <v>137</v>
       </c>
       <c r="M8" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" s="28">
         <v>10</v>
@@ -4491,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="29" t="s">
         <v>138</v>
@@ -4505,10 +4579,10 @@
         <v>140</v>
       </c>
       <c r="C9" s="28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="28">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>141</v>
@@ -4517,13 +4591,13 @@
         <v>142</v>
       </c>
       <c r="G9" s="28">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>143</v>
       </c>
       <c r="I9" s="28">
-        <v>25.5</v>
+        <v>27.3</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>144</v>
@@ -4535,10 +4609,10 @@
         <v>145</v>
       </c>
       <c r="M9" s="28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N9" s="28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O9" s="28">
         <v>0</v>
@@ -4558,7 +4632,7 @@
         <v>148</v>
       </c>
       <c r="C10" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="28">
         <v>34</v>
@@ -4570,7 +4644,7 @@
         <v>150</v>
       </c>
       <c r="G10" s="28">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>151</v>
@@ -4588,16 +4662,16 @@
         <v>153</v>
       </c>
       <c r="M10" s="28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N10" s="28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" s="28">
         <v>19</v>
       </c>
       <c r="P10" s="28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="29" t="s">
         <v>154</v>
@@ -4664,7 +4738,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="28">
         <v>12</v>
@@ -4682,19 +4756,19 @@
         <v>166</v>
       </c>
       <c r="I12" s="28">
-        <v>30.8</v>
+        <v>25</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K12" s="28">
         <v>0</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M12" s="28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="28">
         <v>4</v>
@@ -4709,12 +4783,12 @@
         <v>162</v>
       </c>
       <c r="R12" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="28">
         <v>9</v>
@@ -4723,16 +4797,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G13" s="28">
         <v>22.2</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I13" s="28">
         <v>100</v>
@@ -4744,7 +4818,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M13" s="28">
         <v>7</v>
@@ -4759,15 +4833,15 @@
         <v>6</v>
       </c>
       <c r="Q13" s="29" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="28">
         <v>1</v>
@@ -4776,16 +4850,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="28">
         <v>33.299999999999997</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I14" s="28">
         <v>28.6</v>
@@ -4797,7 +4871,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" s="28">
         <v>3</v>
@@ -4812,15 +4886,15 @@
         <v>1</v>
       </c>
       <c r="Q14" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="28">
         <v>0</v>
@@ -4829,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>159</v>
@@ -4850,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M15" s="28">
         <v>0</v>
@@ -4865,15 +4939,15 @@
         <v>0</v>
       </c>
       <c r="Q15" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="28">
         <v>0</v>
@@ -4882,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>159</v>
@@ -4903,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" s="28">
         <v>0</v>
@@ -4918,15 +4992,15 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="28">
         <v>0</v>
@@ -4935,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>159</v>
@@ -4956,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" s="28">
         <v>0</v>
@@ -4971,15 +5045,15 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="28">
         <v>1</v>
@@ -4988,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>159</v>
@@ -5009,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="28">
         <v>0</v>
@@ -5024,71 +5098,71 @@
         <v>0</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R18" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="31">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D19" s="31">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19" s="31">
-        <v>40.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I19" s="31">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K19" s="31">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" s="31">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="N19" s="31">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O19" s="31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P19" s="31">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R19" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5102,100 +5176,100 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="28">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="D23" s="28">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E23" s="28">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="F23" s="28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G23" s="28">
         <v>0.1</v>
       </c>
       <c r="H23" s="28">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="I23" s="28">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="28">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D24" s="28">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="E24" s="28">
         <v>0.8</v>
       </c>
       <c r="F24" s="28">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="G24" s="28">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I24" s="28">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="28">
         <v>11</v>
@@ -5219,74 +5293,74 @@
         <v>4</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C26" s="28">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="D26" s="28">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="28">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="28">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G26" s="28">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="I26" s="28">
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C27" s="28">
-        <v>10</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D27" s="28">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E27" s="28">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="F27" s="28">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="28">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H27" s="28">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I27" s="28">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5294,16 +5368,16 @@
         <v>132</v>
       </c>
       <c r="C28" s="28">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="D28" s="28">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E28" s="28">
         <v>1</v>
       </c>
       <c r="F28" s="28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G28" s="28">
         <v>0.1</v>
@@ -5312,13 +5386,13 @@
         <v>0.9</v>
       </c>
       <c r="I28" s="28">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5326,13 +5400,13 @@
         <v>140</v>
       </c>
       <c r="C29" s="28">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D29" s="28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E29" s="28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F29" s="28">
         <v>1.6</v>
@@ -5341,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5358,10 +5432,10 @@
         <v>148</v>
       </c>
       <c r="C30" s="28">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D30" s="28">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="E30" s="28">
         <v>1.1000000000000001</v>
@@ -5370,19 +5444,19 @@
         <v>1.2</v>
       </c>
       <c r="G30" s="28">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H30" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="I30" s="28">
         <v>1.2</v>
       </c>
-      <c r="I30" s="28">
-        <v>1</v>
-      </c>
       <c r="J30" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5390,16 +5464,16 @@
         <v>164</v>
       </c>
       <c r="C31" s="28">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="28">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E31" s="28">
         <v>1.2</v>
       </c>
       <c r="F31" s="28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G31" s="28">
         <v>0</v>
@@ -5408,18 +5482,18 @@
         <v>0.2</v>
       </c>
       <c r="I31" s="28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C32" s="28">
         <v>1.3</v>
@@ -5443,15 +5517,15 @@
         <v>1.2</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="28">
         <v>0</v>
@@ -5475,15 +5549,15 @@
         <v>0</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="28">
         <v>0</v>
@@ -5507,15 +5581,15 @@
         <v>0</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C35" s="28">
         <v>0</v>
@@ -5539,15 +5613,15 @@
         <v>0</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C36" s="28">
         <v>0</v>
@@ -5571,27 +5645,27 @@
         <v>0</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="31">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D37" s="31">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="E37" s="31">
         <v>1.7</v>
       </c>
       <c r="F37" s="31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G37" s="31">
         <v>0.4</v>
@@ -5600,13 +5674,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="I37" s="31">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5634,8 +5708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0FE68-9934-453B-89AC-273EF089E8C8}">
-  <dimension ref="B1:T85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEAA821-8FB2-45F9-BEED-E00C9B4D7923}">
+  <dimension ref="B1:T93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5661,7 +5735,7 @@
   <sheetData>
     <row r="1" spans="2:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -5684,55 +5758,55 @@
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -5741,22 +5815,22 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="I3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
@@ -5770,7 +5844,7 @@
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -5793,17 +5867,17 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
@@ -5812,7 +5886,7 @@
         <v>159</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>159</v>
@@ -5821,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -5836,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T5" s="6">
         <v>20</v>
@@ -5850,28 +5924,28 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="6">
         <v>14</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G6" s="6">
         <v>36.4</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>159</v>
@@ -5880,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M6" s="6">
         <v>1</v>
@@ -5895,13 +5969,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T6" s="6">
         <v>17</v>
@@ -5909,37 +5983,37 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G7" s="6">
         <v>41.7</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K7" s="6">
         <v>44.4</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -5954,13 +6028,13 @@
         <v>4</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T7" s="6">
         <v>22</v>
@@ -5968,26 +6042,26 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G8" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>151</v>
@@ -5996,7 +6070,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M8" s="6">
         <v>3</v>
@@ -6011,13 +6085,13 @@
         <v>1</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T8" s="6">
         <v>19</v>
@@ -6025,19 +6099,19 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D9" s="6">
         <v>15</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="6">
         <v>46.2</v>
@@ -6046,16 +6120,16 @@
         <v>159</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K9" s="6">
         <v>100</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M9" s="6">
         <v>1</v>
@@ -6070,13 +6144,13 @@
         <v>4</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S9" s="36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T9" s="6">
         <v>17</v>
@@ -6087,25 +6161,25 @@
         <v>148</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" s="6">
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G10" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>151</v>
@@ -6114,7 +6188,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M10" s="6">
         <v>2</v>
@@ -6129,13 +6203,13 @@
         <v>4</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T10" s="6">
         <v>13</v>
@@ -6146,25 +6220,25 @@
         <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G11" s="6">
         <v>16.7</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>159</v>
@@ -6188,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>270</v>
@@ -6225,7 +6299,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
@@ -6241,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>159</v>
@@ -6253,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M13" s="6">
         <v>0</v>
@@ -6268,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S13" s="36" t="s">
         <v>274</v>
@@ -6282,10 +6356,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="6">
         <v>29</v>
@@ -6344,7 +6418,7 @@
         <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
@@ -6353,7 +6427,7 @@
         <v>284</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -6371,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M15" s="6">
         <v>5</v>
@@ -6386,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>287</v>
@@ -6400,10 +6474,10 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D16" s="6">
         <v>14</v>
@@ -6421,16 +6495,16 @@
         <v>159</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="K16" s="6">
         <v>50</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M16" s="6">
         <v>0</v>
@@ -6445,13 +6519,13 @@
         <v>5</v>
       </c>
       <c r="Q16" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T16" s="6">
         <v>10</v>
@@ -6462,13 +6536,13 @@
         <v>148</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>159</v>
@@ -6480,7 +6554,7 @@
         <v>159</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>159</v>
@@ -6489,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M17" s="6">
         <v>2</v>
@@ -6504,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T17" s="6">
         <v>-2</v>
@@ -6525,10 +6599,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="6">
         <v>42.9</v>
@@ -6537,16 +6611,16 @@
         <v>159</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" s="6">
         <v>100</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -6561,13 +6635,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>163</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T18" s="6">
         <v>-11</v>
@@ -6578,25 +6652,25 @@
         <v>132</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D19" s="6">
         <v>7</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G19" s="6">
         <v>28.6</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>159</v>
@@ -6605,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M19" s="6">
         <v>3</v>
@@ -6620,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T19" s="6">
         <v>1</v>
@@ -6634,7 +6708,7 @@
     </row>
     <row r="20" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -6657,17 +6731,17 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>0</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -6676,7 +6750,7 @@
         <v>159</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>159</v>
@@ -6685,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6700,13 +6774,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
@@ -6714,37 +6788,37 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G22" s="6">
         <v>63.2</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K22" s="6">
         <v>61.1</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M22" s="6">
         <v>5</v>
@@ -6759,13 +6833,13 @@
         <v>15</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T22" s="6">
         <v>0</v>
@@ -6776,25 +6850,25 @@
         <v>140</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>144</v>
@@ -6803,7 +6877,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M23" s="6">
         <v>6</v>
@@ -6818,13 +6892,13 @@
         <v>2</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T23" s="6">
         <v>-7</v>
@@ -6832,28 +6906,28 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G24" s="6">
         <v>16.7</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J24" s="36" t="s">
         <v>151</v>
@@ -6862,7 +6936,7 @@
         <v>50</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -6877,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T24" s="6">
         <v>-5</v>
@@ -6894,16 +6968,16 @@
         <v>148</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G25" s="6">
         <v>20</v>
@@ -6912,7 +6986,7 @@
         <v>159</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>159</v>
@@ -6921,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -6936,13 +7010,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T25" s="6">
         <v>-9</v>
@@ -6957,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>159</v>
@@ -6966,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>159</v>
@@ -6978,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -6993,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R26" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T26" s="6">
         <v>0</v>
@@ -7014,10 +7088,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
@@ -7026,7 +7100,7 @@
         <v>159</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>151</v>
@@ -7035,7 +7109,7 @@
         <v>50</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M27" s="6">
         <v>1</v>
@@ -7053,10 +7127,10 @@
         <v>162</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T27" s="6">
         <v>-1</v>
@@ -7067,25 +7141,25 @@
         <v>132</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G28" s="6">
         <v>20</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>159</v>
@@ -7109,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T28" s="6">
         <v>-17</v>
@@ -7123,7 +7197,7 @@
     </row>
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -7146,14 +7220,14 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>151</v>
@@ -7165,7 +7239,7 @@
         <v>159</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J30" s="36" t="s">
         <v>159</v>
@@ -7174,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -7189,13 +7263,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T30" s="6">
         <v>1</v>
@@ -7203,28 +7277,28 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J31" s="36" t="s">
         <v>159</v>
@@ -7233,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M31" s="6">
         <v>2</v>
@@ -7248,13 +7322,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T31" s="6">
         <v>5</v>
@@ -7262,37 +7336,37 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G32" s="6">
         <v>26.3</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K32" s="6">
         <v>100</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M32" s="6">
         <v>2</v>
@@ -7307,13 +7381,13 @@
         <v>2</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T32" s="6">
         <v>6</v>
@@ -7324,25 +7398,25 @@
         <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J33" s="36" t="s">
         <v>159</v>
@@ -7351,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M33" s="6">
         <v>3</v>
@@ -7366,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T33" s="6">
         <v>3</v>
@@ -7380,17 +7454,17 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G34" s="6">
         <v>27.3</v>
@@ -7399,10 +7473,10 @@
         <v>159</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K34" s="6">
         <v>14.3</v>
@@ -7423,13 +7497,13 @@
         <v>5</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T34" s="6">
         <v>9</v>
@@ -7440,16 +7514,16 @@
         <v>148</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G35" s="6">
         <v>40</v>
@@ -7458,7 +7532,7 @@
         <v>159</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J35" s="36" t="s">
         <v>159</v>
@@ -7467,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -7482,13 +7556,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T35" s="6">
         <v>-2</v>
@@ -7499,34 +7573,34 @@
         <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G36" s="6">
         <v>66.7</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M36" s="6">
         <v>1</v>
@@ -7541,13 +7615,13 @@
         <v>2</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T36" s="6">
         <v>8</v>
@@ -7555,7 +7629,7 @@
     </row>
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -7578,14 +7652,14 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>144</v>
@@ -7597,7 +7671,7 @@
         <v>159</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J38" s="36" t="s">
         <v>159</v>
@@ -7606,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -7621,13 +7695,13 @@
         <v>1</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T38" s="6">
         <v>-4</v>
@@ -7635,28 +7709,28 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G39" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J39" s="36" t="s">
         <v>159</v>
@@ -7665,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" s="6">
         <v>3</v>
@@ -7680,13 +7754,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T39" s="6">
         <v>-1</v>
@@ -7694,37 +7768,37 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G40" s="6">
         <v>45.5</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K40" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M40" s="6">
         <v>4</v>
@@ -7739,13 +7813,13 @@
         <v>9</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="T40" s="6">
         <v>-10</v>
@@ -7756,13 +7830,13 @@
         <v>140</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D41" s="6">
         <v>9</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>159</v>
@@ -7771,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J41" s="36" t="s">
         <v>159</v>
@@ -7783,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M41" s="6">
         <v>3</v>
@@ -7804,7 +7878,7 @@
         <v>270</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T41" s="6">
         <v>-8</v>
@@ -7812,16 +7886,16 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>144</v>
@@ -7833,16 +7907,16 @@
         <v>159</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K42" s="6">
         <v>75</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -7860,10 +7934,10 @@
         <v>162</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T42" s="6">
         <v>0</v>
@@ -7874,16 +7948,16 @@
         <v>148</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G43" s="6">
         <v>60</v>
@@ -7892,7 +7966,7 @@
         <v>159</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J43" s="36" t="s">
         <v>159</v>
@@ -7901,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
@@ -7916,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T43" s="6">
         <v>-16</v>
@@ -7937,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F44" s="36" t="s">
         <v>159</v>
@@ -7946,10 +8020,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J44" s="36" t="s">
         <v>159</v>
@@ -7958,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -7973,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T44" s="6">
         <v>-5</v>
@@ -7994,19 +8068,19 @@
         <v>4</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G45" s="6">
         <v>28.6</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I45" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>159</v>
@@ -8015,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -8030,13 +8104,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T45" s="6">
         <v>-11</v>
@@ -8044,7 +8118,7 @@
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -8067,17 +8141,17 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <v>0</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -8086,7 +8160,7 @@
         <v>159</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J47" s="36" t="s">
         <v>159</v>
@@ -8095,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M47" s="6">
         <v>1</v>
@@ -8110,13 +8184,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T47" s="6">
         <v>18</v>
@@ -8124,19 +8198,19 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
@@ -8145,7 +8219,7 @@
         <v>151</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J48" s="36" t="s">
         <v>159</v>
@@ -8154,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" s="6">
         <v>1</v>
@@ -8169,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="T48" s="6">
         <v>18</v>
@@ -8183,37 +8257,37 @@
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D49" s="6">
         <v>38</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G49" s="6">
         <v>71.400000000000006</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K49" s="6">
         <v>75</v>
       </c>
       <c r="L49" s="36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M49" s="6">
         <v>2</v>
@@ -8228,13 +8302,13 @@
         <v>11</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T49" s="6">
         <v>43</v>
@@ -8245,25 +8319,25 @@
         <v>140</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D50" s="6">
         <v>8</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G50" s="6">
         <v>100</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J50" s="36" t="s">
         <v>159</v>
@@ -8272,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M50" s="6">
         <v>6</v>
@@ -8287,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T50" s="6">
         <v>36</v>
@@ -8301,19 +8375,19 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D51" s="6">
         <v>24</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G51" s="6">
         <v>52.6</v>
@@ -8322,16 +8396,16 @@
         <v>159</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K51" s="6">
         <v>80</v>
       </c>
       <c r="L51" s="36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M51" s="6">
         <v>1</v>
@@ -8346,13 +8420,13 @@
         <v>3</v>
       </c>
       <c r="Q51" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S51" s="36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T51" s="6">
         <v>30</v>
@@ -8363,16 +8437,16 @@
         <v>148</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D52" s="6">
         <v>6</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G52" s="6">
         <v>50</v>
@@ -8381,7 +8455,7 @@
         <v>159</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J52" s="36" t="s">
         <v>159</v>
@@ -8405,13 +8479,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="S52" s="36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T52" s="6">
         <v>32</v>
@@ -8426,7 +8500,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F53" s="36" t="s">
         <v>159</v>
@@ -8435,19 +8509,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K53" s="6">
         <v>0</v>
       </c>
       <c r="L53" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M53" s="6">
         <v>1</v>
@@ -8462,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="Q53" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S53" s="36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T53" s="6">
         <v>28</v>
@@ -8476,7 +8550,7 @@
     </row>
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
@@ -8499,17 +8573,17 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G55" s="6">
         <v>33.299999999999997</v>
@@ -8518,7 +8592,7 @@
         <v>159</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J55" s="36" t="s">
         <v>151</v>
@@ -8542,13 +8616,13 @@
         <v>3</v>
       </c>
       <c r="Q55" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S55" s="36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T55" s="6">
         <v>1</v>
@@ -8556,37 +8630,37 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D56" s="6">
         <v>26</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G56" s="6">
         <v>66.7</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K56" s="6">
         <v>50</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M56" s="6">
         <v>7</v>
@@ -8601,13 +8675,13 @@
         <v>9</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R56" s="6" t="s">
         <v>287</v>
       </c>
       <c r="S56" s="36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T56" s="6">
         <v>14</v>
@@ -8618,25 +8692,25 @@
         <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D57" s="6">
         <v>10</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G57" s="6">
         <v>100</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J57" s="36" t="s">
         <v>159</v>
@@ -8645,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M57" s="6">
         <v>1</v>
@@ -8660,13 +8734,13 @@
         <v>1</v>
       </c>
       <c r="Q57" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S57" s="36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T57" s="6">
         <v>12</v>
@@ -8674,37 +8748,37 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D58" s="6">
         <v>15</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G58" s="6">
         <v>66.7</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K58" s="6">
         <v>60</v>
       </c>
       <c r="L58" s="36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" s="6">
         <v>0</v>
@@ -8719,13 +8793,13 @@
         <v>4</v>
       </c>
       <c r="Q58" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>168</v>
+        <v>439</v>
       </c>
       <c r="S58" s="36" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="T58" s="6">
         <v>14</v>
@@ -8736,34 +8810,34 @@
         <v>148</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K59" s="6">
         <v>16.7</v>
       </c>
       <c r="L59" s="36" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M59" s="6">
         <v>2</v>
@@ -8778,13 +8852,13 @@
         <v>4</v>
       </c>
       <c r="Q59" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S59" s="36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="T59" s="6">
         <v>14</v>
@@ -8795,13 +8869,13 @@
         <v>132</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D60" s="6">
         <v>12</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>279</v>
@@ -8810,19 +8884,19 @@
         <v>40</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K60" s="6">
         <v>66.7</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M60" s="6">
         <v>0</v>
@@ -8837,13 +8911,13 @@
         <v>3</v>
       </c>
       <c r="Q60" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S60" s="36" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T60" s="6">
         <v>15</v>
@@ -8851,7 +8925,7 @@
     </row>
     <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="35" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
@@ -8874,17 +8948,17 @@
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6">
         <v>0</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -8893,16 +8967,16 @@
         <v>159</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="K62" s="6">
         <v>0</v>
       </c>
       <c r="L62" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M62" s="6">
         <v>0</v>
@@ -8917,13 +8991,13 @@
         <v>1</v>
       </c>
       <c r="Q62" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R62" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S62" s="36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="T62" s="6">
         <v>4</v>
@@ -8931,35 +9005,35 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6">
         <v>9</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G63" s="6">
         <v>75</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K63" s="6">
         <v>0</v>
       </c>
       <c r="L63" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M63" s="6">
         <v>1</v>
@@ -8974,13 +9048,13 @@
         <v>2</v>
       </c>
       <c r="Q63" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S63" s="36" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T63" s="6">
         <v>9</v>
@@ -8988,37 +9062,37 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B64" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D64" s="6">
         <v>35</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="G64" s="6">
         <v>50</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K64" s="6">
         <v>85.7</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M64" s="6">
         <v>2</v>
@@ -9033,13 +9107,13 @@
         <v>8</v>
       </c>
       <c r="Q64" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S64" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T64" s="6">
         <v>29</v>
@@ -9050,25 +9124,25 @@
         <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D65" s="6">
         <v>11</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G65" s="6">
         <v>16.7</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J65" s="36" t="s">
         <v>159</v>
@@ -9077,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="36" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M65" s="6">
         <v>5</v>
@@ -9092,13 +9166,13 @@
         <v>1</v>
       </c>
       <c r="Q65" s="36" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S65" s="36" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T65" s="6">
         <v>35</v>
@@ -9106,16 +9180,16 @@
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B66" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D66" s="6">
         <v>11</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F66" s="36" t="s">
         <v>279</v>
@@ -9127,16 +9201,16 @@
         <v>159</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K66" s="6">
         <v>75</v>
       </c>
       <c r="L66" s="36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M66" s="6">
         <v>2</v>
@@ -9151,13 +9225,13 @@
         <v>2</v>
       </c>
       <c r="Q66" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R66" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S66" s="36" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="T66" s="6">
         <v>35</v>
@@ -9168,16 +9242,16 @@
         <v>148</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D67" s="6">
         <v>6</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G67" s="6">
         <v>60</v>
@@ -9186,7 +9260,7 @@
         <v>159</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J67" s="36" t="s">
         <v>159</v>
@@ -9195,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M67" s="6">
         <v>1</v>
@@ -9210,13 +9284,13 @@
         <v>2</v>
       </c>
       <c r="Q67" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R67" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S67" s="36" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="T67" s="6">
         <v>36</v>
@@ -9231,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>159</v>
@@ -9240,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I68" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J68" s="36" t="s">
         <v>159</v>
@@ -9252,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="36" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M68" s="6">
         <v>2</v>
@@ -9267,13 +9341,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S68" s="36" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="T68" s="6">
         <v>14</v>
@@ -9284,25 +9358,25 @@
         <v>132</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D69" s="6">
         <v>12</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G69" s="6">
         <v>60</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J69" s="36" t="s">
         <v>159</v>
@@ -9311,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M69" s="6">
         <v>1</v>
@@ -9326,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="Q69" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R69" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S69" s="36" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="T69" s="6">
         <v>43</v>
@@ -9340,7 +9414,7 @@
     </row>
     <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
@@ -9363,17 +9437,17 @@
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B71" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6">
         <v>2</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G71" s="6">
         <v>33.299999999999997</v>
@@ -9382,7 +9456,7 @@
         <v>159</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J71" s="36" t="s">
         <v>159</v>
@@ -9391,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" s="6">
         <v>0</v>
@@ -9406,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="Q71" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R71" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S71" s="36" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="T71" s="6">
         <v>-8</v>
@@ -9420,16 +9494,16 @@
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B72" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D72" s="6">
         <v>29</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F72" s="36" t="s">
         <v>144</v>
@@ -9438,19 +9512,19 @@
         <v>25</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K72" s="6">
         <v>85.7</v>
       </c>
       <c r="L72" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M72" s="6">
         <v>3</v>
@@ -9465,13 +9539,13 @@
         <v>5</v>
       </c>
       <c r="Q72" s="36" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S72" s="36" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T72" s="6">
         <v>-16</v>
@@ -9479,37 +9553,37 @@
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D73" s="6">
         <v>29</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G73" s="6">
         <v>40</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K73" s="6">
         <v>46.7</v>
       </c>
       <c r="L73" s="36" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M73" s="6">
         <v>5</v>
@@ -9524,13 +9598,13 @@
         <v>8</v>
       </c>
       <c r="Q73" s="36" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="S73" s="36" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="T73" s="6">
         <v>-18</v>
@@ -9538,19 +9612,19 @@
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B74" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D74" s="6">
         <v>14</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>484</v>
+        <v>136</v>
       </c>
       <c r="G74" s="6">
         <v>50</v>
@@ -9559,16 +9633,16 @@
         <v>159</v>
       </c>
       <c r="I74" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K74" s="6">
         <v>100</v>
       </c>
       <c r="L74" s="36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M74" s="6">
         <v>0</v>
@@ -9583,13 +9657,13 @@
         <v>3</v>
       </c>
       <c r="Q74" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S74" s="36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="T74" s="6">
         <v>-17</v>
@@ -9600,16 +9674,16 @@
         <v>148</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="G75" s="6">
         <v>0</v>
@@ -9618,7 +9692,7 @@
         <v>159</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J75" s="36" t="s">
         <v>151</v>
@@ -9627,7 +9701,7 @@
         <v>50</v>
       </c>
       <c r="L75" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M75" s="6">
         <v>0</v>
@@ -9642,13 +9716,13 @@
         <v>1</v>
       </c>
       <c r="Q75" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="S75" s="36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T75" s="6">
         <v>-22</v>
@@ -9656,14 +9730,14 @@
     </row>
     <row r="76" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B76" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <v>0</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>159</v>
@@ -9675,7 +9749,7 @@
         <v>159</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J76" s="36" t="s">
         <v>159</v>
@@ -9684,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M76" s="6">
         <v>0</v>
@@ -9699,13 +9773,13 @@
         <v>0</v>
       </c>
       <c r="Q76" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S76" s="36" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T76" s="6">
         <v>0</v>
@@ -9716,25 +9790,25 @@
         <v>132</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D77" s="6">
         <v>4</v>
       </c>
       <c r="E77" s="36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G77" s="6">
         <v>25</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I77" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J77" s="36" t="s">
         <v>159</v>
@@ -9758,13 +9832,13 @@
         <v>2</v>
       </c>
       <c r="Q77" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S77" s="36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T77" s="6">
         <v>1</v>
@@ -9772,7 +9846,7 @@
     </row>
     <row r="78" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
@@ -9795,19 +9869,19 @@
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B79" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D79" s="6">
         <v>14</v>
       </c>
       <c r="E79" s="36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G79" s="6">
         <v>33.299999999999997</v>
@@ -9816,7 +9890,7 @@
         <v>279</v>
       </c>
       <c r="I79" s="36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J79" s="36" t="s">
         <v>159</v>
@@ -9825,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M79" s="6">
         <v>3</v>
@@ -9840,13 +9914,13 @@
         <v>3</v>
       </c>
       <c r="Q79" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S79" s="36" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T79" s="6">
         <v>7</v>
@@ -9854,28 +9928,28 @@
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B80" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="6">
         <v>20</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G80" s="6">
         <v>33.299999999999997</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J80" s="36" t="s">
         <v>151</v>
@@ -9884,7 +9958,7 @@
         <v>50</v>
       </c>
       <c r="L80" s="36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M80" s="6">
         <v>2</v>
@@ -9899,13 +9973,13 @@
         <v>7</v>
       </c>
       <c r="Q80" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S80" s="36" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T80" s="6">
         <v>-2</v>
@@ -9916,25 +9990,25 @@
         <v>140</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="6">
         <v>2</v>
       </c>
       <c r="E81" s="36" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G81" s="6">
         <v>100</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J81" s="36" t="s">
         <v>159</v>
@@ -9943,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M81" s="6">
         <v>3</v>
@@ -9958,13 +10032,13 @@
         <v>1</v>
       </c>
       <c r="Q81" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S81" s="36" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T81" s="6">
         <v>-17</v>
@@ -9972,17 +10046,17 @@
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B82" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6">
         <v>14</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G82" s="6">
         <v>58.3</v>
@@ -9991,7 +10065,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J82" s="36" t="s">
         <v>159</v>
@@ -10000,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="36" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M82" s="6">
         <v>0</v>
@@ -10015,13 +10089,13 @@
         <v>0</v>
       </c>
       <c r="Q82" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S82" s="36" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="T82" s="6">
         <v>14</v>
@@ -10032,16 +10106,16 @@
         <v>148</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="6">
         <v>0</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G83" s="6">
         <v>0</v>
@@ -10050,7 +10124,7 @@
         <v>159</v>
       </c>
       <c r="I83" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J83" s="36" t="s">
         <v>159</v>
@@ -10059,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="36" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M83" s="6">
         <v>3</v>
@@ -10074,13 +10148,13 @@
         <v>1</v>
       </c>
       <c r="Q83" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S83" s="36" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T83" s="6">
         <v>1</v>
@@ -10095,7 +10169,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F84" s="36" t="s">
         <v>159</v>
@@ -10104,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="36" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I84" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J84" s="36" t="s">
         <v>159</v>
@@ -10116,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M84" s="6">
         <v>3</v>
@@ -10131,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="Q84" s="36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R84" s="6" t="s">
         <v>270</v>
       </c>
       <c r="S84" s="36" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="T84" s="6">
         <v>3</v>
@@ -10148,25 +10222,25 @@
         <v>132</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="6">
         <v>0</v>
       </c>
       <c r="E85" s="36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F85" s="36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="I85" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J85" s="36" t="s">
         <v>159</v>
@@ -10175,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M85" s="6">
         <v>1</v>
@@ -10190,25 +10264,458 @@
         <v>0</v>
       </c>
       <c r="Q85" s="36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S85" s="36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T85" s="6">
         <v>-21</v>
       </c>
     </row>
+    <row r="86" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B87" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="F87" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="G87" s="6">
+        <v>0</v>
+      </c>
+      <c r="H87" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="J87" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="M87" s="6">
+        <v>7</v>
+      </c>
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87" s="6">
+        <v>0</v>
+      </c>
+      <c r="P87" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="S87" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="T87" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B88" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="6">
+        <v>19</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" s="6">
+        <v>50</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I88" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K88" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="L88" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="S88" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="T88" s="6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B89" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="6">
+        <v>11</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="F89" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="G89" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H89" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="J89" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M89" s="6">
+        <v>2</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="S89" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="T89" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="6">
+        <v>13</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="G90" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I90" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J90" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K90" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="L90" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="M90" s="6">
+        <v>1</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <v>1</v>
+      </c>
+      <c r="P90" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q90" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="S90" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="T90" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B91" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="H91" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J91" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="M91" s="6">
+        <v>1</v>
+      </c>
+      <c r="N91" s="6">
+        <v>1</v>
+      </c>
+      <c r="O91" s="6">
+        <v>0</v>
+      </c>
+      <c r="P91" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="S91" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="T91" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B92" s="33" t="s">
+        <v>532</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="F92" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M92" s="6">
+        <v>1</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0</v>
+      </c>
+      <c r="P92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="S92" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="T92" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B93" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6">
+        <v>8</v>
+      </c>
+      <c r="E93" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="F93" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="I93" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="J93" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="K93" s="6">
+        <v>50</v>
+      </c>
+      <c r="L93" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="M93" s="6">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <v>0</v>
+      </c>
+      <c r="P93" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="S93" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="T93" s="6">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="B46:T46"/>
     <mergeCell ref="B54:T54"/>
     <mergeCell ref="B61:T61"/>
     <mergeCell ref="B70:T70"/>
     <mergeCell ref="B78:T78"/>
+    <mergeCell ref="B86:T86"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B4:T4"/>
     <mergeCell ref="B12:T12"/>
@@ -10237,7 +10744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3847BB-D201-464C-9B04-DECD27C29986}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423F2002-9396-404D-B8BA-17805FA07B34}">
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10251,7 +10758,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -10262,30 +10769,30 @@
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -10294,44 +10801,44 @@
         <v>8</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="C4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -10340,21 +10847,21 @@
         <v>7</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -10363,21 +10870,21 @@
         <v>7</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -10386,67 +10893,67 @@
         <v>7</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="C9" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -10455,21 +10962,21 @@
         <v>8</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -10478,21 +10985,21 @@
         <v>7</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -10501,21 +11008,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -10524,21 +11031,21 @@
         <v>3</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -10547,21 +11054,21 @@
         <v>2</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>219</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -10570,21 +11077,21 @@
         <v>2</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>219</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -10593,21 +11100,21 @@
         <v>4</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>219</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -10616,21 +11123,21 @@
         <v>5</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>549</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -10639,16 +11146,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
